--- a/Documents/Tables_Models_8.12.24.xlsx
+++ b/Documents/Tables_Models_8.12.24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carmenrodriguez/Desktop/Research Projects/BayesBinMix/ecbayesbinmix/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244234B5-028D-0B4C-8AC5-995F045E7B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989300BA-C383-1140-92E2-498C1BCCFB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="500" windowWidth="21980" windowHeight="17500" activeTab="12" xr2:uid="{3C93BFA3-DCF0-6A4C-BE1A-7CEC319431AB}"/>
+    <workbookView xWindow="1040" yWindow="500" windowWidth="23240" windowHeight="17000" activeTab="6" xr2:uid="{3C93BFA3-DCF0-6A4C-BE1A-7CEC319431AB}"/>
   </bookViews>
   <sheets>
     <sheet name="old version" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,16 +19,17 @@
     <sheet name="3.26.24.fullsample" sheetId="9" r:id="rId4"/>
     <sheet name="ACS2006-2010" sheetId="3" state="hidden" r:id="rId5"/>
     <sheet name="ACS2011-2015" sheetId="4" state="hidden" r:id="rId6"/>
-    <sheet name="ACS2015-2019" sheetId="5" r:id="rId7"/>
-    <sheet name="Models_3.18.24" sheetId="6" state="hidden" r:id="rId8"/>
-    <sheet name="2010" sheetId="10" state="hidden" r:id="rId9"/>
-    <sheet name="2015" sheetId="11" state="hidden" r:id="rId10"/>
-    <sheet name="other_tables" sheetId="7" state="hidden" r:id="rId11"/>
-    <sheet name="FrequentistModels (Old)" sheetId="13" r:id="rId12"/>
-    <sheet name="BayesianModels_8.13.24" sheetId="21" r:id="rId13"/>
-    <sheet name="Sheet2" sheetId="15" state="hidden" r:id="rId14"/>
-    <sheet name="Other tables" sheetId="16" state="hidden" r:id="rId15"/>
-    <sheet name="presentation" sheetId="18" state="hidden" r:id="rId16"/>
+    <sheet name="ACS2015-2019 (col)" sheetId="22" r:id="rId7"/>
+    <sheet name="ACS2015-2019" sheetId="5" r:id="rId8"/>
+    <sheet name="Models_3.18.24" sheetId="6" state="hidden" r:id="rId9"/>
+    <sheet name="2010" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet name="2015" sheetId="11" state="hidden" r:id="rId11"/>
+    <sheet name="other_tables" sheetId="7" state="hidden" r:id="rId12"/>
+    <sheet name="FrequentistModels (Old)" sheetId="13" r:id="rId13"/>
+    <sheet name="BayesianModels_8.13.24" sheetId="21" r:id="rId14"/>
+    <sheet name="Sheet2" sheetId="15" state="hidden" r:id="rId15"/>
+    <sheet name="Other tables" sheetId="16" state="hidden" r:id="rId16"/>
+    <sheet name="presentation" sheetId="18" state="hidden" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5319" uniqueCount="3343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6153" uniqueCount="3662">
   <si>
     <t>Not optimal</t>
   </si>
@@ -11949,6 +11950,963 @@
   </si>
   <si>
     <t>(0.092, 0.422)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">776 (95.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">135 (94.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">275 (64.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94 (72.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">170 (86.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">169 (94.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">271 (95.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">213 (90.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 ( 1.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 ( 2.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 52 (12.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13 (10.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13 ( 6.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4 ( 2.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4 ( 1.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22 ( 2.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2 ( 1.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16 ( 3.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14 (10.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 ( 0.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 ( 1.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7 ( 2.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7 ( 3.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7 ( 0.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 ( 0.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 78 (18.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6 ( 4.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9 ( 4.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6 ( 2.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 ( 4.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">391 (47.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38 (26.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">136 (31.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42 (32.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60 (30.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66 (36.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">112 (39.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">123 (52.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">373 (45.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 (69.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">195 (45.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 59 (45.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">112 (57.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">106 (59.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">158 (55.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 98 (41.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 53 ( 6.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5 ( 3.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 95 (22.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29 (22.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24 (12.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7 ( 3.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 58 ( 7.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9 ( 6.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16 (12.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19 ( 9.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 ( 5.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21 ( 7.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29 (12.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">366 (44.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72 (50.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">198 (46.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 58 (44.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90 (45.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 84 (46.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">132 (46.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">111 (47.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">393 (48.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 62 (43.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">176 (41.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56 (43.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 87 (44.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85 (47.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96 (40.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">405 (49.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 59 (41.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">130 (30.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 62 (47.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 84 (42.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70 (39.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">136 (47.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">118 (50.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">341 (41.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 58 (40.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">175 (41.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49 (37.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 76 (38.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 81 (45.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">123 (43.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 83 (35.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35 ( 4.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13 ( 9.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8 ( 6.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16 ( 8.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16 ( 8.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14 ( 4.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19 ( 8.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 ( 8.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39 ( 9.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18 ( 9.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9 ( 3.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14 ( 1.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4 ( 0.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 ( 2.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2 ( 1.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2 ( 1.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 ( 1.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 ( 1.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 ( 3.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6 ( 4.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22 ( 5.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8 ( 4.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  9 ( 3.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">531 (65.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">101 (70.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">268 (62.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92 (70.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">128 (65.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">119 (66.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">197 (69.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">158 (66.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">148 (18.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18 (12.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 81 (19.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36 (18.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41 (22.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 51 (17.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41 (17.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 43 ( 5.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29 ( 6.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 ( 3.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70 ( 8.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26 ( 6.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 ( 7.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24 ( 2.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13 ( 4.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 ( 0.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">792 (96.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">137 (95.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">403 (94.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">124 (95.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">188 (95.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">269 (94.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">227 (96.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2 ( 0.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">591 (72.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">113 (79.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">310 (72.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">104 (80.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">142 (72.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">133 (74.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">216 (75.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">180 (76.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">226 (27.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30 (21.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">116 (27.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26 (20.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54 (27.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 46 (25.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 69 (24.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56 (23.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5 ( 1.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4 ( 3.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">149 (18.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17 (11.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66 (15.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31 (15.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32 (17.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 43 (15.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33 (14.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72 ( 8.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45 (10.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23 (11.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14 ( 7.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24 ( 8.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22 ( 9.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">699 (85.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">123 (86.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">366 (85.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">109 (83.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">172 (87.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">165 (92.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">261 (91.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">206 (87.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">118 (14.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 (14.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60 (14.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21 (16.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">687 (84.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">119 (83.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">345 (81.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">105 (80.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">164 (83.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">151 (84.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">246 (86.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">186 (78.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 78 ( 9.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14 ( 9.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44 (10.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 ( 7.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 ( 8.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27 ( 9.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4 ( 2.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 ( 2.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5 ( 3.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 ( 5.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5 ( 1.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7 ( 5.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7 ( 3.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11 ( 6.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">371 (45.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 78 (54.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">217 (50.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 63 (48.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94 (48.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 91 (50.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">149 (52.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">103 (43.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">284 (34.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44 (30.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">122 (28.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39 (30.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71 (36.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57 (31.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 97 (34.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89 (37.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">162 (19.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21 (14.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 87 (20.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28 (21.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31 (17.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39 (13.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">318 (38.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48 (33.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">168 (39.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71 (54.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 53 (27.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 68 (38.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">104 (36.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">113 (47.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">336 (41.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">124 (29.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27 (20.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 69 (35.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44 (24.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">106 (37.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 68 (28.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16 ( 2.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">132 (16.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">110 (25.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66 (33.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60 (33.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 61 (21.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54 (22.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21 ( 2.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7 ( 1.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13 ( 7.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">213 (26.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33 (23.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71 (16.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22 (16.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32 (16.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36 (20.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72 (25.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 47 (19.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">583 (71.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">107 (74.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">348 (81.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">107 (82.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">162 (82.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">130 (72.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202 (70.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">427 (52.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 52 (36.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">192 (45.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80 (61.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 81 (41.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 43 (24.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">105 (36.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">138 (58.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13 ( 1.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3 ( 0.7) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">155 (19.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27 (18.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 83 (19.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48 (24.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71 (24.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39 (16.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">105 (12.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29 (20.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 63 (14.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18 (13.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35 (19.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28 (11.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 ( 2.3) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5 ( 2.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15 ( 1.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4 ( 2.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5 ( 2.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6 ( 2.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77 ( 9.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26 (18.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 68 (16.0) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27 (13.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42 (23.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54 (18.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18 ( 7.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">137 (16.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 (17.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89 (20.9) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33 (18.4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42 (17.8) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">680 (83.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">118 (82.5) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">337 (79.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">112 (86.2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">146 (81.6) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">234 (82.1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">194 (82.2) </t>
   </si>
 </sst>
 </file>
@@ -12507,7 +13465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -12904,6 +13862,31 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -12930,13 +13913,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -12962,10 +13945,16 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12974,26 +13963,20 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -13007,67 +13990,20 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13391,16 +14327,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="150"/>
+    <col min="1" max="1" width="10.83203125" style="159"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="150"/>
+    <col min="6" max="6" width="10.83203125" style="159"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="17" thickTop="1">
-      <c r="B1" s="148"/>
+      <c r="B1" s="157"/>
       <c r="C1" s="1" t="s">
         <v>240</v>
       </c>
@@ -13412,7 +14348,7 @@
       </c>
     </row>
     <row r="2" spans="2:5" ht="17" thickBot="1">
-      <c r="B2" s="149"/>
+      <c r="B2" s="158"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -15047,6 +15983,1241 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0184AF8D-1BBE-E94B-BEAF-19DDC48443EE}">
+  <dimension ref="A1:K77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:B65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="20" style="16" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="16"/>
+    <col min="11" max="11" width="14.6640625" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="30">
+      <c r="A1" s="95" t="s">
+        <v>527</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="97"/>
+      <c r="B2" s="108" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="98" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="99" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B4" s="107">
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="99" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B5" s="107">
+        <v>1.194</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>2675</v>
+      </c>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="99" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B6" s="107">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="C6" s="107" t="s">
+        <v>2677</v>
+      </c>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+    </row>
+    <row r="7" spans="1:11" ht="18">
+      <c r="A7" s="99" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="99" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B8" s="107">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>2422</v>
+      </c>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="99" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B9" s="107">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="99" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B10" s="107">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="C10" s="107" t="s">
+        <v>2685</v>
+      </c>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="99" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B11" s="107">
+        <v>1.2230000000000001</v>
+      </c>
+      <c r="C11" s="107" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="99" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B12" s="107">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="C12" s="107" t="s">
+        <v>2692</v>
+      </c>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="99" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B13" s="107">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C13" s="107" t="s">
+        <v>2694</v>
+      </c>
+      <c r="D13" s="170"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="170"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="99" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B14" s="107">
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>2696</v>
+      </c>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="170"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="99" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B15" s="107">
+        <v>1.024</v>
+      </c>
+      <c r="C15" s="107" t="s">
+        <v>2689</v>
+      </c>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="99" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B16" s="107">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+    </row>
+    <row r="17" spans="1:11" ht="18">
+      <c r="A17" s="99" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B17" s="107" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C17" s="107" t="s">
+        <v>2700</v>
+      </c>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+    </row>
+    <row r="18" spans="1:11" ht="18">
+      <c r="A18" s="99" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B18" s="107" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C18" s="107" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+    </row>
+    <row r="19" spans="1:11" ht="18">
+      <c r="A19" s="99" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B19" s="107" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C19" s="107" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="170"/>
+    </row>
+    <row r="20" spans="1:11" ht="18">
+      <c r="A20" s="99" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B20" s="107" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C20" s="107" t="s">
+        <v>2728</v>
+      </c>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="170"/>
+      <c r="K20" s="170"/>
+    </row>
+    <row r="21" spans="1:11" ht="18">
+      <c r="A21" s="99" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B21" s="107" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C21" s="107" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="170"/>
+    </row>
+    <row r="22" spans="1:11" ht="18">
+      <c r="A22" s="99" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B22" s="107" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C22" s="107" t="s">
+        <v>2739</v>
+      </c>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="170"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="99" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B23" s="171">
+        <v>1.21</v>
+      </c>
+      <c r="C23" s="171" t="s">
+        <v>2703</v>
+      </c>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="99" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B24" s="171"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="170"/>
+      <c r="K24" s="170"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="99" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B25" s="171" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C25" s="171" t="s">
+        <v>2706</v>
+      </c>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="170"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="99" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B26" s="171"/>
+      <c r="C26" s="171"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="170"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="99" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B27" s="107">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="C27" s="107" t="s">
+        <v>2708</v>
+      </c>
+      <c r="D27" s="170"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="170"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="99" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B28" s="171">
+        <v>1.4930000000000001</v>
+      </c>
+      <c r="C28" s="171" t="s">
+        <v>2711</v>
+      </c>
+      <c r="D28" s="170"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="170"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="99" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B29" s="171"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="170"/>
+      <c r="K29" s="170"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="99" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B30" s="171" t="s">
+        <v>2714</v>
+      </c>
+      <c r="C30" s="171" t="s">
+        <v>2715</v>
+      </c>
+      <c r="D30" s="170"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="170"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="99" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B31" s="171"/>
+      <c r="C31" s="171"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="170"/>
+      <c r="K31" s="170"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="99" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B32" s="171">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="C32" s="171" t="s">
+        <v>2718</v>
+      </c>
+      <c r="D32" s="170"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="170"/>
+      <c r="K32" s="170"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="99" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B33" s="171"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="170"/>
+      <c r="E33" s="170"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="170"/>
+      <c r="K33" s="170"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="99" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B34" s="171">
+        <v>1.089</v>
+      </c>
+      <c r="C34" s="171" t="s">
+        <v>2720</v>
+      </c>
+      <c r="D34" s="170"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="170"/>
+      <c r="K34" s="170"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="99" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B35" s="171"/>
+      <c r="C35" s="171"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="170"/>
+      <c r="I35" s="170"/>
+      <c r="J35" s="170"/>
+      <c r="K35" s="170"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="99" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B36" s="107">
+        <v>3749</v>
+      </c>
+      <c r="D36" s="170"/>
+      <c r="E36" s="170"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="170"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="170"/>
+      <c r="K36" s="170"/>
+    </row>
+    <row r="37" spans="1:11" ht="18">
+      <c r="A37" s="99" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B37" s="107">
+        <v>0.125</v>
+      </c>
+      <c r="D37" s="170"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="170"/>
+      <c r="K37" s="170"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="D38" s="170"/>
+      <c r="E38" s="170"/>
+      <c r="F38" s="170"/>
+      <c r="G38" s="170"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="170"/>
+      <c r="J38" s="170"/>
+      <c r="K38" s="170"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="99"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="99"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="97"/>
+      <c r="B43" s="97" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="98" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B44" s="98" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C44" s="98" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="99" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B45" s="99">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="C45" s="99" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="99" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B46" s="99">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="C46" s="99" t="s">
+        <v>2743</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="99" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B47" s="99">
+        <v>1.052</v>
+      </c>
+      <c r="C47" s="99" t="s">
+        <v>2744</v>
+      </c>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="99" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B48" s="99">
+        <v>1.2030000000000001</v>
+      </c>
+      <c r="C48" s="99" t="s">
+        <v>2645</v>
+      </c>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="99" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B49" s="170">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="C49" s="170" t="s">
+        <v>2745</v>
+      </c>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="99" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B50" s="170"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="99" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B51" s="170">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="C51" s="170" t="s">
+        <v>2746</v>
+      </c>
+      <c r="D51" s="99"/>
+      <c r="E51" s="99"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="99" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B52" s="170"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
+      <c r="E52" s="170"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="99" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B53" s="99">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="C53" s="99" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D53" s="170"/>
+      <c r="E53" s="170"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="99" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B54" s="99">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="C54" s="99" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D54" s="170"/>
+      <c r="E54" s="170"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="99" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B55" s="99">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="C55" s="99" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D55" s="170"/>
+      <c r="E55" s="170"/>
+    </row>
+    <row r="56" spans="1:5" ht="18">
+      <c r="A56" s="99" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B56" s="99" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C56" s="99" t="s">
+        <v>2751</v>
+      </c>
+      <c r="D56" s="99"/>
+      <c r="E56" s="99"/>
+    </row>
+    <row r="57" spans="1:5" ht="18">
+      <c r="A57" s="99" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B57" s="99" t="s">
+        <v>2752</v>
+      </c>
+      <c r="C57" s="99" t="s">
+        <v>2753</v>
+      </c>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+    </row>
+    <row r="58" spans="1:5" ht="18">
+      <c r="A58" s="99" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B58" s="99" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C58" s="99" t="s">
+        <v>2755</v>
+      </c>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+    </row>
+    <row r="59" spans="1:5" ht="18">
+      <c r="A59" s="99" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B59" s="99" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C59" s="99" t="s">
+        <v>2757</v>
+      </c>
+      <c r="D59" s="99"/>
+      <c r="E59" s="99"/>
+    </row>
+    <row r="60" spans="1:5" ht="18">
+      <c r="A60" s="99" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B60" s="99" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C60" s="99" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D60" s="99"/>
+      <c r="E60" s="99"/>
+    </row>
+    <row r="61" spans="1:5" ht="18">
+      <c r="A61" s="99" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B61" s="99" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C61" s="99" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D61" s="99"/>
+      <c r="E61" s="99"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="99" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B62" s="170">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="C62" s="170" t="s">
+        <v>2762</v>
+      </c>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="99" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B63" s="170"/>
+      <c r="C63" s="170"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="99"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="99" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B64" s="170" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C64" s="170" t="s">
+        <v>2764</v>
+      </c>
+      <c r="D64" s="99"/>
+      <c r="E64" s="99"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="99" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B65" s="170"/>
+      <c r="C65" s="170"/>
+      <c r="D65" s="170"/>
+      <c r="E65" s="170"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="99" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B66" s="99">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="C66" s="99" t="s">
+        <v>2765</v>
+      </c>
+      <c r="D66" s="170"/>
+      <c r="E66" s="170"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="99" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B67" s="170">
+        <v>1.484</v>
+      </c>
+      <c r="C67" s="170" t="s">
+        <v>2766</v>
+      </c>
+      <c r="D67" s="170"/>
+      <c r="E67" s="170"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="99" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B68" s="170"/>
+      <c r="C68" s="170"/>
+      <c r="D68" s="170"/>
+      <c r="E68" s="170"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="99" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B69" s="170" t="s">
+        <v>2767</v>
+      </c>
+      <c r="C69" s="170" t="s">
+        <v>2768</v>
+      </c>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="99" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B70" s="170"/>
+      <c r="C70" s="170"/>
+      <c r="D70" s="170"/>
+      <c r="E70" s="170"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="99" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B71" s="170" t="s">
+        <v>2769</v>
+      </c>
+      <c r="C71" s="170" t="s">
+        <v>2770</v>
+      </c>
+      <c r="D71" s="170"/>
+      <c r="E71" s="170"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="99" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B72" s="170"/>
+      <c r="C72" s="170"/>
+      <c r="D72" s="170"/>
+      <c r="E72" s="170"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="99" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B73" s="170">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="C73" s="170" t="s">
+        <v>2771</v>
+      </c>
+      <c r="D73" s="170"/>
+      <c r="E73" s="170"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="99" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B74" s="170"/>
+      <c r="C74" s="170"/>
+      <c r="D74" s="170"/>
+      <c r="E74" s="170"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="99" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B75" s="99">
+        <v>3749</v>
+      </c>
+      <c r="C75"/>
+      <c r="D75" s="170"/>
+      <c r="E75" s="170"/>
+    </row>
+    <row r="76" spans="1:5" ht="18">
+      <c r="A76" s="99" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B76" s="99">
+        <v>0.122</v>
+      </c>
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="B77"/>
+      <c r="C77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="98">
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="H30:H38"/>
+    <mergeCell ref="I30:I38"/>
+    <mergeCell ref="J30:J38"/>
+    <mergeCell ref="K30:K38"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="E30:E38"/>
+    <mergeCell ref="F30:F38"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="G30:G38"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14C55AC-090F-9F42-97B6-3429DEAF1A53}">
   <dimension ref="A1:K41"/>
   <sheetViews>
@@ -16008,7 +18179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2C5D59-08CF-9A4D-86CE-A84AF9D155A0}">
   <dimension ref="A1:M65"/>
   <sheetViews>
@@ -16030,10 +18201,10 @@
       <c r="A1" s="31"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
-      <c r="D1" s="164" t="s">
+      <c r="D1" s="173" t="s">
         <v>804</v>
       </c>
-      <c r="E1" s="164"/>
+      <c r="E1" s="173"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="31"/>
@@ -16498,24 +18669,24 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="40"/>
-      <c r="B35" s="165" t="s">
+      <c r="B35" s="174" t="s">
         <v>855</v>
       </c>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="166" t="s">
+      <c r="C35" s="174"/>
+      <c r="D35" s="174"/>
+      <c r="E35" s="174"/>
+      <c r="F35" s="175" t="s">
         <v>867</v>
       </c>
-      <c r="G35" s="166"/>
-      <c r="H35" s="166"/>
-      <c r="I35" s="166"/>
-      <c r="J35" s="166" t="s">
+      <c r="G35" s="175"/>
+      <c r="H35" s="175"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="175" t="s">
         <v>868</v>
       </c>
-      <c r="K35" s="166"/>
-      <c r="L35" s="166"/>
-      <c r="M35" s="166"/>
+      <c r="K35" s="175"/>
+      <c r="L35" s="175"/>
+      <c r="M35" s="175"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="41"/>
@@ -16918,12 +19089,12 @@
       <c r="M45" s="46"/>
     </row>
     <row r="48" spans="1:13" ht="32" customHeight="1">
-      <c r="A48" s="167" t="s">
+      <c r="A48" s="176" t="s">
         <v>874</v>
       </c>
-      <c r="B48" s="168"/>
-      <c r="C48" s="168"/>
-      <c r="D48" s="169"/>
+      <c r="B48" s="177"/>
+      <c r="C48" s="177"/>
+      <c r="D48" s="178"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="56" t="s">
@@ -16968,12 +19139,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="32" customHeight="1">
-      <c r="A54" s="163" t="s">
+      <c r="A54" s="172" t="s">
         <v>875</v>
       </c>
-      <c r="B54" s="163"/>
-      <c r="C54" s="163"/>
-      <c r="D54" s="163"/>
+      <c r="B54" s="172"/>
+      <c r="C54" s="172"/>
+      <c r="D54" s="172"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="56" t="s">
@@ -17143,7 +19314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A9E6DE-4936-7041-BC5D-4454C9AFAA27}">
   <dimension ref="A2:R47"/>
   <sheetViews>
@@ -17183,31 +19354,31 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="104"/>
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="161" t="s">
         <v>2539</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152" t="s">
+      <c r="C3" s="161"/>
+      <c r="D3" s="161" t="s">
         <v>2540</v>
       </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152" t="s">
+      <c r="E3" s="161"/>
+      <c r="F3" s="161" t="s">
         <v>2541</v>
       </c>
-      <c r="G3" s="152"/>
+      <c r="G3" s="161"/>
       <c r="L3" s="104"/>
-      <c r="M3" s="152" t="s">
+      <c r="M3" s="161" t="s">
         <v>2539</v>
       </c>
-      <c r="N3" s="152"/>
-      <c r="O3" s="152" t="s">
+      <c r="N3" s="161"/>
+      <c r="O3" s="161" t="s">
         <v>2540</v>
       </c>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152" t="s">
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161" t="s">
         <v>2541</v>
       </c>
-      <c r="R3" s="152"/>
+      <c r="R3" s="161"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="104"/>
@@ -17294,10 +19465,10 @@
       <c r="L6" s="117" t="s">
         <v>2589</v>
       </c>
-      <c r="M6" s="176" t="s">
+      <c r="M6" s="179" t="s">
         <v>2543</v>
       </c>
-      <c r="N6" s="176"/>
+      <c r="N6" s="179"/>
       <c r="O6" s="118"/>
       <c r="P6" s="118"/>
       <c r="Q6" s="118"/>
@@ -17391,8 +19562,8 @@
       <c r="E9" s="115" t="s">
         <v>464</v>
       </c>
-      <c r="F9" s="172"/>
-      <c r="G9" s="173"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="184"/>
       <c r="L9" s="117" t="s">
         <v>2592</v>
       </c>
@@ -17404,8 +19575,8 @@
       </c>
       <c r="O9" s="118"/>
       <c r="P9" s="118"/>
-      <c r="Q9" s="174"/>
-      <c r="R9" s="175"/>
+      <c r="Q9" s="181"/>
+      <c r="R9" s="182"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="116" t="s">
@@ -17447,18 +19618,18 @@
       <c r="A11" s="116" t="s">
         <v>799</v>
       </c>
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="185" t="s">
         <v>2543</v>
       </c>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170" t="s">
+      <c r="C11" s="185"/>
+      <c r="D11" s="185" t="s">
         <v>2543</v>
       </c>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170" t="s">
+      <c r="E11" s="185"/>
+      <c r="F11" s="185" t="s">
         <v>2543</v>
       </c>
-      <c r="G11" s="170"/>
+      <c r="G11" s="185"/>
       <c r="L11" s="100" t="s">
         <v>5</v>
       </c>
@@ -17485,19 +19656,19 @@
       <c r="E12" s="115" t="s">
         <v>2564</v>
       </c>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
       <c r="L12" s="105" t="s">
         <v>340</v>
       </c>
-      <c r="M12" s="154" t="s">
+      <c r="M12" s="163" t="s">
         <v>2543</v>
       </c>
-      <c r="N12" s="154"/>
-      <c r="O12" s="154" t="s">
+      <c r="N12" s="163"/>
+      <c r="O12" s="163" t="s">
         <v>2543</v>
       </c>
-      <c r="P12" s="154"/>
+      <c r="P12" s="163"/>
       <c r="Q12" s="59"/>
       <c r="R12" s="59"/>
     </row>
@@ -17547,10 +19718,10 @@
       <c r="C14" s="99" t="s">
         <v>2687</v>
       </c>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
       <c r="L14" s="105" t="s">
         <v>10</v>
       </c>
@@ -17593,14 +19764,14 @@
       <c r="A16" s="105" t="s">
         <v>340</v>
       </c>
-      <c r="B16" s="154" t="s">
+      <c r="B16" s="163" t="s">
         <v>2543</v>
       </c>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154" t="s">
+      <c r="C16" s="163"/>
+      <c r="D16" s="163" t="s">
         <v>2543</v>
       </c>
-      <c r="E16" s="154"/>
+      <c r="E16" s="163"/>
       <c r="F16" s="59"/>
       <c r="G16" s="59"/>
       <c r="L16" s="100" t="s">
@@ -17638,14 +19809,14 @@
       <c r="L17" s="105" t="s">
         <v>343</v>
       </c>
-      <c r="M17" s="154" t="s">
+      <c r="M17" s="163" t="s">
         <v>2543</v>
       </c>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154" t="s">
+      <c r="N17" s="163"/>
+      <c r="O17" s="163" t="s">
         <v>2543</v>
       </c>
-      <c r="P17" s="154"/>
+      <c r="P17" s="163"/>
       <c r="Q17" s="59"/>
       <c r="R17" s="59"/>
     </row>
@@ -17745,14 +19916,14 @@
       <c r="A21" s="105" t="s">
         <v>343</v>
       </c>
-      <c r="B21" s="154" t="s">
+      <c r="B21" s="163" t="s">
         <v>2543</v>
       </c>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154" t="s">
+      <c r="C21" s="163"/>
+      <c r="D21" s="163" t="s">
         <v>2543</v>
       </c>
-      <c r="E21" s="154"/>
+      <c r="E21" s="163"/>
       <c r="F21" s="59"/>
       <c r="G21" s="59"/>
       <c r="L21" s="100" t="s">
@@ -17790,14 +19961,14 @@
       <c r="L22" s="105" t="s">
         <v>354</v>
       </c>
-      <c r="M22" s="154" t="s">
+      <c r="M22" s="163" t="s">
         <v>2543</v>
       </c>
-      <c r="N22" s="154"/>
-      <c r="O22" s="154" t="s">
+      <c r="N22" s="163"/>
+      <c r="O22" s="163" t="s">
         <v>2543</v>
       </c>
-      <c r="P22" s="154"/>
+      <c r="P22" s="163"/>
       <c r="Q22" s="59"/>
       <c r="R22" s="59"/>
     </row>
@@ -17893,14 +20064,14 @@
       <c r="A26" s="105" t="s">
         <v>354</v>
       </c>
-      <c r="B26" s="154" t="s">
+      <c r="B26" s="163" t="s">
         <v>2543</v>
       </c>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154" t="s">
+      <c r="C26" s="163"/>
+      <c r="D26" s="163" t="s">
         <v>2543</v>
       </c>
-      <c r="E26" s="154"/>
+      <c r="E26" s="163"/>
       <c r="F26" s="59"/>
       <c r="G26" s="59"/>
       <c r="L26" s="105" t="s">
@@ -17974,18 +20145,18 @@
       <c r="L28" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="M28" s="171" t="s">
+      <c r="M28" s="180" t="s">
         <v>2543</v>
       </c>
-      <c r="N28" s="171"/>
-      <c r="O28" s="171" t="s">
+      <c r="N28" s="180"/>
+      <c r="O28" s="180" t="s">
         <v>2543</v>
       </c>
-      <c r="P28" s="171"/>
-      <c r="Q28" s="171" t="s">
+      <c r="P28" s="180"/>
+      <c r="Q28" s="180" t="s">
         <v>2543</v>
       </c>
-      <c r="R28" s="171"/>
+      <c r="R28" s="180"/>
     </row>
     <row r="29" spans="1:18" ht="18">
       <c r="A29" s="105" t="s">
@@ -18083,33 +20254,33 @@
       <c r="A32" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="171" t="s">
+      <c r="B32" s="180" t="s">
         <v>2543</v>
       </c>
-      <c r="C32" s="171"/>
-      <c r="D32" s="171" t="s">
+      <c r="C32" s="180"/>
+      <c r="D32" s="180" t="s">
         <v>2543</v>
       </c>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171" t="s">
+      <c r="E32" s="180"/>
+      <c r="F32" s="180" t="s">
         <v>2543</v>
       </c>
-      <c r="G32" s="171"/>
+      <c r="G32" s="180"/>
       <c r="L32" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="M32" s="171" t="s">
+      <c r="M32" s="180" t="s">
         <v>2543</v>
       </c>
-      <c r="N32" s="171"/>
-      <c r="O32" s="171" t="s">
+      <c r="N32" s="180"/>
+      <c r="O32" s="180" t="s">
         <v>2543</v>
       </c>
-      <c r="P32" s="171"/>
-      <c r="Q32" s="171" t="s">
+      <c r="P32" s="180"/>
+      <c r="Q32" s="180" t="s">
         <v>2543</v>
       </c>
-      <c r="R32" s="171"/>
+      <c r="R32" s="180"/>
     </row>
     <row r="33" spans="1:18" ht="18">
       <c r="A33" s="105" t="s">
@@ -18211,18 +20382,18 @@
       <c r="A36" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="171" t="s">
+      <c r="B36" s="180" t="s">
         <v>2543</v>
       </c>
-      <c r="C36" s="171"/>
-      <c r="D36" s="171" t="s">
+      <c r="C36" s="180"/>
+      <c r="D36" s="180" t="s">
         <v>2543</v>
       </c>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171" t="s">
+      <c r="E36" s="180"/>
+      <c r="F36" s="180" t="s">
         <v>2543</v>
       </c>
-      <c r="G36" s="171"/>
+      <c r="G36" s="180"/>
       <c r="L36" s="100" t="s">
         <v>360</v>
       </c>
@@ -18258,14 +20429,14 @@
       <c r="L37" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="M37" s="154" t="s">
+      <c r="M37" s="163" t="s">
         <v>2543</v>
       </c>
-      <c r="N37" s="154"/>
-      <c r="O37" s="154" t="s">
+      <c r="N37" s="163"/>
+      <c r="O37" s="163" t="s">
         <v>2543</v>
       </c>
-      <c r="P37" s="154"/>
+      <c r="P37" s="163"/>
       <c r="Q37" s="59"/>
       <c r="R37" s="59"/>
     </row>
@@ -18369,14 +20540,14 @@
       <c r="A41" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="154" t="s">
+      <c r="B41" s="163" t="s">
         <v>2543</v>
       </c>
-      <c r="C41" s="154"/>
-      <c r="D41" s="154" t="s">
+      <c r="C41" s="163"/>
+      <c r="D41" s="163" t="s">
         <v>2543</v>
       </c>
-      <c r="E41" s="154"/>
+      <c r="E41" s="163"/>
       <c r="F41" s="59"/>
       <c r="G41" s="59"/>
       <c r="L41" s="106" t="s">
@@ -18469,15 +20640,26 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D14:G14"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
@@ -18491,67 +20673,55 @@
     <mergeCell ref="Q32:R32"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="O22:P22"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B67863A-879E-7E4F-A153-F6591AD8311D}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="192" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="191" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="192" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="192" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="192" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="192"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="76" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1">
-      <c r="A1" s="193"/>
-      <c r="B1" s="201" t="s">
+      <c r="A1" s="148"/>
+      <c r="B1" s="187" t="s">
         <v>3325</v>
       </c>
-      <c r="C1" s="201"/>
-      <c r="D1" s="200" t="s">
+      <c r="C1" s="187"/>
+      <c r="D1" s="188" t="s">
         <v>3306</v>
       </c>
-      <c r="E1" s="200"/>
+      <c r="E1" s="188"/>
     </row>
     <row r="2" spans="1:6" ht="34">
-      <c r="A2" s="193"/>
+      <c r="A2" s="148"/>
       <c r="B2" s="70" t="s">
         <v>2542</v>
       </c>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="153" t="s">
         <v>3305</v>
       </c>
       <c r="D2" s="83" t="s">
@@ -18562,385 +20732,387 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="149" t="s">
         <v>3307</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="148" t="s">
         <v>794</v>
       </c>
-      <c r="B4" s="187" t="s">
+      <c r="B4" s="186" t="s">
         <v>2543</v>
       </c>
-      <c r="C4" s="187"/>
-      <c r="D4" s="190" t="s">
+      <c r="C4" s="186"/>
+      <c r="D4" s="163" t="s">
         <v>2543</v>
       </c>
-      <c r="E4" s="190"/>
+      <c r="E4" s="163"/>
     </row>
     <row r="5" spans="1:6" ht="17">
-      <c r="A5" s="195" t="s">
+      <c r="A5" s="148" t="s">
         <v>795</v>
       </c>
-      <c r="B5" s="185">
+      <c r="B5" s="74">
         <v>0.91500000000000004</v>
       </c>
-      <c r="C5" s="196" t="s">
+      <c r="C5" s="150" t="s">
         <v>3308</v>
       </c>
-      <c r="D5" s="203">
+      <c r="D5" s="155">
         <v>0.92404920000000002</v>
       </c>
-      <c r="E5" s="206" t="s">
+      <c r="E5" s="37" t="s">
         <v>3326</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
-      <c r="A6" s="195" t="s">
+      <c r="A6" s="148" t="s">
         <v>796</v>
       </c>
-      <c r="B6" s="185">
+      <c r="B6" s="74">
         <v>0.77300000000000002</v>
       </c>
-      <c r="C6" s="196" t="s">
+      <c r="C6" s="150" t="s">
         <v>3309</v>
       </c>
-      <c r="D6" s="203">
+      <c r="D6" s="155">
         <v>0.77302769999999998</v>
       </c>
-      <c r="E6" s="206" t="s">
+      <c r="E6" s="37" t="s">
         <v>3327</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="195" t="s">
+      <c r="A7" s="148" t="s">
         <v>797</v>
       </c>
-      <c r="B7" s="185">
+      <c r="B7" s="74">
         <v>1.2589999999999999</v>
       </c>
-      <c r="C7" s="196" t="s">
+      <c r="C7" s="150" t="s">
         <v>3310</v>
       </c>
-      <c r="D7" s="203">
+      <c r="D7" s="155">
         <v>1.2932079999999999</v>
       </c>
-      <c r="E7" s="204" t="s">
+      <c r="E7" s="156" t="s">
         <v>3329</v>
       </c>
-      <c r="F7" s="202"/>
+      <c r="F7" s="154"/>
     </row>
     <row r="8" spans="1:6" ht="17">
-      <c r="A8" s="195" t="s">
+      <c r="A8" s="148" t="s">
         <v>798</v>
       </c>
-      <c r="B8" s="185">
+      <c r="B8" s="74">
         <v>0.97399999999999998</v>
       </c>
-      <c r="C8" s="196" t="s">
+      <c r="C8" s="150" t="s">
         <v>3311</v>
       </c>
-      <c r="D8" s="203">
+      <c r="D8" s="155">
         <v>0.98522149999999997</v>
       </c>
-      <c r="E8" s="206" t="s">
+      <c r="E8" s="37" t="s">
         <v>3330</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17">
-      <c r="A9" s="195" t="s">
+      <c r="A9" s="148" t="s">
         <v>799</v>
       </c>
-      <c r="B9" s="185">
+      <c r="B9" s="74">
         <v>0.88900000000000001</v>
       </c>
-      <c r="C9" s="196" t="s">
+      <c r="C9" s="150" t="s">
         <v>3312</v>
       </c>
-      <c r="D9" s="203">
+      <c r="D9" s="155">
         <v>0.8984801</v>
       </c>
-      <c r="E9" s="206" t="s">
+      <c r="E9" s="37" t="s">
         <v>3331</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="195" t="s">
+      <c r="A10" s="148" t="s">
         <v>800</v>
       </c>
-      <c r="B10" s="185">
+      <c r="B10" s="74">
         <v>0.94899999999999995</v>
       </c>
-      <c r="C10" s="196" t="s">
+      <c r="C10" s="150" t="s">
         <v>3313</v>
       </c>
-      <c r="D10" s="203">
+      <c r="D10" s="155">
         <v>0.95253860000000001</v>
       </c>
-      <c r="E10" s="204" t="s">
+      <c r="E10" s="156" t="s">
         <v>3332</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="148" t="s">
         <v>801</v>
       </c>
-      <c r="B11" s="185">
+      <c r="B11" s="74">
         <v>0.85899999999999999</v>
       </c>
-      <c r="C11" s="196" t="s">
+      <c r="C11" s="150" t="s">
         <v>3314</v>
       </c>
-      <c r="D11" s="203">
+      <c r="D11" s="155">
         <v>0.86426049999999999</v>
       </c>
-      <c r="E11" s="206" t="s">
+      <c r="E11" s="37" t="s">
         <v>3333</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="197" t="s">
+      <c r="A12" s="151" t="s">
         <v>342</v>
       </c>
-      <c r="B12" s="188"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="188"/>
-      <c r="E12" s="188"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="198" t="s">
+      <c r="A13" s="152" t="s">
         <v>343</v>
       </c>
-      <c r="B13" s="190" t="s">
+      <c r="B13" s="163" t="s">
         <v>2543</v>
       </c>
-      <c r="C13" s="190"/>
-      <c r="D13" s="187" t="s">
+      <c r="C13" s="163"/>
+      <c r="D13" s="186" t="s">
         <v>2543</v>
       </c>
-      <c r="E13" s="187"/>
+      <c r="E13" s="186"/>
     </row>
     <row r="14" spans="1:6" ht="17">
-      <c r="A14" s="198" t="s">
+      <c r="A14" s="152" t="s">
         <v>344</v>
       </c>
-      <c r="B14" s="188">
+      <c r="B14" s="74">
         <v>1.127</v>
       </c>
-      <c r="C14" s="196" t="s">
+      <c r="C14" s="150" t="s">
         <v>3315</v>
       </c>
-      <c r="D14" s="203">
+      <c r="D14" s="155">
         <v>1.1160969999999999</v>
       </c>
-      <c r="E14" s="205" t="s">
+      <c r="E14" s="37" t="s">
         <v>3334</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17">
-      <c r="A15" s="198" t="s">
+      <c r="A15" s="152" t="s">
         <v>345</v>
       </c>
-      <c r="B15" s="188">
+      <c r="B15" s="74">
         <v>0.76900000000000002</v>
       </c>
-      <c r="C15" s="196" t="s">
+      <c r="C15" s="150" t="s">
         <v>3316</v>
       </c>
-      <c r="D15" s="203">
+      <c r="D15" s="155">
         <v>0.75903909999999997</v>
       </c>
-      <c r="E15" s="205" t="s">
+      <c r="E15" s="37" t="s">
         <v>3335</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17">
-      <c r="A16" s="197" t="s">
+      <c r="A16" s="151" t="s">
         <v>2500</v>
       </c>
-      <c r="B16" s="188">
+      <c r="B16" s="74">
         <v>0.97099999999999997</v>
       </c>
-      <c r="C16" s="196" t="s">
+      <c r="C16" s="150" t="s">
         <v>3324</v>
       </c>
-      <c r="D16" s="203">
+      <c r="D16" s="155">
         <v>0.97168060000000001</v>
       </c>
-      <c r="E16" s="205" t="s">
+      <c r="E16" s="37" t="s">
         <v>3336</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="197" t="s">
+      <c r="A17" s="151" t="s">
         <v>353</v>
       </c>
-      <c r="B17" s="188"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="188"/>
-      <c r="E17" s="188"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="198" t="s">
+      <c r="A18" s="152" t="s">
         <v>354</v>
       </c>
-      <c r="B18" s="190" t="s">
+      <c r="B18" s="163" t="s">
         <v>2543</v>
       </c>
-      <c r="C18" s="190"/>
-      <c r="D18" s="187" t="s">
+      <c r="C18" s="163"/>
+      <c r="D18" s="186" t="s">
         <v>2543</v>
       </c>
-      <c r="E18" s="187"/>
+      <c r="E18" s="186"/>
     </row>
     <row r="19" spans="1:5" ht="17">
-      <c r="A19" s="198" t="s">
+      <c r="A19" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="188">
+      <c r="B19" s="74">
         <v>0.66600000000000004</v>
       </c>
-      <c r="C19" s="196" t="s">
+      <c r="C19" s="150" t="s">
         <v>3323</v>
       </c>
-      <c r="D19" s="203">
+      <c r="D19" s="155">
         <v>0.66123600000000005</v>
       </c>
-      <c r="E19" s="205" t="s">
+      <c r="E19" s="37" t="s">
         <v>3337</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17">
-      <c r="A20" s="198" t="s">
+      <c r="A20" s="152" t="s">
         <v>355</v>
       </c>
-      <c r="B20" s="188">
+      <c r="B20" s="74">
         <v>0.52400000000000002</v>
       </c>
-      <c r="C20" s="196" t="s">
+      <c r="C20" s="150" t="s">
         <v>3322</v>
       </c>
-      <c r="D20" s="203">
+      <c r="D20" s="155">
         <v>0.52390150000000002</v>
       </c>
-      <c r="E20" s="205" t="s">
+      <c r="E20" s="37" t="s">
         <v>3338</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17">
-      <c r="A21" s="198" t="s">
+      <c r="A21" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="188">
+      <c r="B21" s="74">
         <v>0.78600000000000003</v>
       </c>
-      <c r="C21" s="196" t="s">
+      <c r="C21" s="150" t="s">
         <v>3321</v>
       </c>
-      <c r="D21" s="203">
+      <c r="D21" s="155">
         <v>0.79848640000000004</v>
       </c>
-      <c r="E21" s="205" t="s">
+      <c r="E21" s="37" t="s">
         <v>3339</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17">
-      <c r="A22" s="198" t="s">
+      <c r="A22" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="188">
+      <c r="B22" s="74">
         <v>0.64800000000000002</v>
       </c>
-      <c r="C22" s="196" t="s">
+      <c r="C22" s="150" t="s">
         <v>3320</v>
       </c>
-      <c r="D22" s="203">
+      <c r="D22" s="155">
         <v>0.68077679999999996</v>
       </c>
-      <c r="E22" s="205" t="s">
+      <c r="E22" s="37" t="s">
         <v>3340</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="197" t="s">
+      <c r="A23" s="151" t="s">
         <v>360</v>
       </c>
-      <c r="B23" s="188"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="188"/>
-      <c r="E23" s="188"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="198" t="s">
+      <c r="A24" s="152" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="190" t="s">
+      <c r="B24" s="163" t="s">
         <v>2543</v>
       </c>
-      <c r="C24" s="190"/>
-      <c r="D24" s="187" t="s">
+      <c r="C24" s="163"/>
+      <c r="D24" s="186" t="s">
         <v>2543</v>
       </c>
-      <c r="E24" s="187"/>
+      <c r="E24" s="186"/>
     </row>
     <row r="25" spans="1:5" ht="17">
-      <c r="A25" s="198" t="s">
+      <c r="A25" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="188">
+      <c r="B25" s="74">
         <v>1.2549999999999999</v>
       </c>
-      <c r="C25" s="196" t="s">
+      <c r="C25" s="150" t="s">
         <v>3319</v>
       </c>
-      <c r="D25" s="203">
+      <c r="D25" s="155">
         <v>1.2589197999999999</v>
       </c>
-      <c r="E25" s="205" t="s">
+      <c r="E25" s="37" t="s">
         <v>3341</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17">
-      <c r="A26" s="198" t="s">
+      <c r="A26" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="188">
+      <c r="B26" s="74">
         <v>0.19500000000000001</v>
       </c>
-      <c r="C26" s="196" t="s">
+      <c r="C26" s="150" t="s">
         <v>3318</v>
       </c>
-      <c r="D26" s="203">
+      <c r="D26" s="155">
         <v>0.1918446</v>
       </c>
-      <c r="E26" s="205" t="s">
+      <c r="E26" s="37" t="s">
         <v>3342</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17">
-      <c r="A27" s="198" t="s">
+      <c r="A27" s="152" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="188">
+      <c r="B27" s="74">
         <v>1.2789999999999999</v>
       </c>
-      <c r="C27" s="196" t="s">
+      <c r="C27" s="150" t="s">
         <v>3317</v>
       </c>
-      <c r="D27" s="203">
+      <c r="D27" s="155">
         <v>1.2816962999999999</v>
       </c>
-      <c r="E27" s="205" t="s">
+      <c r="E27" s="37" t="s">
         <v>3328</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="B4:C4"/>
@@ -18949,14 +21121,12 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13834C78-7DF2-304A-9D5B-DDF021AB6EE8}">
   <dimension ref="A1:K75"/>
   <sheetViews>
@@ -19890,13 +22060,13 @@
     <row r="36" spans="1:11" ht="19">
       <c r="A36" s="123"/>
       <c r="B36" s="124"/>
-      <c r="C36" s="177" t="s">
+      <c r="C36" s="189" t="s">
         <v>2904</v>
       </c>
-      <c r="D36" s="177"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="177"/>
-      <c r="G36" s="177"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="189"/>
       <c r="H36" s="123"/>
       <c r="I36" s="125"/>
       <c r="J36" s="125"/>
@@ -20703,7 +22873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE265C6-82DA-7846-9A78-1817B312242B}">
   <dimension ref="A3:M61"/>
   <sheetViews>
@@ -20721,17 +22891,17 @@
   <sheetData>
     <row r="3" spans="1:13" ht="17" thickBot="1"/>
     <row r="4" spans="1:13" ht="16" customHeight="1" thickBot="1">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="190" t="s">
         <v>2953</v>
       </c>
-      <c r="B4" s="182"/>
-      <c r="C4" s="182"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="182"/>
-      <c r="F4" s="182"/>
-      <c r="G4" s="182"/>
-      <c r="H4" s="182"/>
-      <c r="I4" s="183"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="192"/>
     </row>
     <row r="5" spans="1:13" ht="17" thickBot="1">
       <c r="A5" s="128" t="s">
@@ -20856,24 +23026,24 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="140"/>
-      <c r="B13" s="184" t="s">
+      <c r="B13" s="193" t="s">
         <v>855</v>
       </c>
-      <c r="C13" s="184"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="184"/>
-      <c r="F13" s="178" t="s">
+      <c r="C13" s="193"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="194" t="s">
         <v>867</v>
       </c>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="178" t="s">
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="194" t="s">
         <v>868</v>
       </c>
-      <c r="K13" s="178"/>
-      <c r="L13" s="178"/>
-      <c r="M13" s="178"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="84"/>
@@ -21270,10 +23440,10 @@
     <row r="27" spans="1:13">
       <c r="A27" s="133"/>
       <c r="B27" s="134"/>
-      <c r="C27" s="179" t="s">
+      <c r="C27" s="195" t="s">
         <v>2946</v>
       </c>
-      <c r="D27" s="179"/>
+      <c r="D27" s="195"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="133"/>
@@ -21673,48 +23843,48 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="180" t="s">
+      <c r="A59" s="196" t="s">
         <v>2950</v>
       </c>
-      <c r="B59" s="180"/>
-      <c r="C59" s="180"/>
-      <c r="D59" s="180"/>
-      <c r="E59" s="180"/>
+      <c r="B59" s="196"/>
+      <c r="C59" s="196"/>
+      <c r="D59" s="196"/>
+      <c r="E59" s="196"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="180" t="s">
+      <c r="A60" s="196" t="s">
         <v>2951</v>
       </c>
-      <c r="B60" s="180"/>
-      <c r="C60" s="180"/>
-      <c r="D60" s="180"/>
-      <c r="E60" s="180"/>
+      <c r="B60" s="196"/>
+      <c r="C60" s="196"/>
+      <c r="D60" s="196"/>
+      <c r="E60" s="196"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="180" t="s">
+      <c r="A61" s="196" t="s">
         <v>2952</v>
       </c>
-      <c r="B61" s="180"/>
-      <c r="C61" s="180"/>
-      <c r="D61" s="180"/>
-      <c r="E61" s="180"/>
+      <c r="B61" s="196"/>
+      <c r="C61" s="196"/>
+      <c r="D61" s="196"/>
+      <c r="E61" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A61:E61"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:M13"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A61:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD5FE96-1EED-FA49-B270-C7A53AA28E4A}">
   <dimension ref="A2:C66"/>
   <sheetViews>
@@ -24213,17 +26383,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="162" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
       <c r="O1" s="72" t="s">
         <v>2905</v>
       </c>
@@ -24241,7 +26411,7 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="160" t="s">
         <v>2905</v>
       </c>
       <c r="B2" s="70" t="s">
@@ -24271,7 +26441,7 @@
       <c r="J2" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="K2" s="152" t="s">
+      <c r="K2" s="161" t="s">
         <v>359</v>
       </c>
       <c r="O2" s="72"/>
@@ -24287,7 +26457,7 @@
       <c r="S2" s="74"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="151"/>
+      <c r="A3" s="160"/>
       <c r="B3" s="83" t="s">
         <v>882</v>
       </c>
@@ -24315,7 +26485,7 @@
       <c r="J3" s="83" t="s">
         <v>889</v>
       </c>
-      <c r="K3" s="152"/>
+      <c r="K3" s="161"/>
       <c r="O3" s="77" t="s">
         <v>5</v>
       </c>
@@ -26951,7 +29121,7 @@
       <c r="J66" s="59" t="s">
         <v>1620</v>
       </c>
-      <c r="K66" s="154"/>
+      <c r="K66" s="163"/>
       <c r="O66" s="72" t="s">
         <v>119</v>
       </c>
@@ -26997,7 +29167,7 @@
       <c r="J67" s="59" t="s">
         <v>1628</v>
       </c>
-      <c r="K67" s="154"/>
+      <c r="K67" s="163"/>
       <c r="O67" s="72" t="s">
         <v>123</v>
       </c>
@@ -27656,17 +29826,17 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="85"/>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="166" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
       <c r="P1" s="72"/>
       <c r="Q1" s="87" t="s">
         <v>1044</v>
@@ -27682,7 +29852,7 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="155"/>
+      <c r="A2" s="164"/>
       <c r="B2" s="82" t="s">
         <v>364</v>
       </c>
@@ -27707,7 +29877,7 @@
       <c r="I2" s="82" t="s">
         <v>371</v>
       </c>
-      <c r="J2" s="156" t="s">
+      <c r="J2" s="165" t="s">
         <v>359</v>
       </c>
       <c r="P2" s="72"/>
@@ -27723,7 +29893,7 @@
       <c r="T2" s="88"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="155"/>
+      <c r="A3" s="164"/>
       <c r="B3" s="83" t="s">
         <v>2411</v>
       </c>
@@ -27748,7 +29918,7 @@
       <c r="I3" s="83" t="s">
         <v>2418</v>
       </c>
-      <c r="J3" s="156"/>
+      <c r="J3" s="165"/>
       <c r="P3" s="77" t="s">
         <v>5</v>
       </c>
@@ -30246,7 +32416,7 @@
         <v>2164</v>
       </c>
       <c r="J66" s="59"/>
-      <c r="K66" s="150"/>
+      <c r="K66" s="159"/>
       <c r="P66" s="72" t="s">
         <v>119</v>
       </c>
@@ -30290,7 +32460,7 @@
         <v>2172</v>
       </c>
       <c r="J67" s="59"/>
-      <c r="K67" s="150"/>
+      <c r="K67" s="159"/>
       <c r="P67" s="72" t="s">
         <v>123</v>
       </c>
@@ -30763,10 +32933,3112 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB1C3E9-490A-C74E-863F-DA386C30BE5C}">
+  <dimension ref="A1:R84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="36.1640625" customWidth="1"/>
+    <col min="2" max="9" width="10.83203125" style="16"/>
+    <col min="10" max="10" width="10.83203125" style="76"/>
+    <col min="13" max="13" width="19.5" customWidth="1"/>
+    <col min="14" max="14" width="28" style="75" customWidth="1"/>
+    <col min="15" max="15" width="16.5" style="90" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="90"/>
+    <col min="17" max="17" width="13.5" style="90" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="85"/>
+      <c r="B1" s="161" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="81"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="87" t="s">
+        <v>1044</v>
+      </c>
+      <c r="P1" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="87" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="164" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B2" s="197" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="197" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="197" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" s="197" t="s">
+        <v>367</v>
+      </c>
+      <c r="F2" s="197" t="s">
+        <v>368</v>
+      </c>
+      <c r="G2" s="197" t="s">
+        <v>369</v>
+      </c>
+      <c r="H2" s="197" t="s">
+        <v>370</v>
+      </c>
+      <c r="I2" s="197" t="s">
+        <v>371</v>
+      </c>
+      <c r="J2" s="165" t="s">
+        <v>359</v>
+      </c>
+      <c r="N2" s="72"/>
+      <c r="O2" s="91" t="s">
+        <v>3301</v>
+      </c>
+      <c r="P2" s="59" t="s">
+        <v>3302</v>
+      </c>
+      <c r="Q2" s="91" t="s">
+        <v>3303</v>
+      </c>
+      <c r="R2" s="88"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="164"/>
+      <c r="B3" s="83" t="s">
+        <v>3269</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>3270</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>3271</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>3272</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>3273</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>3274</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>3275</v>
+      </c>
+      <c r="I3" s="83" t="s">
+        <v>3276</v>
+      </c>
+      <c r="J3" s="165"/>
+      <c r="N3" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="89"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="59">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="N4" s="72" t="s">
+        <v>340</v>
+      </c>
+      <c r="O4" s="59" t="s">
+        <v>2351</v>
+      </c>
+      <c r="P4" s="59" t="s">
+        <v>2352</v>
+      </c>
+      <c r="Q4" s="59" t="s">
+        <v>2353</v>
+      </c>
+      <c r="R4" s="88"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="85" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>3343</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>3344</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>3345</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>3346</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>3347</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>3348</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>3349</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>3350</v>
+      </c>
+      <c r="J5" s="92"/>
+      <c r="N5" s="72" t="s">
+        <v>341</v>
+      </c>
+      <c r="O5" s="59" t="s">
+        <v>2304</v>
+      </c>
+      <c r="P5" s="59" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Q5" s="59" t="s">
+        <v>2355</v>
+      </c>
+      <c r="R5" s="88"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="85" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>3351</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>3353</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>3354</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>3355</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>3356</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>3357</v>
+      </c>
+      <c r="J6" s="92"/>
+      <c r="N6" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="59" t="s">
+        <v>2356</v>
+      </c>
+      <c r="P6" s="59" t="s">
+        <v>2357</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>2358</v>
+      </c>
+      <c r="R6" s="88"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>3359</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>3360</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>3361</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>3362</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>3363</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>3365</v>
+      </c>
+      <c r="J7" s="92"/>
+      <c r="N7" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="59" t="s">
+        <v>2359</v>
+      </c>
+      <c r="P7" s="59" t="s">
+        <v>2360</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>2361</v>
+      </c>
+      <c r="R7" s="88"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>3367</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>3369</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>3370</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>3077</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>3371</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>3372</v>
+      </c>
+      <c r="J8" s="92"/>
+      <c r="N8" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="59">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="150"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="N9" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="59" t="s">
+        <v>2342</v>
+      </c>
+      <c r="P9" s="59" t="s">
+        <v>2343</v>
+      </c>
+      <c r="Q9" s="59" t="s">
+        <v>2344</v>
+      </c>
+      <c r="R9" s="88"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>3373</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>3374</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>3375</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>3376</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>3377</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>3378</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>3379</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>3380</v>
+      </c>
+      <c r="J10" s="92"/>
+      <c r="N10" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="59" t="s">
+        <v>2345</v>
+      </c>
+      <c r="P10" s="59" t="s">
+        <v>2346</v>
+      </c>
+      <c r="Q10" s="59" t="s">
+        <v>2347</v>
+      </c>
+      <c r="R10" s="88"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>3382</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>3383</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>3384</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>3385</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>3386</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>3387</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>3388</v>
+      </c>
+      <c r="J11" s="92"/>
+      <c r="N11" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="59" t="s">
+        <v>2348</v>
+      </c>
+      <c r="P11" s="59" t="s">
+        <v>2349</v>
+      </c>
+      <c r="Q11" s="59" t="s">
+        <v>2350</v>
+      </c>
+      <c r="R11" s="88"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>3389</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>3390</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>3391</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>3392</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>3393</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>3394</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>3143</v>
+      </c>
+      <c r="J12" s="92"/>
+      <c r="N12" s="77" t="s">
+        <v>342</v>
+      </c>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="84" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" s="150"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="59">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="N13" s="72" t="s">
+        <v>343</v>
+      </c>
+      <c r="O13" s="59" t="s">
+        <v>2333</v>
+      </c>
+      <c r="P13" s="59" t="s">
+        <v>2334</v>
+      </c>
+      <c r="Q13" s="59" t="s">
+        <v>2335</v>
+      </c>
+      <c r="R13" s="88"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="85" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>3353</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>3397</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>3398</v>
+      </c>
+      <c r="G14" s="59" t="s">
+        <v>3399</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>3400</v>
+      </c>
+      <c r="I14" s="59" t="s">
+        <v>3401</v>
+      </c>
+      <c r="J14" s="92"/>
+      <c r="N14" s="72" t="s">
+        <v>344</v>
+      </c>
+      <c r="O14" s="59" t="s">
+        <v>2336</v>
+      </c>
+      <c r="P14" s="59" t="s">
+        <v>2337</v>
+      </c>
+      <c r="Q14" s="59" t="s">
+        <v>2338</v>
+      </c>
+      <c r="R14" s="88"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="85" t="s">
+        <v>344</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>3402</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>3404</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>3405</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>3406</v>
+      </c>
+      <c r="G15" s="59" t="s">
+        <v>3407</v>
+      </c>
+      <c r="H15" s="59" t="s">
+        <v>3408</v>
+      </c>
+      <c r="I15" s="59" t="s">
+        <v>3409</v>
+      </c>
+      <c r="J15" s="92"/>
+      <c r="N15" s="72" t="s">
+        <v>345</v>
+      </c>
+      <c r="O15" s="59" t="s">
+        <v>2339</v>
+      </c>
+      <c r="P15" s="59" t="s">
+        <v>2340</v>
+      </c>
+      <c r="Q15" s="59" t="s">
+        <v>2341</v>
+      </c>
+      <c r="R15" s="88"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="85" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>3410</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>3411</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>3412</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>3413</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>3414</v>
+      </c>
+      <c r="G16" s="59" t="s">
+        <v>3415</v>
+      </c>
+      <c r="H16" s="59" t="s">
+        <v>3408</v>
+      </c>
+      <c r="I16" s="59" t="s">
+        <v>3416</v>
+      </c>
+      <c r="J16" s="92"/>
+      <c r="N16" s="77" t="s">
+        <v>353</v>
+      </c>
+      <c r="O16" s="88"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="84" t="s">
+        <v>353</v>
+      </c>
+      <c r="B17" s="150"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="N17" s="72" t="s">
+        <v>354</v>
+      </c>
+      <c r="O17" s="59" t="s">
+        <v>2318</v>
+      </c>
+      <c r="P17" s="59" t="s">
+        <v>2319</v>
+      </c>
+      <c r="Q17" s="59" t="s">
+        <v>2320</v>
+      </c>
+      <c r="R17" s="88"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="85" t="s">
+        <v>354</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>3419</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>3420</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>3421</v>
+      </c>
+      <c r="G18" s="59" t="s">
+        <v>3422</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>3423</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>3424</v>
+      </c>
+      <c r="J18" s="92"/>
+      <c r="N18" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="59" t="s">
+        <v>2321</v>
+      </c>
+      <c r="P18" s="59" t="s">
+        <v>2322</v>
+      </c>
+      <c r="Q18" s="59" t="s">
+        <v>2323</v>
+      </c>
+      <c r="R18" s="88"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>3425</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>3426</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>3427</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>3428</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>3429</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>3430</v>
+      </c>
+      <c r="H19" s="59" t="s">
+        <v>3431</v>
+      </c>
+      <c r="I19" s="59" t="s">
+        <v>3432</v>
+      </c>
+      <c r="J19" s="92"/>
+      <c r="N19" s="72" t="s">
+        <v>355</v>
+      </c>
+      <c r="O19" s="59" t="s">
+        <v>2324</v>
+      </c>
+      <c r="P19" s="59" t="s">
+        <v>2325</v>
+      </c>
+      <c r="Q19" s="59" t="s">
+        <v>2326</v>
+      </c>
+      <c r="R19" s="88"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="85" t="s">
+        <v>355</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>3435</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>3436</v>
+      </c>
+      <c r="G20" s="59" t="s">
+        <v>3437</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>3438</v>
+      </c>
+      <c r="I20" s="59" t="s">
+        <v>3439</v>
+      </c>
+      <c r="J20" s="92"/>
+      <c r="N20" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="59" t="s">
+        <v>2327</v>
+      </c>
+      <c r="P20" s="59" t="s">
+        <v>2328</v>
+      </c>
+      <c r="Q20" s="59" t="s">
+        <v>2329</v>
+      </c>
+      <c r="R20" s="88"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>3441</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>3435</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>3442</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>3399</v>
+      </c>
+      <c r="H21" s="59" t="s">
+        <v>3443</v>
+      </c>
+      <c r="I21" s="59" t="s">
+        <v>3142</v>
+      </c>
+      <c r="J21" s="92"/>
+      <c r="N21" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="59" t="s">
+        <v>2330</v>
+      </c>
+      <c r="P21" s="59" t="s">
+        <v>2331</v>
+      </c>
+      <c r="Q21" s="59" t="s">
+        <v>2332</v>
+      </c>
+      <c r="R21" s="88"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>3444</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>3367</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>3446</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>3447</v>
+      </c>
+      <c r="G22" s="59" t="s">
+        <v>3448</v>
+      </c>
+      <c r="H22" s="59" t="s">
+        <v>3449</v>
+      </c>
+      <c r="I22" s="59" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J22" s="92"/>
+      <c r="N22" s="77" t="s">
+        <v>346</v>
+      </c>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="84" t="s">
+        <v>346</v>
+      </c>
+      <c r="B23" s="150"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="59">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="N23" s="72" t="s">
+        <v>347</v>
+      </c>
+      <c r="O23" s="59" t="s">
+        <v>2304</v>
+      </c>
+      <c r="P23" s="59" t="s">
+        <v>2305</v>
+      </c>
+      <c r="Q23" s="59" t="s">
+        <v>938</v>
+      </c>
+      <c r="R23" s="88"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="85" t="s">
+        <v>347</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>3451</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>3452</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>3453</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>3369</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>3454</v>
+      </c>
+      <c r="H24" s="59" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I24" s="59" t="s">
+        <v>3455</v>
+      </c>
+      <c r="J24" s="92"/>
+      <c r="N24" s="72" t="s">
+        <v>348</v>
+      </c>
+      <c r="O24" s="59" t="s">
+        <v>2306</v>
+      </c>
+      <c r="P24" s="59" t="s">
+        <v>2307</v>
+      </c>
+      <c r="Q24" s="59" t="s">
+        <v>2308</v>
+      </c>
+      <c r="R24" s="88"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="85" t="s">
+        <v>348</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>3456</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>3457</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>3458</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>3459</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>3460</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>3461</v>
+      </c>
+      <c r="H25" s="59" t="s">
+        <v>3462</v>
+      </c>
+      <c r="I25" s="59" t="s">
+        <v>3463</v>
+      </c>
+      <c r="J25" s="92"/>
+      <c r="N25" s="72" t="s">
+        <v>349</v>
+      </c>
+      <c r="O25" s="59" t="s">
+        <v>2309</v>
+      </c>
+      <c r="P25" s="59" t="s">
+        <v>2310</v>
+      </c>
+      <c r="Q25" s="59" t="s">
+        <v>2311</v>
+      </c>
+      <c r="R25" s="88"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="85" t="s">
+        <v>349</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>3464</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>3465</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>3466</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>3361</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>3467</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>3468</v>
+      </c>
+      <c r="H26" s="59" t="s">
+        <v>3469</v>
+      </c>
+      <c r="I26" s="59" t="s">
+        <v>3470</v>
+      </c>
+      <c r="J26" s="92"/>
+      <c r="N26" s="72" t="s">
+        <v>350</v>
+      </c>
+      <c r="O26" s="59" t="s">
+        <v>2312</v>
+      </c>
+      <c r="P26" s="59" t="s">
+        <v>2313</v>
+      </c>
+      <c r="Q26" s="59" t="s">
+        <v>2314</v>
+      </c>
+      <c r="R26" s="88"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="85" t="s">
+        <v>350</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>3471</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>3472</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>3435</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G27" s="59" t="s">
+        <v>3399</v>
+      </c>
+      <c r="H27" s="59" t="s">
+        <v>3473</v>
+      </c>
+      <c r="I27" s="59" t="s">
+        <v>3140</v>
+      </c>
+      <c r="J27" s="92"/>
+      <c r="N27" s="72" t="s">
+        <v>351</v>
+      </c>
+      <c r="O27" s="59" t="s">
+        <v>2315</v>
+      </c>
+      <c r="P27" s="59" t="s">
+        <v>2316</v>
+      </c>
+      <c r="Q27" s="59" t="s">
+        <v>2317</v>
+      </c>
+      <c r="R27" s="88"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="85" t="s">
+        <v>351</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>3474</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>3475</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>3476</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>3436</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>3077</v>
+      </c>
+      <c r="H28" s="59" t="s">
+        <v>3473</v>
+      </c>
+      <c r="I28" s="59" t="s">
+        <v>3140</v>
+      </c>
+      <c r="J28" s="92"/>
+      <c r="N28" s="77" t="s">
+        <v>352</v>
+      </c>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="84" t="s">
+        <v>352</v>
+      </c>
+      <c r="B29" s="150"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="59">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="N29" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" s="59" t="s">
+        <v>2294</v>
+      </c>
+      <c r="P29" s="59" t="s">
+        <v>2295</v>
+      </c>
+      <c r="Q29" s="59" t="s">
+        <v>938</v>
+      </c>
+      <c r="R29" s="88"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>3477</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>3452</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>3062</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>3369</v>
+      </c>
+      <c r="F30" s="59" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G30" s="59" t="s">
+        <v>3394</v>
+      </c>
+      <c r="H30" s="59" t="s">
+        <v>3478</v>
+      </c>
+      <c r="I30" s="59" t="s">
+        <v>3455</v>
+      </c>
+      <c r="J30" s="92"/>
+      <c r="N30" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="O30" s="59" t="s">
+        <v>1107</v>
+      </c>
+      <c r="P30" s="59" t="s">
+        <v>2296</v>
+      </c>
+      <c r="Q30" s="59" t="s">
+        <v>2297</v>
+      </c>
+      <c r="R30" s="88"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>2940</v>
+      </c>
+      <c r="E31" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G31" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="H31" s="59" t="s">
+        <v>3479</v>
+      </c>
+      <c r="I31" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="J31" s="92"/>
+      <c r="N31" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="O31" s="59" t="s">
+        <v>2298</v>
+      </c>
+      <c r="P31" s="59" t="s">
+        <v>2299</v>
+      </c>
+      <c r="Q31" s="59" t="s">
+        <v>2300</v>
+      </c>
+      <c r="R31" s="88"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>3480</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>3481</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>3483</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>3484</v>
+      </c>
+      <c r="G32" s="59" t="s">
+        <v>3348</v>
+      </c>
+      <c r="H32" s="59" t="s">
+        <v>3485</v>
+      </c>
+      <c r="I32" s="59" t="s">
+        <v>3486</v>
+      </c>
+      <c r="J32" s="92"/>
+      <c r="N32" s="72" t="s">
+        <v>1113</v>
+      </c>
+      <c r="O32" s="59" t="s">
+        <v>2301</v>
+      </c>
+      <c r="P32" s="59" t="s">
+        <v>2302</v>
+      </c>
+      <c r="Q32" s="59" t="s">
+        <v>2303</v>
+      </c>
+      <c r="R32" s="88"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="85" t="s">
+        <v>890</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E33" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F33" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G33" s="59" t="s">
+        <v>3363</v>
+      </c>
+      <c r="H33" s="59" t="s">
+        <v>3487</v>
+      </c>
+      <c r="I33" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="J33" s="92"/>
+      <c r="N33" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="150"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="92"/>
+      <c r="N34" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="O34" s="59" t="s">
+        <v>2279</v>
+      </c>
+      <c r="P34" s="59" t="s">
+        <v>2280</v>
+      </c>
+      <c r="Q34" s="59" t="s">
+        <v>2281</v>
+      </c>
+      <c r="R34" s="88"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="59" t="s">
+        <v>3488</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>3489</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>3490</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>3491</v>
+      </c>
+      <c r="F35" s="59" t="s">
+        <v>3492</v>
+      </c>
+      <c r="G35" s="59" t="s">
+        <v>3493</v>
+      </c>
+      <c r="H35" s="59" t="s">
+        <v>3494</v>
+      </c>
+      <c r="I35" s="59" t="s">
+        <v>3495</v>
+      </c>
+      <c r="J35" s="92"/>
+      <c r="N35" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="O35" s="59" t="s">
+        <v>2291</v>
+      </c>
+      <c r="P35" s="59" t="s">
+        <v>2292</v>
+      </c>
+      <c r="Q35" s="59" t="s">
+        <v>2293</v>
+      </c>
+      <c r="R35" s="88"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>3497</v>
+      </c>
+      <c r="D36" s="59" t="s">
+        <v>3498</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>3499</v>
+      </c>
+      <c r="F36" s="59" t="s">
+        <v>3500</v>
+      </c>
+      <c r="G36" s="59" t="s">
+        <v>3501</v>
+      </c>
+      <c r="H36" s="59" t="s">
+        <v>3502</v>
+      </c>
+      <c r="I36" s="59" t="s">
+        <v>3503</v>
+      </c>
+      <c r="J36" s="92"/>
+      <c r="N36" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="O36" s="88"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="88"/>
+      <c r="R36" s="88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="150"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="59">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="N37" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="O37" s="59" t="s">
+        <v>2279</v>
+      </c>
+      <c r="P37" s="59" t="s">
+        <v>2280</v>
+      </c>
+      <c r="Q37" s="59" t="s">
+        <v>2281</v>
+      </c>
+      <c r="R37" s="88"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>3488</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>3489</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>3490</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>3491</v>
+      </c>
+      <c r="F38" s="59" t="s">
+        <v>3492</v>
+      </c>
+      <c r="G38" s="59" t="s">
+        <v>3493</v>
+      </c>
+      <c r="H38" s="59" t="s">
+        <v>3494</v>
+      </c>
+      <c r="I38" s="59" t="s">
+        <v>3495</v>
+      </c>
+      <c r="J38" s="92"/>
+      <c r="N38" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="O38" s="59" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P38" s="59" t="s">
+        <v>2283</v>
+      </c>
+      <c r="Q38" s="59" t="s">
+        <v>2284</v>
+      </c>
+      <c r="R38" s="88"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="59" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>3367</v>
+      </c>
+      <c r="D39" s="59" t="s">
+        <v>3504</v>
+      </c>
+      <c r="E39" s="59" t="s">
+        <v>3505</v>
+      </c>
+      <c r="F39" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G39" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="H39" s="59" t="s">
+        <v>3487</v>
+      </c>
+      <c r="I39" s="59" t="s">
+        <v>3479</v>
+      </c>
+      <c r="J39" s="92"/>
+      <c r="N39" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="O39" s="59" t="s">
+        <v>2285</v>
+      </c>
+      <c r="P39" s="59" t="s">
+        <v>2286</v>
+      </c>
+      <c r="Q39" s="59" t="s">
+        <v>2287</v>
+      </c>
+      <c r="R39" s="88"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>3506</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>3507</v>
+      </c>
+      <c r="D40" s="59" t="s">
+        <v>3508</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>3040</v>
+      </c>
+      <c r="F40" s="59" t="s">
+        <v>3509</v>
+      </c>
+      <c r="G40" s="59" t="s">
+        <v>3510</v>
+      </c>
+      <c r="H40" s="59" t="s">
+        <v>3511</v>
+      </c>
+      <c r="I40" s="59" t="s">
+        <v>3512</v>
+      </c>
+      <c r="J40" s="92"/>
+      <c r="N40" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="O40" s="59" t="s">
+        <v>2288</v>
+      </c>
+      <c r="P40" s="59" t="s">
+        <v>2289</v>
+      </c>
+      <c r="Q40" s="59" t="s">
+        <v>2290</v>
+      </c>
+      <c r="R40" s="88"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="59" t="s">
+        <v>3513</v>
+      </c>
+      <c r="C41" s="59" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D41" s="59" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E41" s="59" t="s">
+        <v>3476</v>
+      </c>
+      <c r="F41" s="59" t="s">
+        <v>3515</v>
+      </c>
+      <c r="G41" s="59" t="s">
+        <v>3516</v>
+      </c>
+      <c r="H41" s="59" t="s">
+        <v>3517</v>
+      </c>
+      <c r="I41" s="59" t="s">
+        <v>3518</v>
+      </c>
+      <c r="J41" s="92"/>
+      <c r="N41" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="O41" s="88"/>
+      <c r="P41" s="88"/>
+      <c r="Q41" s="88"/>
+      <c r="R41" s="88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="150"/>
+      <c r="C42" s="150"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="59">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="N42" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="O42" s="59" t="s">
+        <v>2273</v>
+      </c>
+      <c r="P42" s="59" t="s">
+        <v>2274</v>
+      </c>
+      <c r="Q42" s="59" t="s">
+        <v>2275</v>
+      </c>
+      <c r="R42" s="88"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="59" t="s">
+        <v>3519</v>
+      </c>
+      <c r="C43" s="59" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D43" s="59" t="s">
+        <v>3521</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>3522</v>
+      </c>
+      <c r="F43" s="59" t="s">
+        <v>3523</v>
+      </c>
+      <c r="G43" s="59" t="s">
+        <v>3524</v>
+      </c>
+      <c r="H43" s="59" t="s">
+        <v>3525</v>
+      </c>
+      <c r="I43" s="59" t="s">
+        <v>3526</v>
+      </c>
+      <c r="J43" s="92"/>
+      <c r="N43" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="O43" s="59" t="s">
+        <v>2276</v>
+      </c>
+      <c r="P43" s="59" t="s">
+        <v>2277</v>
+      </c>
+      <c r="Q43" s="59" t="s">
+        <v>2278</v>
+      </c>
+      <c r="R43" s="88"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="59" t="s">
+        <v>3527</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D44" s="59" t="s">
+        <v>3529</v>
+      </c>
+      <c r="E44" s="59" t="s">
+        <v>3530</v>
+      </c>
+      <c r="F44" s="59" t="s">
+        <v>3393</v>
+      </c>
+      <c r="G44" s="59" t="s">
+        <v>3516</v>
+      </c>
+      <c r="H44" s="59" t="s">
+        <v>3517</v>
+      </c>
+      <c r="I44" s="59" t="s">
+        <v>3145</v>
+      </c>
+      <c r="J44" s="92"/>
+      <c r="N44" s="60" t="s">
+        <v>2537</v>
+      </c>
+      <c r="O44" s="88"/>
+      <c r="P44" s="88"/>
+      <c r="Q44" s="88"/>
+      <c r="R44" s="88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="60" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B45" s="150"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="150"/>
+      <c r="E45" s="150"/>
+      <c r="F45" s="150"/>
+      <c r="G45" s="150"/>
+      <c r="H45" s="150"/>
+      <c r="I45" s="150"/>
+      <c r="J45" s="59">
+        <v>0.318</v>
+      </c>
+      <c r="N45" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="O45" s="59" t="s">
+        <v>2261</v>
+      </c>
+      <c r="P45" s="59" t="s">
+        <v>2262</v>
+      </c>
+      <c r="Q45" s="59" t="s">
+        <v>2263</v>
+      </c>
+      <c r="R45" s="88"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="59" t="s">
+        <v>3531</v>
+      </c>
+      <c r="C46" s="59" t="s">
+        <v>3532</v>
+      </c>
+      <c r="D46" s="59" t="s">
+        <v>3533</v>
+      </c>
+      <c r="E46" s="59" t="s">
+        <v>3534</v>
+      </c>
+      <c r="F46" s="59" t="s">
+        <v>3535</v>
+      </c>
+      <c r="G46" s="59" t="s">
+        <v>3536</v>
+      </c>
+      <c r="H46" s="59" t="s">
+        <v>3537</v>
+      </c>
+      <c r="I46" s="59" t="s">
+        <v>3538</v>
+      </c>
+      <c r="J46" s="59"/>
+      <c r="N46" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="O46" s="59" t="s">
+        <v>2264</v>
+      </c>
+      <c r="P46" s="59" t="s">
+        <v>2265</v>
+      </c>
+      <c r="Q46" s="59" t="s">
+        <v>2266</v>
+      </c>
+      <c r="R46" s="88"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="59" t="s">
+        <v>3539</v>
+      </c>
+      <c r="C47" s="59" t="s">
+        <v>3540</v>
+      </c>
+      <c r="D47" s="59" t="s">
+        <v>3541</v>
+      </c>
+      <c r="E47" s="59" t="s">
+        <v>3354</v>
+      </c>
+      <c r="F47" s="59" t="s">
+        <v>3542</v>
+      </c>
+      <c r="G47" s="59" t="s">
+        <v>3543</v>
+      </c>
+      <c r="H47" s="59" t="s">
+        <v>3544</v>
+      </c>
+      <c r="I47" s="59" t="s">
+        <v>3145</v>
+      </c>
+      <c r="J47" s="92"/>
+      <c r="N47" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="O47" s="59" t="s">
+        <v>2267</v>
+      </c>
+      <c r="P47" s="59" t="s">
+        <v>2268</v>
+      </c>
+      <c r="Q47" s="59" t="s">
+        <v>2269</v>
+      </c>
+      <c r="R47" s="88"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="59" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C48" s="59" t="s">
+        <v>3545</v>
+      </c>
+      <c r="D48" s="59" t="s">
+        <v>3546</v>
+      </c>
+      <c r="E48" s="59" t="s">
+        <v>3547</v>
+      </c>
+      <c r="F48" s="59" t="s">
+        <v>3548</v>
+      </c>
+      <c r="G48" s="59" t="s">
+        <v>3448</v>
+      </c>
+      <c r="H48" s="59" t="s">
+        <v>3549</v>
+      </c>
+      <c r="I48" s="59" t="s">
+        <v>3372</v>
+      </c>
+      <c r="J48" s="92"/>
+      <c r="N48" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="O48" s="59" t="s">
+        <v>2270</v>
+      </c>
+      <c r="P48" s="59" t="s">
+        <v>2271</v>
+      </c>
+      <c r="Q48" s="59" t="s">
+        <v>2272</v>
+      </c>
+      <c r="R48" s="88"/>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="59" t="s">
+        <v>3451</v>
+      </c>
+      <c r="C49" s="59" t="s">
+        <v>3452</v>
+      </c>
+      <c r="D49" s="59" t="s">
+        <v>3256</v>
+      </c>
+      <c r="E49" s="59" t="s">
+        <v>3550</v>
+      </c>
+      <c r="F49" s="59" t="s">
+        <v>3551</v>
+      </c>
+      <c r="G49" s="59" t="s">
+        <v>3552</v>
+      </c>
+      <c r="H49" s="59" t="s">
+        <v>3364</v>
+      </c>
+      <c r="I49" s="59" t="s">
+        <v>3455</v>
+      </c>
+      <c r="J49" s="92"/>
+      <c r="N49" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="O49" s="88"/>
+      <c r="P49" s="88"/>
+      <c r="Q49" s="88"/>
+      <c r="R49" s="88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="150"/>
+      <c r="C50" s="150"/>
+      <c r="D50" s="150"/>
+      <c r="E50" s="150"/>
+      <c r="F50" s="150"/>
+      <c r="G50" s="150"/>
+      <c r="H50" s="150"/>
+      <c r="I50" s="150"/>
+      <c r="J50" s="59">
+        <v>0.151</v>
+      </c>
+      <c r="N50" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="O50" s="59" t="s">
+        <v>2252</v>
+      </c>
+      <c r="P50" s="59" t="s">
+        <v>2253</v>
+      </c>
+      <c r="Q50" s="59" t="s">
+        <v>2254</v>
+      </c>
+      <c r="R50" s="88"/>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="59" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C51" s="59" t="s">
+        <v>3554</v>
+      </c>
+      <c r="D51" s="59" t="s">
+        <v>3555</v>
+      </c>
+      <c r="E51" s="59" t="s">
+        <v>3556</v>
+      </c>
+      <c r="F51" s="59" t="s">
+        <v>3557</v>
+      </c>
+      <c r="G51" s="59" t="s">
+        <v>3558</v>
+      </c>
+      <c r="H51" s="59" t="s">
+        <v>3559</v>
+      </c>
+      <c r="I51" s="59" t="s">
+        <v>3560</v>
+      </c>
+      <c r="J51" s="92"/>
+      <c r="N51" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="O51" s="59" t="s">
+        <v>2255</v>
+      </c>
+      <c r="P51" s="59" t="s">
+        <v>2256</v>
+      </c>
+      <c r="Q51" s="59" t="s">
+        <v>2257</v>
+      </c>
+      <c r="R51" s="88"/>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="59" t="s">
+        <v>3561</v>
+      </c>
+      <c r="C52" s="59" t="s">
+        <v>3562</v>
+      </c>
+      <c r="D52" s="59" t="s">
+        <v>3563</v>
+      </c>
+      <c r="E52" s="59" t="s">
+        <v>3564</v>
+      </c>
+      <c r="F52" s="59" t="s">
+        <v>3565</v>
+      </c>
+      <c r="G52" s="59" t="s">
+        <v>3566</v>
+      </c>
+      <c r="H52" s="59" t="s">
+        <v>3567</v>
+      </c>
+      <c r="I52" s="59" t="s">
+        <v>3568</v>
+      </c>
+      <c r="J52" s="92"/>
+      <c r="N52" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="O52" s="59" t="s">
+        <v>2258</v>
+      </c>
+      <c r="P52" s="59" t="s">
+        <v>2259</v>
+      </c>
+      <c r="Q52" s="59" t="s">
+        <v>2260</v>
+      </c>
+      <c r="R52" s="88"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="59" t="s">
+        <v>3569</v>
+      </c>
+      <c r="C53" s="59" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D53" s="59" t="s">
+        <v>3571</v>
+      </c>
+      <c r="E53" s="59" t="s">
+        <v>3572</v>
+      </c>
+      <c r="F53" s="59" t="s">
+        <v>3509</v>
+      </c>
+      <c r="G53" s="59" t="s">
+        <v>3573</v>
+      </c>
+      <c r="H53" s="59" t="s">
+        <v>3574</v>
+      </c>
+      <c r="I53" s="59" t="s">
+        <v>3141</v>
+      </c>
+      <c r="J53" s="92"/>
+      <c r="N53" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="O53" s="88"/>
+      <c r="P53" s="88"/>
+      <c r="Q53" s="88"/>
+      <c r="R53" s="88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="71" t="s">
+        <v>360</v>
+      </c>
+      <c r="B54" s="150"/>
+      <c r="C54" s="150"/>
+      <c r="D54" s="150"/>
+      <c r="E54" s="150"/>
+      <c r="F54" s="150"/>
+      <c r="G54" s="150"/>
+      <c r="H54" s="150"/>
+      <c r="I54" s="150"/>
+      <c r="J54" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="N54" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="O54" s="59" t="s">
+        <v>2240</v>
+      </c>
+      <c r="P54" s="59" t="s">
+        <v>2241</v>
+      </c>
+      <c r="Q54" s="59" t="s">
+        <v>2242</v>
+      </c>
+      <c r="R54" s="88"/>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="59" t="s">
+        <v>3575</v>
+      </c>
+      <c r="C55" s="59" t="s">
+        <v>3576</v>
+      </c>
+      <c r="D55" s="59" t="s">
+        <v>3577</v>
+      </c>
+      <c r="E55" s="59" t="s">
+        <v>3578</v>
+      </c>
+      <c r="F55" s="59" t="s">
+        <v>3579</v>
+      </c>
+      <c r="G55" s="59" t="s">
+        <v>3580</v>
+      </c>
+      <c r="H55" s="59" t="s">
+        <v>3581</v>
+      </c>
+      <c r="I55" s="59" t="s">
+        <v>3582</v>
+      </c>
+      <c r="J55" s="92"/>
+      <c r="N55" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="O55" s="59" t="s">
+        <v>2243</v>
+      </c>
+      <c r="P55" s="59" t="s">
+        <v>2244</v>
+      </c>
+      <c r="Q55" s="59" t="s">
+        <v>2245</v>
+      </c>
+      <c r="R55" s="88"/>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="59" t="s">
+        <v>3583</v>
+      </c>
+      <c r="C56" s="59" t="s">
+        <v>3576</v>
+      </c>
+      <c r="D56" s="59" t="s">
+        <v>3584</v>
+      </c>
+      <c r="E56" s="59" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F56" s="59" t="s">
+        <v>3586</v>
+      </c>
+      <c r="G56" s="59" t="s">
+        <v>3587</v>
+      </c>
+      <c r="H56" s="59" t="s">
+        <v>3588</v>
+      </c>
+      <c r="I56" s="59" t="s">
+        <v>3589</v>
+      </c>
+      <c r="J56" s="92"/>
+      <c r="N56" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="O56" s="59" t="s">
+        <v>2246</v>
+      </c>
+      <c r="P56" s="59" t="s">
+        <v>2247</v>
+      </c>
+      <c r="Q56" s="59" t="s">
+        <v>2248</v>
+      </c>
+      <c r="R56" s="88"/>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="59" t="s">
+        <v>3590</v>
+      </c>
+      <c r="C57" s="59" t="s">
+        <v>3367</v>
+      </c>
+      <c r="D57" s="59" t="s">
+        <v>3504</v>
+      </c>
+      <c r="E57" s="59" t="s">
+        <v>3446</v>
+      </c>
+      <c r="F57" s="59" t="s">
+        <v>3447</v>
+      </c>
+      <c r="G57" s="59" t="s">
+        <v>3077</v>
+      </c>
+      <c r="H57" s="59" t="s">
+        <v>3487</v>
+      </c>
+      <c r="I57" s="59" t="s">
+        <v>3479</v>
+      </c>
+      <c r="J57" s="92"/>
+      <c r="N57" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="O57" s="59" t="s">
+        <v>2249</v>
+      </c>
+      <c r="P57" s="59" t="s">
+        <v>2250</v>
+      </c>
+      <c r="Q57" s="59" t="s">
+        <v>2251</v>
+      </c>
+      <c r="R57" s="88"/>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="59" t="s">
+        <v>3591</v>
+      </c>
+      <c r="C58" s="59" t="s">
+        <v>3562</v>
+      </c>
+      <c r="D58" s="59" t="s">
+        <v>3592</v>
+      </c>
+      <c r="E58" s="59" t="s">
+        <v>3392</v>
+      </c>
+      <c r="F58" s="59" t="s">
+        <v>3593</v>
+      </c>
+      <c r="G58" s="59" t="s">
+        <v>3594</v>
+      </c>
+      <c r="H58" s="59" t="s">
+        <v>3595</v>
+      </c>
+      <c r="I58" s="59" t="s">
+        <v>3596</v>
+      </c>
+      <c r="J58" s="92"/>
+      <c r="N58" s="77" t="s">
+        <v>361</v>
+      </c>
+      <c r="O58" s="88"/>
+      <c r="P58" s="88"/>
+      <c r="Q58" s="88"/>
+      <c r="R58" s="93" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="B59" s="150"/>
+      <c r="C59" s="150"/>
+      <c r="D59" s="150"/>
+      <c r="E59" s="150"/>
+      <c r="F59" s="150"/>
+      <c r="G59" s="150"/>
+      <c r="H59" s="150"/>
+      <c r="I59" s="150"/>
+      <c r="J59" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="N59" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="O59" s="59" t="s">
+        <v>2231</v>
+      </c>
+      <c r="P59" s="59" t="s">
+        <v>2232</v>
+      </c>
+      <c r="Q59" s="59" t="s">
+        <v>2233</v>
+      </c>
+      <c r="R59" s="88"/>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="59" t="s">
+        <v>3597</v>
+      </c>
+      <c r="C60" s="59" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D60" s="59" t="s">
+        <v>3598</v>
+      </c>
+      <c r="E60" s="59" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F60" s="59" t="s">
+        <v>3447</v>
+      </c>
+      <c r="G60" s="59" t="s">
+        <v>3599</v>
+      </c>
+      <c r="H60" s="59" t="s">
+        <v>3473</v>
+      </c>
+      <c r="I60" s="59" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J60" s="92"/>
+      <c r="N60" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="O60" s="59" t="s">
+        <v>2234</v>
+      </c>
+      <c r="P60" s="59" t="s">
+        <v>2235</v>
+      </c>
+      <c r="Q60" s="59" t="s">
+        <v>2236</v>
+      </c>
+      <c r="R60" s="88"/>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="59" t="s">
+        <v>3600</v>
+      </c>
+      <c r="C61" s="59" t="s">
+        <v>3601</v>
+      </c>
+      <c r="D61" s="59" t="s">
+        <v>3602</v>
+      </c>
+      <c r="E61" s="59" t="s">
+        <v>3603</v>
+      </c>
+      <c r="F61" s="59" t="s">
+        <v>3604</v>
+      </c>
+      <c r="G61" s="59" t="s">
+        <v>3605</v>
+      </c>
+      <c r="H61" s="59" t="s">
+        <v>3606</v>
+      </c>
+      <c r="I61" s="59" t="s">
+        <v>3607</v>
+      </c>
+      <c r="J61" s="92"/>
+      <c r="N61" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="O61" s="59" t="s">
+        <v>2237</v>
+      </c>
+      <c r="P61" s="59" t="s">
+        <v>2238</v>
+      </c>
+      <c r="Q61" s="59" t="s">
+        <v>2239</v>
+      </c>
+      <c r="R61" s="88"/>
+    </row>
+    <row r="62" spans="1:18" ht="34">
+      <c r="A62" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="59" t="s">
+        <v>3608</v>
+      </c>
+      <c r="C62" s="59" t="s">
+        <v>3609</v>
+      </c>
+      <c r="D62" s="59" t="s">
+        <v>3610</v>
+      </c>
+      <c r="E62" s="59" t="s">
+        <v>3611</v>
+      </c>
+      <c r="F62" s="59" t="s">
+        <v>3612</v>
+      </c>
+      <c r="G62" s="59" t="s">
+        <v>3613</v>
+      </c>
+      <c r="H62" s="59" t="s">
+        <v>3614</v>
+      </c>
+      <c r="I62" s="59" t="s">
+        <v>3538</v>
+      </c>
+      <c r="J62" s="92"/>
+      <c r="N62" s="80" t="s">
+        <v>362</v>
+      </c>
+      <c r="O62" s="88"/>
+      <c r="P62" s="88"/>
+      <c r="Q62" s="88"/>
+      <c r="R62" s="93" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="34">
+      <c r="A63" s="86" t="s">
+        <v>362</v>
+      </c>
+      <c r="B63" s="150"/>
+      <c r="C63" s="150"/>
+      <c r="D63" s="150"/>
+      <c r="E63" s="150"/>
+      <c r="F63" s="150"/>
+      <c r="G63" s="150"/>
+      <c r="H63" s="150"/>
+      <c r="I63" s="150"/>
+      <c r="J63" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="N63" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="O63" s="59" t="s">
+        <v>2210</v>
+      </c>
+      <c r="P63" s="59" t="s">
+        <v>2211</v>
+      </c>
+      <c r="Q63" s="59" t="s">
+        <v>2212</v>
+      </c>
+      <c r="R63" s="88"/>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="59" t="s">
+        <v>3615</v>
+      </c>
+      <c r="C64" s="59" t="s">
+        <v>3616</v>
+      </c>
+      <c r="D64" s="59" t="s">
+        <v>3617</v>
+      </c>
+      <c r="E64" s="59" t="s">
+        <v>3618</v>
+      </c>
+      <c r="F64" s="59" t="s">
+        <v>3619</v>
+      </c>
+      <c r="G64" s="59" t="s">
+        <v>3620</v>
+      </c>
+      <c r="H64" s="59" t="s">
+        <v>3621</v>
+      </c>
+      <c r="I64" s="59" t="s">
+        <v>3622</v>
+      </c>
+      <c r="J64" s="92"/>
+      <c r="N64" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="O64" s="59" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P64" s="59" t="s">
+        <v>2214</v>
+      </c>
+      <c r="Q64" s="59" t="s">
+        <v>2215</v>
+      </c>
+      <c r="R64" s="88"/>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="59" t="s">
+        <v>3623</v>
+      </c>
+      <c r="C65" s="59" t="s">
+        <v>3367</v>
+      </c>
+      <c r="D65" s="59" t="s">
+        <v>3624</v>
+      </c>
+      <c r="E65" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F65" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G65" s="59" t="s">
+        <v>3077</v>
+      </c>
+      <c r="H65" s="59" t="s">
+        <v>3449</v>
+      </c>
+      <c r="I65" s="59" t="s">
+        <v>3450</v>
+      </c>
+      <c r="J65" s="92"/>
+      <c r="N65" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="O65" s="59" t="s">
+        <v>2216</v>
+      </c>
+      <c r="P65" s="59" t="s">
+        <v>2217</v>
+      </c>
+      <c r="Q65" s="59" t="s">
+        <v>2218</v>
+      </c>
+      <c r="R65" s="88"/>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="59" t="s">
+        <v>3625</v>
+      </c>
+      <c r="C66" s="59" t="s">
+        <v>3626</v>
+      </c>
+      <c r="D66" s="59" t="s">
+        <v>3627</v>
+      </c>
+      <c r="E66" s="59" t="s">
+        <v>3354</v>
+      </c>
+      <c r="F66" s="59" t="s">
+        <v>3628</v>
+      </c>
+      <c r="G66" s="59" t="s">
+        <v>3501</v>
+      </c>
+      <c r="H66" s="59" t="s">
+        <v>3629</v>
+      </c>
+      <c r="I66" s="59" t="s">
+        <v>3630</v>
+      </c>
+      <c r="J66" s="92"/>
+      <c r="N66" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="O66" s="59" t="s">
+        <v>2219</v>
+      </c>
+      <c r="P66" s="59" t="s">
+        <v>2220</v>
+      </c>
+      <c r="Q66" s="59" t="s">
+        <v>2221</v>
+      </c>
+      <c r="R66" s="88"/>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="59" t="s">
+        <v>3631</v>
+      </c>
+      <c r="C67" s="59" t="s">
+        <v>3632</v>
+      </c>
+      <c r="D67" s="59" t="s">
+        <v>3633</v>
+      </c>
+      <c r="E67" s="59" t="s">
+        <v>3634</v>
+      </c>
+      <c r="F67" s="59" t="s">
+        <v>3509</v>
+      </c>
+      <c r="G67" s="59" t="s">
+        <v>3635</v>
+      </c>
+      <c r="H67" s="59" t="s">
+        <v>3574</v>
+      </c>
+      <c r="I67" s="59" t="s">
+        <v>3636</v>
+      </c>
+      <c r="J67" s="92"/>
+      <c r="N67" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="O67" s="59" t="s">
+        <v>2222</v>
+      </c>
+      <c r="P67" s="59" t="s">
+        <v>2223</v>
+      </c>
+      <c r="Q67" s="59" t="s">
+        <v>2224</v>
+      </c>
+      <c r="R67" s="88"/>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="59" t="s">
+        <v>3451</v>
+      </c>
+      <c r="C68" s="59" t="s">
+        <v>3390</v>
+      </c>
+      <c r="D68" s="59" t="s">
+        <v>3637</v>
+      </c>
+      <c r="E68" s="59" t="s">
+        <v>3446</v>
+      </c>
+      <c r="F68" s="59" t="s">
+        <v>3638</v>
+      </c>
+      <c r="G68" s="59" t="s">
+        <v>3394</v>
+      </c>
+      <c r="H68" s="59" t="s">
+        <v>3549</v>
+      </c>
+      <c r="I68" s="59" t="s">
+        <v>3357</v>
+      </c>
+      <c r="J68" s="92"/>
+      <c r="N68" s="72" t="s">
+        <v>339</v>
+      </c>
+      <c r="O68" s="59" t="s">
+        <v>2225</v>
+      </c>
+      <c r="P68" s="59" t="s">
+        <v>2226</v>
+      </c>
+      <c r="Q68" s="59" t="s">
+        <v>2227</v>
+      </c>
+      <c r="R68" s="88"/>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="72" t="s">
+        <v>339</v>
+      </c>
+      <c r="B69" s="59" t="s">
+        <v>3639</v>
+      </c>
+      <c r="C69" s="59" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D69" s="59" t="s">
+        <v>3598</v>
+      </c>
+      <c r="E69" s="59" t="s">
+        <v>3505</v>
+      </c>
+      <c r="F69" s="59" t="s">
+        <v>3640</v>
+      </c>
+      <c r="G69" s="59" t="s">
+        <v>3641</v>
+      </c>
+      <c r="H69" s="59" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I69" s="59" t="s">
+        <v>3642</v>
+      </c>
+      <c r="J69" s="92"/>
+      <c r="N69" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="O69" s="59" t="s">
+        <v>2228</v>
+      </c>
+      <c r="P69" s="59" t="s">
+        <v>2229</v>
+      </c>
+      <c r="Q69" s="59" t="s">
+        <v>2230</v>
+      </c>
+      <c r="R69" s="88"/>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="59" t="s">
+        <v>3643</v>
+      </c>
+      <c r="C70" s="59" t="s">
+        <v>3644</v>
+      </c>
+      <c r="D70" s="59" t="s">
+        <v>3645</v>
+      </c>
+      <c r="E70" s="59" t="s">
+        <v>3040</v>
+      </c>
+      <c r="F70" s="59" t="s">
+        <v>3646</v>
+      </c>
+      <c r="G70" s="59" t="s">
+        <v>3647</v>
+      </c>
+      <c r="H70" s="59" t="s">
+        <v>3648</v>
+      </c>
+      <c r="I70" s="59" t="s">
+        <v>3649</v>
+      </c>
+      <c r="J70" s="92"/>
+      <c r="N70" s="71" t="s">
+        <v>1236</v>
+      </c>
+      <c r="O70" s="88"/>
+      <c r="P70" s="88"/>
+      <c r="Q70" s="88"/>
+      <c r="R70" s="59"/>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="B71" s="150"/>
+      <c r="C71" s="150"/>
+      <c r="D71" s="150"/>
+      <c r="E71" s="150"/>
+      <c r="F71" s="150"/>
+      <c r="G71" s="150"/>
+      <c r="H71" s="150"/>
+      <c r="I71" s="150"/>
+      <c r="J71" s="59">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="N71" s="72" t="s">
+        <v>1200</v>
+      </c>
+      <c r="O71" s="74" t="s">
+        <v>3278</v>
+      </c>
+      <c r="P71" s="74" t="s">
+        <v>3285</v>
+      </c>
+      <c r="Q71" s="74" t="s">
+        <v>3286</v>
+      </c>
+      <c r="R71" s="85">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="59" t="s">
+        <v>3650</v>
+      </c>
+      <c r="C72" s="59" t="s">
+        <v>3651</v>
+      </c>
+      <c r="D72" s="59" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E72" s="59" t="s">
+        <v>3634</v>
+      </c>
+      <c r="F72" s="59" t="s">
+        <v>3604</v>
+      </c>
+      <c r="G72" s="59" t="s">
+        <v>3653</v>
+      </c>
+      <c r="H72" s="59" t="s">
+        <v>3469</v>
+      </c>
+      <c r="I72" s="59" t="s">
+        <v>3654</v>
+      </c>
+      <c r="J72" s="92"/>
+      <c r="N72" s="72" t="s">
+        <v>1204</v>
+      </c>
+      <c r="O72" s="74" t="s">
+        <v>3279</v>
+      </c>
+      <c r="P72" s="74" t="s">
+        <v>3287</v>
+      </c>
+      <c r="Q72" s="74" t="s">
+        <v>3288</v>
+      </c>
+      <c r="R72" s="85"/>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="59" t="s">
+        <v>3655</v>
+      </c>
+      <c r="C73" s="59" t="s">
+        <v>3656</v>
+      </c>
+      <c r="D73" s="59" t="s">
+        <v>3657</v>
+      </c>
+      <c r="E73" s="59" t="s">
+        <v>3658</v>
+      </c>
+      <c r="F73" s="59" t="s">
+        <v>3535</v>
+      </c>
+      <c r="G73" s="59" t="s">
+        <v>3659</v>
+      </c>
+      <c r="H73" s="59" t="s">
+        <v>3660</v>
+      </c>
+      <c r="I73" s="59" t="s">
+        <v>3661</v>
+      </c>
+      <c r="J73" s="92"/>
+      <c r="N73" s="72" t="s">
+        <v>1208</v>
+      </c>
+      <c r="O73" s="74" t="s">
+        <v>3280</v>
+      </c>
+      <c r="P73" s="74" t="s">
+        <v>3289</v>
+      </c>
+      <c r="Q73" s="74" t="s">
+        <v>3290</v>
+      </c>
+      <c r="R73" s="85"/>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="79"/>
+      <c r="B74" s="198"/>
+      <c r="C74" s="198"/>
+      <c r="D74" s="198"/>
+      <c r="E74" s="198"/>
+      <c r="F74" s="198"/>
+      <c r="G74" s="198"/>
+      <c r="H74" s="198"/>
+      <c r="I74" s="198"/>
+      <c r="J74" s="94"/>
+      <c r="N74" s="72" t="s">
+        <v>367</v>
+      </c>
+      <c r="O74" s="74" t="s">
+        <v>3281</v>
+      </c>
+      <c r="P74" s="74" t="s">
+        <v>3291</v>
+      </c>
+      <c r="Q74" s="74" t="s">
+        <v>3292</v>
+      </c>
+      <c r="R74" s="85"/>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="78"/>
+      <c r="B75" s="198"/>
+      <c r="C75" s="198"/>
+      <c r="D75" s="198"/>
+      <c r="E75" s="198"/>
+      <c r="F75" s="198"/>
+      <c r="G75" s="198"/>
+      <c r="H75" s="198"/>
+      <c r="I75" s="198"/>
+      <c r="J75" s="94"/>
+      <c r="N75" s="72" t="s">
+        <v>368</v>
+      </c>
+      <c r="O75" s="74" t="s">
+        <v>3282</v>
+      </c>
+      <c r="P75" s="74" t="s">
+        <v>3293</v>
+      </c>
+      <c r="Q75" s="74" t="s">
+        <v>3294</v>
+      </c>
+      <c r="R75" s="85"/>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" s="79"/>
+      <c r="B76" s="198"/>
+      <c r="C76" s="198"/>
+      <c r="D76" s="198"/>
+      <c r="E76" s="198"/>
+      <c r="F76" s="198"/>
+      <c r="G76" s="198"/>
+      <c r="H76" s="198"/>
+      <c r="I76" s="198"/>
+      <c r="J76" s="94"/>
+      <c r="N76" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="O76" s="74" t="s">
+        <v>3283</v>
+      </c>
+      <c r="P76" s="74" t="s">
+        <v>3295</v>
+      </c>
+      <c r="Q76" s="74" t="s">
+        <v>3296</v>
+      </c>
+      <c r="R76" s="85"/>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" s="79"/>
+      <c r="B77" s="198"/>
+      <c r="C77" s="198"/>
+      <c r="D77" s="198"/>
+      <c r="E77" s="198"/>
+      <c r="F77" s="198"/>
+      <c r="G77" s="198"/>
+      <c r="H77" s="198"/>
+      <c r="I77" s="198"/>
+      <c r="J77" s="94"/>
+      <c r="N77" s="72" t="s">
+        <v>370</v>
+      </c>
+      <c r="O77" s="74" t="s">
+        <v>3284</v>
+      </c>
+      <c r="P77" s="74" t="s">
+        <v>3297</v>
+      </c>
+      <c r="Q77" s="74" t="s">
+        <v>3298</v>
+      </c>
+      <c r="R77" s="85"/>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" s="79"/>
+      <c r="B78" s="198"/>
+      <c r="C78" s="198"/>
+      <c r="D78" s="198"/>
+      <c r="E78" s="198"/>
+      <c r="F78" s="198"/>
+      <c r="G78" s="198"/>
+      <c r="H78" s="198"/>
+      <c r="I78" s="198"/>
+      <c r="J78" s="94"/>
+      <c r="N78" s="72" t="s">
+        <v>371</v>
+      </c>
+      <c r="O78" s="74" t="s">
+        <v>2264</v>
+      </c>
+      <c r="P78" s="74" t="s">
+        <v>3299</v>
+      </c>
+      <c r="Q78" s="74" t="s">
+        <v>3300</v>
+      </c>
+      <c r="R78" s="85"/>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" s="79"/>
+      <c r="B79" s="198"/>
+      <c r="C79" s="198"/>
+      <c r="D79" s="198"/>
+      <c r="E79" s="198"/>
+      <c r="F79" s="198"/>
+      <c r="G79" s="198"/>
+      <c r="H79" s="198"/>
+      <c r="I79" s="198"/>
+      <c r="N79" s="71" t="s">
+        <v>2588</v>
+      </c>
+      <c r="O79" s="74"/>
+      <c r="P79" s="74"/>
+      <c r="Q79" s="74"/>
+      <c r="R79" s="59">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="N80" s="72" t="s">
+        <v>2589</v>
+      </c>
+      <c r="O80" s="59" t="s">
+        <v>2624</v>
+      </c>
+      <c r="P80" s="59" t="s">
+        <v>2625</v>
+      </c>
+      <c r="Q80" s="59" t="s">
+        <v>2626</v>
+      </c>
+      <c r="R80" s="74"/>
+    </row>
+    <row r="81" spans="14:18">
+      <c r="N81" s="72" t="s">
+        <v>2590</v>
+      </c>
+      <c r="O81" s="59" t="s">
+        <v>2627</v>
+      </c>
+      <c r="P81" s="59" t="s">
+        <v>2628</v>
+      </c>
+      <c r="Q81" s="59" t="s">
+        <v>2629</v>
+      </c>
+      <c r="R81" s="74"/>
+    </row>
+    <row r="82" spans="14:18">
+      <c r="N82" s="72" t="s">
+        <v>2591</v>
+      </c>
+      <c r="O82" s="59" t="s">
+        <v>2630</v>
+      </c>
+      <c r="P82" s="59" t="s">
+        <v>2631</v>
+      </c>
+      <c r="Q82" s="59" t="s">
+        <v>2632</v>
+      </c>
+      <c r="R82" s="74"/>
+    </row>
+    <row r="83" spans="14:18">
+      <c r="N83" s="72" t="s">
+        <v>2592</v>
+      </c>
+      <c r="O83" s="59" t="s">
+        <v>2633</v>
+      </c>
+      <c r="P83" s="59" t="s">
+        <v>2634</v>
+      </c>
+      <c r="Q83" s="59" t="s">
+        <v>2635</v>
+      </c>
+      <c r="R83" s="74"/>
+    </row>
+    <row r="84" spans="14:18">
+      <c r="N84" s="72" t="s">
+        <v>2593</v>
+      </c>
+      <c r="O84" s="59" t="s">
+        <v>2636</v>
+      </c>
+      <c r="P84" s="59" t="s">
+        <v>2637</v>
+      </c>
+      <c r="Q84" s="59" t="s">
+        <v>2638</v>
+      </c>
+      <c r="R84" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="J2:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33CB0B5-F2AC-124E-9AEC-F4EB916A46DF}">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
@@ -30784,16 +36056,16 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="85"/>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="166" t="s">
         <v>3277</v>
       </c>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
       <c r="J1" s="70"/>
       <c r="K1" s="81"/>
       <c r="N1" s="72"/>
@@ -30811,7 +36083,7 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="164" t="s">
         <v>2410</v>
       </c>
       <c r="B2" s="82" t="s">
@@ -30838,7 +36110,7 @@
       <c r="I2" s="82" t="s">
         <v>371</v>
       </c>
-      <c r="J2" s="156" t="s">
+      <c r="J2" s="165" t="s">
         <v>359</v>
       </c>
       <c r="N2" s="72"/>
@@ -30854,7 +36126,7 @@
       <c r="R2" s="88"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="155"/>
+      <c r="A3" s="164"/>
       <c r="B3" s="83" t="s">
         <v>3269</v>
       </c>
@@ -30879,7 +36151,7 @@
       <c r="I3" s="83" t="s">
         <v>3276</v>
       </c>
-      <c r="J3" s="156"/>
+      <c r="J3" s="165"/>
       <c r="N3" s="77" t="s">
         <v>5</v>
       </c>
@@ -33863,7 +39135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9939FDB-9B8C-264D-80DF-DBC8B6890066}">
   <dimension ref="A1:K125"/>
   <sheetViews>
@@ -33891,26 +39163,26 @@
     </row>
     <row r="2" spans="1:11" s="19" customFormat="1">
       <c r="A2" s="21"/>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="167" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="159" t="s">
+      <c r="C2" s="167"/>
+      <c r="D2" s="168" t="s">
         <v>378</v>
       </c>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159" t="s">
+      <c r="E2" s="168"/>
+      <c r="F2" s="168" t="s">
         <v>379</v>
       </c>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159" t="s">
+      <c r="G2" s="168"/>
+      <c r="H2" s="168" t="s">
         <v>380</v>
       </c>
-      <c r="I2" s="159"/>
-      <c r="J2" s="160" t="s">
+      <c r="I2" s="168"/>
+      <c r="J2" s="167" t="s">
         <v>381</v>
       </c>
-      <c r="K2" s="160"/>
+      <c r="K2" s="167"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="22"/>
@@ -34798,26 +40070,26 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="25"/>
-      <c r="B46" s="160" t="s">
+      <c r="B46" s="167" t="s">
         <v>377</v>
       </c>
-      <c r="C46" s="160"/>
-      <c r="D46" s="159" t="s">
+      <c r="C46" s="167"/>
+      <c r="D46" s="168" t="s">
         <v>378</v>
       </c>
-      <c r="E46" s="159"/>
-      <c r="F46" s="159" t="s">
+      <c r="E46" s="168"/>
+      <c r="F46" s="168" t="s">
         <v>379</v>
       </c>
-      <c r="G46" s="159"/>
-      <c r="H46" s="159" t="s">
+      <c r="G46" s="168"/>
+      <c r="H46" s="168" t="s">
         <v>380</v>
       </c>
-      <c r="I46" s="159"/>
-      <c r="J46" s="160" t="s">
+      <c r="I46" s="168"/>
+      <c r="J46" s="167" t="s">
         <v>381</v>
       </c>
-      <c r="K46" s="160"/>
+      <c r="K46" s="167"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="22"/>
@@ -35644,26 +40916,26 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="26"/>
-      <c r="B89" s="158" t="s">
+      <c r="B89" s="169" t="s">
         <v>377</v>
       </c>
-      <c r="C89" s="158"/>
-      <c r="D89" s="159" t="s">
+      <c r="C89" s="169"/>
+      <c r="D89" s="168" t="s">
         <v>378</v>
       </c>
-      <c r="E89" s="159"/>
-      <c r="F89" s="159" t="s">
+      <c r="E89" s="168"/>
+      <c r="F89" s="168" t="s">
         <v>379</v>
       </c>
-      <c r="G89" s="159"/>
-      <c r="H89" s="159" t="s">
+      <c r="G89" s="168"/>
+      <c r="H89" s="168" t="s">
         <v>380</v>
       </c>
-      <c r="I89" s="159"/>
-      <c r="J89" s="158" t="s">
+      <c r="I89" s="168"/>
+      <c r="J89" s="169" t="s">
         <v>381</v>
       </c>
-      <c r="K89" s="158"/>
+      <c r="K89" s="169"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="27"/>
@@ -36415,1256 +41687,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="J46:K46"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0184AF8D-1BBE-E94B-BEAF-19DDC48443EE}">
-  <dimension ref="A1:K77"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:B65"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="20" style="16" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="16"/>
-    <col min="11" max="11" width="14.6640625" style="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="30">
-      <c r="A1" s="95" t="s">
-        <v>527</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="97"/>
-      <c r="B2" s="108" t="s">
-        <v>2735</v>
-      </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="98" t="s">
-        <v>2420</v>
-      </c>
-      <c r="B3" s="102" t="s">
-        <v>2421</v>
-      </c>
-      <c r="C3" s="102" t="s">
-        <v>376</v>
-      </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="99" t="s">
-        <v>2672</v>
-      </c>
-      <c r="B4" s="107">
-        <v>1.1439999999999999</v>
-      </c>
-      <c r="C4" s="107" t="s">
-        <v>2673</v>
-      </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="99" t="s">
-        <v>2674</v>
-      </c>
-      <c r="B5" s="107">
-        <v>1.194</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>2675</v>
-      </c>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="99" t="s">
-        <v>2676</v>
-      </c>
-      <c r="B6" s="107">
-        <v>1.3620000000000001</v>
-      </c>
-      <c r="C6" s="107" t="s">
-        <v>2677</v>
-      </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-    </row>
-    <row r="7" spans="1:11" ht="18">
-      <c r="A7" s="99" t="s">
-        <v>2678</v>
-      </c>
-      <c r="B7" s="107" t="s">
-        <v>2679</v>
-      </c>
-      <c r="C7" s="107" t="s">
-        <v>2680</v>
-      </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="99" t="s">
-        <v>2681</v>
-      </c>
-      <c r="B8" s="107">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="C8" s="107" t="s">
-        <v>2422</v>
-      </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="99" t="s">
-        <v>2682</v>
-      </c>
-      <c r="B9" s="107">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="C9" s="107" t="s">
-        <v>2683</v>
-      </c>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="99" t="s">
-        <v>2684</v>
-      </c>
-      <c r="B10" s="107">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="C10" s="107" t="s">
-        <v>2685</v>
-      </c>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="99" t="s">
-        <v>2686</v>
-      </c>
-      <c r="B11" s="107">
-        <v>1.2230000000000001</v>
-      </c>
-      <c r="C11" s="107" t="s">
-        <v>2687</v>
-      </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="99" t="s">
-        <v>2741</v>
-      </c>
-      <c r="B12" s="107">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="C12" s="107" t="s">
-        <v>2692</v>
-      </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="99" t="s">
-        <v>2740</v>
-      </c>
-      <c r="B13" s="107">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="C13" s="107" t="s">
-        <v>2694</v>
-      </c>
-      <c r="D13" s="161"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="161"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="99" t="s">
-        <v>2695</v>
-      </c>
-      <c r="B14" s="107">
-        <v>1.1339999999999999</v>
-      </c>
-      <c r="C14" s="107" t="s">
-        <v>2696</v>
-      </c>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="99" t="s">
-        <v>2688</v>
-      </c>
-      <c r="B15" s="107">
-        <v>1.024</v>
-      </c>
-      <c r="C15" s="107" t="s">
-        <v>2689</v>
-      </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="99" t="s">
-        <v>2697</v>
-      </c>
-      <c r="B16" s="107">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="C16" s="107" t="s">
-        <v>2698</v>
-      </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-    </row>
-    <row r="17" spans="1:11" ht="18">
-      <c r="A17" s="99" t="s">
-        <v>2699</v>
-      </c>
-      <c r="B17" s="107" t="s">
-        <v>2423</v>
-      </c>
-      <c r="C17" s="107" t="s">
-        <v>2700</v>
-      </c>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-    </row>
-    <row r="18" spans="1:11" ht="18">
-      <c r="A18" s="99" t="s">
-        <v>2721</v>
-      </c>
-      <c r="B18" s="107" t="s">
-        <v>2722</v>
-      </c>
-      <c r="C18" s="107" t="s">
-        <v>2723</v>
-      </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-    </row>
-    <row r="19" spans="1:11" ht="18">
-      <c r="A19" s="99" t="s">
-        <v>2724</v>
-      </c>
-      <c r="B19" s="107" t="s">
-        <v>2725</v>
-      </c>
-      <c r="C19" s="107" t="s">
-        <v>2726</v>
-      </c>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="161"/>
-    </row>
-    <row r="20" spans="1:11" ht="18">
-      <c r="A20" s="99" t="s">
-        <v>2727</v>
-      </c>
-      <c r="B20" s="107" t="s">
-        <v>2717</v>
-      </c>
-      <c r="C20" s="107" t="s">
-        <v>2728</v>
-      </c>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
-    </row>
-    <row r="21" spans="1:11" ht="18">
-      <c r="A21" s="99" t="s">
-        <v>2733</v>
-      </c>
-      <c r="B21" s="107" t="s">
-        <v>2736</v>
-      </c>
-      <c r="C21" s="107" t="s">
-        <v>2737</v>
-      </c>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="161"/>
-    </row>
-    <row r="22" spans="1:11" ht="18">
-      <c r="A22" s="99" t="s">
-        <v>2734</v>
-      </c>
-      <c r="B22" s="107" t="s">
-        <v>2738</v>
-      </c>
-      <c r="C22" s="107" t="s">
-        <v>2739</v>
-      </c>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="161"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="99" t="s">
-        <v>2701</v>
-      </c>
-      <c r="B23" s="162">
-        <v>1.21</v>
-      </c>
-      <c r="C23" s="162" t="s">
-        <v>2703</v>
-      </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="99" t="s">
-        <v>2702</v>
-      </c>
-      <c r="B24" s="162"/>
-      <c r="C24" s="162"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="161"/>
-      <c r="K24" s="161"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="99" t="s">
-        <v>2701</v>
-      </c>
-      <c r="B25" s="162" t="s">
-        <v>2705</v>
-      </c>
-      <c r="C25" s="162" t="s">
-        <v>2706</v>
-      </c>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="161"/>
-      <c r="K25" s="161"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="99" t="s">
-        <v>2704</v>
-      </c>
-      <c r="B26" s="162"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="161"/>
-      <c r="K26" s="161"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="99" t="s">
-        <v>2707</v>
-      </c>
-      <c r="B27" s="107">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="C27" s="107" t="s">
-        <v>2708</v>
-      </c>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="161"/>
-      <c r="K27" s="161"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="99" t="s">
-        <v>2709</v>
-      </c>
-      <c r="B28" s="162">
-        <v>1.4930000000000001</v>
-      </c>
-      <c r="C28" s="162" t="s">
-        <v>2711</v>
-      </c>
-      <c r="D28" s="161"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="161"/>
-      <c r="K28" s="161"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="99" t="s">
-        <v>2710</v>
-      </c>
-      <c r="B29" s="162"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="161"/>
-      <c r="K29" s="161"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="99" t="s">
-        <v>2712</v>
-      </c>
-      <c r="B30" s="162" t="s">
-        <v>2714</v>
-      </c>
-      <c r="C30" s="162" t="s">
-        <v>2715</v>
-      </c>
-      <c r="D30" s="161"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="161"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="99" t="s">
-        <v>2713</v>
-      </c>
-      <c r="B31" s="162"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="161"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="99" t="s">
-        <v>2712</v>
-      </c>
-      <c r="B32" s="162">
-        <v>1.9430000000000001</v>
-      </c>
-      <c r="C32" s="162" t="s">
-        <v>2718</v>
-      </c>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="99" t="s">
-        <v>2716</v>
-      </c>
-      <c r="B33" s="162"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="161"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="161"/>
-      <c r="J33" s="161"/>
-      <c r="K33" s="161"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="99" t="s">
-        <v>2712</v>
-      </c>
-      <c r="B34" s="162">
-        <v>1.089</v>
-      </c>
-      <c r="C34" s="162" t="s">
-        <v>2720</v>
-      </c>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="161"/>
-      <c r="J34" s="161"/>
-      <c r="K34" s="161"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="99" t="s">
-        <v>2719</v>
-      </c>
-      <c r="B35" s="162"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="161"/>
-      <c r="I35" s="161"/>
-      <c r="J35" s="161"/>
-      <c r="K35" s="161"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="99" t="s">
-        <v>2428</v>
-      </c>
-      <c r="B36" s="107">
-        <v>3749</v>
-      </c>
-      <c r="D36" s="161"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="161"/>
-      <c r="K36" s="161"/>
-    </row>
-    <row r="37" spans="1:11" ht="18">
-      <c r="A37" s="99" t="s">
-        <v>2429</v>
-      </c>
-      <c r="B37" s="107">
-        <v>0.125</v>
-      </c>
-      <c r="D37" s="161"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="161"/>
-      <c r="G37" s="161"/>
-      <c r="H37" s="161"/>
-      <c r="I37" s="161"/>
-      <c r="J37" s="161"/>
-      <c r="K37" s="161"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="98" t="s">
-        <v>489</v>
-      </c>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="161"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="99"/>
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="99"/>
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="97"/>
-      <c r="B43" s="97" t="s">
-        <v>2735</v>
-      </c>
-      <c r="C43"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="98" t="s">
-        <v>2420</v>
-      </c>
-      <c r="B44" s="98" t="s">
-        <v>2421</v>
-      </c>
-      <c r="C44" s="98" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="99" t="s">
-        <v>2729</v>
-      </c>
-      <c r="B45" s="99">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="C45" s="99" t="s">
-        <v>2742</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="99" t="s">
-        <v>2730</v>
-      </c>
-      <c r="B46" s="99">
-        <v>0.88100000000000001</v>
-      </c>
-      <c r="C46" s="99" t="s">
-        <v>2743</v>
-      </c>
-      <c r="D46"/>
-      <c r="E46"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="99" t="s">
-        <v>2731</v>
-      </c>
-      <c r="B47" s="99">
-        <v>1.052</v>
-      </c>
-      <c r="C47" s="99" t="s">
-        <v>2744</v>
-      </c>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="99" t="s">
-        <v>2732</v>
-      </c>
-      <c r="B48" s="99">
-        <v>1.2030000000000001</v>
-      </c>
-      <c r="C48" s="99" t="s">
-        <v>2645</v>
-      </c>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="99" t="s">
-        <v>2690</v>
-      </c>
-      <c r="B49" s="161">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="C49" s="161" t="s">
-        <v>2745</v>
-      </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="99" t="s">
-        <v>2691</v>
-      </c>
-      <c r="B50" s="161"/>
-      <c r="C50" s="161"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="99" t="s">
-        <v>2690</v>
-      </c>
-      <c r="B51" s="161">
-        <v>1.1279999999999999</v>
-      </c>
-      <c r="C51" s="161" t="s">
-        <v>2746</v>
-      </c>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="99" t="s">
-        <v>2693</v>
-      </c>
-      <c r="B52" s="161"/>
-      <c r="C52" s="161"/>
-      <c r="D52" s="161"/>
-      <c r="E52" s="161"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="99" t="s">
-        <v>2695</v>
-      </c>
-      <c r="B53" s="99">
-        <v>1.0389999999999999</v>
-      </c>
-      <c r="C53" s="99" t="s">
-        <v>2747</v>
-      </c>
-      <c r="D53" s="161"/>
-      <c r="E53" s="161"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="99" t="s">
-        <v>2688</v>
-      </c>
-      <c r="B54" s="99">
-        <v>1.0229999999999999</v>
-      </c>
-      <c r="C54" s="99" t="s">
-        <v>2748</v>
-      </c>
-      <c r="D54" s="161"/>
-      <c r="E54" s="161"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="99" t="s">
-        <v>2697</v>
-      </c>
-      <c r="B55" s="99">
-        <v>1.1850000000000001</v>
-      </c>
-      <c r="C55" s="99" t="s">
-        <v>2749</v>
-      </c>
-      <c r="D55" s="161"/>
-      <c r="E55" s="161"/>
-    </row>
-    <row r="56" spans="1:5" ht="18">
-      <c r="A56" s="99" t="s">
-        <v>2699</v>
-      </c>
-      <c r="B56" s="99" t="s">
-        <v>2750</v>
-      </c>
-      <c r="C56" s="99" t="s">
-        <v>2751</v>
-      </c>
-      <c r="D56" s="99"/>
-      <c r="E56" s="99"/>
-    </row>
-    <row r="57" spans="1:5" ht="18">
-      <c r="A57" s="99" t="s">
-        <v>2721</v>
-      </c>
-      <c r="B57" s="99" t="s">
-        <v>2752</v>
-      </c>
-      <c r="C57" s="99" t="s">
-        <v>2753</v>
-      </c>
-      <c r="D57" s="99"/>
-      <c r="E57" s="99"/>
-    </row>
-    <row r="58" spans="1:5" ht="18">
-      <c r="A58" s="99" t="s">
-        <v>2724</v>
-      </c>
-      <c r="B58" s="99" t="s">
-        <v>2754</v>
-      </c>
-      <c r="C58" s="99" t="s">
-        <v>2755</v>
-      </c>
-      <c r="D58" s="99"/>
-      <c r="E58" s="99"/>
-    </row>
-    <row r="59" spans="1:5" ht="18">
-      <c r="A59" s="99" t="s">
-        <v>2727</v>
-      </c>
-      <c r="B59" s="99" t="s">
-        <v>2756</v>
-      </c>
-      <c r="C59" s="99" t="s">
-        <v>2757</v>
-      </c>
-      <c r="D59" s="99"/>
-      <c r="E59" s="99"/>
-    </row>
-    <row r="60" spans="1:5" ht="18">
-      <c r="A60" s="99" t="s">
-        <v>2733</v>
-      </c>
-      <c r="B60" s="99" t="s">
-        <v>2758</v>
-      </c>
-      <c r="C60" s="99" t="s">
-        <v>2759</v>
-      </c>
-      <c r="D60" s="99"/>
-      <c r="E60" s="99"/>
-    </row>
-    <row r="61" spans="1:5" ht="18">
-      <c r="A61" s="99" t="s">
-        <v>2734</v>
-      </c>
-      <c r="B61" s="99" t="s">
-        <v>2760</v>
-      </c>
-      <c r="C61" s="99" t="s">
-        <v>2761</v>
-      </c>
-      <c r="D61" s="99"/>
-      <c r="E61" s="99"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="99" t="s">
-        <v>2701</v>
-      </c>
-      <c r="B62" s="161">
-        <v>1.1850000000000001</v>
-      </c>
-      <c r="C62" s="161" t="s">
-        <v>2762</v>
-      </c>
-      <c r="D62" s="99"/>
-      <c r="E62" s="99"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="99" t="s">
-        <v>2702</v>
-      </c>
-      <c r="B63" s="161"/>
-      <c r="C63" s="161"/>
-      <c r="D63" s="99"/>
-      <c r="E63" s="99"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="99" t="s">
-        <v>2701</v>
-      </c>
-      <c r="B64" s="161" t="s">
-        <v>2763</v>
-      </c>
-      <c r="C64" s="161" t="s">
-        <v>2764</v>
-      </c>
-      <c r="D64" s="99"/>
-      <c r="E64" s="99"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="99" t="s">
-        <v>2704</v>
-      </c>
-      <c r="B65" s="161"/>
-      <c r="C65" s="161"/>
-      <c r="D65" s="161"/>
-      <c r="E65" s="161"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="99" t="s">
-        <v>2707</v>
-      </c>
-      <c r="B66" s="99">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="C66" s="99" t="s">
-        <v>2765</v>
-      </c>
-      <c r="D66" s="161"/>
-      <c r="E66" s="161"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="99" t="s">
-        <v>2709</v>
-      </c>
-      <c r="B67" s="161">
-        <v>1.484</v>
-      </c>
-      <c r="C67" s="161" t="s">
-        <v>2766</v>
-      </c>
-      <c r="D67" s="161"/>
-      <c r="E67" s="161"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="99" t="s">
-        <v>2710</v>
-      </c>
-      <c r="B68" s="161"/>
-      <c r="C68" s="161"/>
-      <c r="D68" s="161"/>
-      <c r="E68" s="161"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="99" t="s">
-        <v>2712</v>
-      </c>
-      <c r="B69" s="161" t="s">
-        <v>2767</v>
-      </c>
-      <c r="C69" s="161" t="s">
-        <v>2768</v>
-      </c>
-      <c r="D69" s="99"/>
-      <c r="E69" s="99"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="99" t="s">
-        <v>2713</v>
-      </c>
-      <c r="B70" s="161"/>
-      <c r="C70" s="161"/>
-      <c r="D70" s="161"/>
-      <c r="E70" s="161"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="99" t="s">
-        <v>2712</v>
-      </c>
-      <c r="B71" s="161" t="s">
-        <v>2769</v>
-      </c>
-      <c r="C71" s="161" t="s">
-        <v>2770</v>
-      </c>
-      <c r="D71" s="161"/>
-      <c r="E71" s="161"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="99" t="s">
-        <v>2716</v>
-      </c>
-      <c r="B72" s="161"/>
-      <c r="C72" s="161"/>
-      <c r="D72" s="161"/>
-      <c r="E72" s="161"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="99" t="s">
-        <v>2712</v>
-      </c>
-      <c r="B73" s="161">
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="C73" s="161" t="s">
-        <v>2771</v>
-      </c>
-      <c r="D73" s="161"/>
-      <c r="E73" s="161"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="99" t="s">
-        <v>2719</v>
-      </c>
-      <c r="B74" s="161"/>
-      <c r="C74" s="161"/>
-      <c r="D74" s="161"/>
-      <c r="E74" s="161"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="99" t="s">
-        <v>2428</v>
-      </c>
-      <c r="B75" s="99">
-        <v>3749</v>
-      </c>
-      <c r="C75"/>
-      <c r="D75" s="161"/>
-      <c r="E75" s="161"/>
-    </row>
-    <row r="76" spans="1:5" ht="18">
-      <c r="A76" s="99" t="s">
-        <v>2429</v>
-      </c>
-      <c r="B76" s="99">
-        <v>0.122</v>
-      </c>
-      <c r="C76"/>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="98" t="s">
-        <v>489</v>
-      </c>
-      <c r="B77"/>
-      <c r="C77"/>
-    </row>
-  </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="G30:G38"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="D30:D38"/>
-    <mergeCell ref="E30:E38"/>
-    <mergeCell ref="F30:F38"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="H30:H38"/>
-    <mergeCell ref="I30:I38"/>
-    <mergeCell ref="J30:J38"/>
-    <mergeCell ref="K30:K38"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Tables_Models_8.12.24.xlsx
+++ b/Documents/Tables_Models_8.12.24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carmenrodriguez/Desktop/Research Projects/BayesBinMix/ecbayesbinmix/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989300BA-C383-1140-92E2-498C1BCCFB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAE63F9-6B71-374F-95B2-96370935D6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="500" windowWidth="23240" windowHeight="17000" activeTab="6" xr2:uid="{3C93BFA3-DCF0-6A4C-BE1A-7CEC319431AB}"/>
+    <workbookView xWindow="-80" yWindow="500" windowWidth="31940" windowHeight="21100" firstSheet="3" activeTab="15" xr2:uid="{3C93BFA3-DCF0-6A4C-BE1A-7CEC319431AB}"/>
   </bookViews>
   <sheets>
     <sheet name="old version" sheetId="1" state="hidden" r:id="rId1"/>
@@ -27,9 +27,11 @@
     <sheet name="other_tables" sheetId="7" state="hidden" r:id="rId12"/>
     <sheet name="FrequentistModels (Old)" sheetId="13" r:id="rId13"/>
     <sheet name="BayesianModels_8.13.24" sheetId="21" r:id="rId14"/>
-    <sheet name="Sheet2" sheetId="15" state="hidden" r:id="rId15"/>
-    <sheet name="Other tables" sheetId="16" state="hidden" r:id="rId16"/>
-    <sheet name="presentation" sheetId="18" state="hidden" r:id="rId17"/>
+    <sheet name="ACS 2015-2019 Tab1" sheetId="23" r:id="rId15"/>
+    <sheet name="ACS2015-2019 (2)" sheetId="25" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="15" state="hidden" r:id="rId17"/>
+    <sheet name="Other tables" sheetId="16" state="hidden" r:id="rId18"/>
+    <sheet name="presentation" sheetId="18" state="hidden" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6153" uniqueCount="3662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7379" uniqueCount="3753">
   <si>
     <t>Not optimal</t>
   </si>
@@ -12908,6 +12910,398 @@
   <si>
     <t xml:space="preserve">194 (82.2) </t>
   </si>
+  <si>
+    <t>18 (1.2%)</t>
+  </si>
+  <si>
+    <t>39.19 (25.59)</t>
+  </si>
+  <si>
+    <t>33.85 [0,100]</t>
+  </si>
+  <si>
+    <t>730 (49.4%)</t>
+  </si>
+  <si>
+    <t>60.81 (25.59)</t>
+  </si>
+  <si>
+    <t>66.15 [0,100]</t>
+  </si>
+  <si>
+    <t>Frequency (%)</t>
+  </si>
+  <si>
+    <t>% Crowding in household</t>
+  </si>
+  <si>
+    <t>2.07 (2.57)</t>
+  </si>
+  <si>
+    <t>1.28 [0, 18.3]</t>
+  </si>
+  <si>
+    <t>0.36 (0.87)</t>
+  </si>
+  <si>
+    <t>422 (28.6%)</t>
+  </si>
+  <si>
+    <t>5.49 (5.34)</t>
+  </si>
+  <si>
+    <t>3.9 [0, 39.5]</t>
+  </si>
+  <si>
+    <t>734 (49.7%)</t>
+  </si>
+  <si>
+    <t>% Households without a motor vehicle</t>
+  </si>
+  <si>
+    <t>13.28 (14.30)</t>
+  </si>
+  <si>
+    <t>7.7 [0, 78.1]</t>
+  </si>
+  <si>
+    <t>732 (49.5%)</t>
+  </si>
+  <si>
+    <t>15 (1.0%)</t>
+  </si>
+  <si>
+    <t>4.80 (5.91)</t>
+  </si>
+  <si>
+    <t>2.5 [0,36.9]</t>
+  </si>
+  <si>
+    <t>736 (49.8%)</t>
+  </si>
+  <si>
+    <t>89.95 (9.43)</t>
+  </si>
+  <si>
+    <t>93.5[31.8,100]</t>
+  </si>
+  <si>
+    <t>42.92 (21.75)</t>
+  </si>
+  <si>
+    <t>40.5[0,95.6]</t>
+  </si>
+  <si>
+    <t>12.61 (13.20)</t>
+  </si>
+  <si>
+    <t>7.70 [0,100]</t>
+  </si>
+  <si>
+    <t>24 (1.6%)</t>
+  </si>
+  <si>
+    <t>86160.1 (38629.2)</t>
+  </si>
+  <si>
+    <t>82265 [2499,250001]</t>
+  </si>
+  <si>
+    <t>727 (49.2%)</t>
+  </si>
+  <si>
+    <t>16 (1.1%)</t>
+  </si>
+  <si>
+    <t>17.7 (14.2)</t>
+  </si>
+  <si>
+    <t>12.5 [0, 90.8]</t>
+  </si>
+  <si>
+    <t>731 (49.5%)</t>
+  </si>
+  <si>
+    <t>14 (0.9%)</t>
+  </si>
+  <si>
+    <t>3.34 (2.15)</t>
+  </si>
+  <si>
+    <t>2.90 [0, 24.7]</t>
+  </si>
+  <si>
+    <t>765 (51.8%)</t>
+  </si>
+  <si>
+    <t>% Employed population aged 16 years or older, working class</t>
+  </si>
+  <si>
+    <t>52.7 (16.7)</t>
+  </si>
+  <si>
+    <t>53.9 [0, 100]</t>
+  </si>
+  <si>
+    <t>12.7 (17.0)</t>
+  </si>
+  <si>
+    <t>5.95 [0, 100]</t>
+  </si>
+  <si>
+    <t>7.17 (12.2)</t>
+  </si>
+  <si>
+    <t>2.80 [0, 82.9]</t>
+  </si>
+  <si>
+    <t>743 (50.3%)</t>
+  </si>
+  <si>
+    <t>6.36 (8.04)</t>
+  </si>
+  <si>
+    <t>3.20 [0, 59.2]</t>
+  </si>
+  <si>
+    <t>744 (50.3%)</t>
+  </si>
+  <si>
+    <t>% Language other than English: Speak English less than "very well"</t>
+  </si>
+  <si>
+    <t>9.72 (10.5)</t>
+  </si>
+  <si>
+    <t>5.80 [0, 82.1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Occupied housing units without complete plumbing </t>
+  </si>
+  <si>
+    <t>% Female Single-parent households with children younger than 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%With Food Stamp/SNAP benefits in the past 12 months </t>
+  </si>
+  <si>
+    <t>Mean(SD)</t>
+  </si>
+  <si>
+    <t>Median [min,max]</t>
+  </si>
+  <si>
+    <t>Missing CTs</t>
+  </si>
+  <si>
+    <t>Median Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Population aged 25 years or older with less than 9 years of education </t>
+  </si>
+  <si>
+    <t>0 [0,12.8]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>of owner-occupied housing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>of renter-occupied housing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>High School degree or higher</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bachelor’s degree or higher</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Below 150% poverty level </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Unemployed/unemployment rate </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hispanics or Latinos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Non-Hispanic Black</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Non-Hispanic Asian</t>
+    </r>
+  </si>
+  <si>
+    <t>DP04</t>
+  </si>
+  <si>
+    <t>DP02</t>
+  </si>
+  <si>
+    <t>DP03</t>
+  </si>
+  <si>
+    <t>B19013</t>
+  </si>
+  <si>
+    <t>C17002</t>
+  </si>
+  <si>
+    <t>C24010</t>
+  </si>
+  <si>
+    <t>DP05</t>
+  </si>
+  <si>
+    <t>NSDoH Variable</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>NSDoH Profile Patterns</t>
+  </si>
+  <si>
+    <t>All High</t>
+  </si>
+  <si>
+    <t>Low-Mod</t>
+  </si>
+  <si>
+    <t>All Low</t>
+  </si>
+  <si>
+    <t>Split-Ed</t>
+  </si>
+  <si>
+    <t>Mod-Low</t>
+  </si>
+  <si>
+    <t>HM-MH</t>
+  </si>
+  <si>
+    <t>LH-HL</t>
+  </si>
+  <si>
+    <t>All Mod</t>
+  </si>
 </sst>
 </file>
 
@@ -12917,7 +13311,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="47">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -13209,8 +13603,30 @@
       <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13274,6 +13690,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA6A6A6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -13465,7 +13887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -13887,6 +14309,12 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -13913,13 +14341,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -13945,10 +14373,16 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13957,17 +14391,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -13975,8 +14400,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -13996,14 +14427,48 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14327,16 +14792,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="159"/>
+    <col min="1" max="1" width="10.83203125" style="161"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="159"/>
+    <col min="6" max="6" width="10.83203125" style="161"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="17" thickTop="1">
-      <c r="B1" s="157"/>
+      <c r="B1" s="159"/>
       <c r="C1" s="1" t="s">
         <v>240</v>
       </c>
@@ -14348,7 +14813,7 @@
       </c>
     </row>
     <row r="2" spans="2:5" ht="17" thickBot="1">
-      <c r="B2" s="158"/>
+      <c r="B2" s="160"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -16227,14 +16692,14 @@
       <c r="C13" s="107" t="s">
         <v>2694</v>
       </c>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="170"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="172"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="99" t="s">
@@ -16246,14 +16711,14 @@
       <c r="C14" s="107" t="s">
         <v>2696</v>
       </c>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="172"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="99" t="s">
@@ -16341,14 +16806,14 @@
       <c r="C19" s="107" t="s">
         <v>2726</v>
       </c>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="170"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="172"/>
     </row>
     <row r="20" spans="1:11" ht="18">
       <c r="A20" s="99" t="s">
@@ -16360,14 +16825,14 @@
       <c r="C20" s="107" t="s">
         <v>2728</v>
       </c>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="170"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="172"/>
     </row>
     <row r="21" spans="1:11" ht="18">
       <c r="A21" s="99" t="s">
@@ -16379,14 +16844,14 @@
       <c r="C21" s="107" t="s">
         <v>2737</v>
       </c>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="170"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="172"/>
+      <c r="K21" s="172"/>
     </row>
     <row r="22" spans="1:11" ht="18">
       <c r="A22" s="99" t="s">
@@ -16398,23 +16863,23 @@
       <c r="C22" s="107" t="s">
         <v>2739</v>
       </c>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="170"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="172"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="172"/>
+      <c r="K22" s="172"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="99" t="s">
         <v>2701</v>
       </c>
-      <c r="B23" s="171">
+      <c r="B23" s="173">
         <v>1.21</v>
       </c>
-      <c r="C23" s="171" t="s">
+      <c r="C23" s="173" t="s">
         <v>2703</v>
       </c>
       <c r="D23" s="99"/>
@@ -16430,50 +16895,50 @@
       <c r="A24" s="99" t="s">
         <v>2702</v>
       </c>
-      <c r="B24" s="171"/>
-      <c r="C24" s="171"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="170"/>
-      <c r="K24" s="170"/>
+      <c r="B24" s="173"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="172"/>
+      <c r="K24" s="172"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="99" t="s">
         <v>2701</v>
       </c>
-      <c r="B25" s="171" t="s">
+      <c r="B25" s="173" t="s">
         <v>2705</v>
       </c>
-      <c r="C25" s="171" t="s">
+      <c r="C25" s="173" t="s">
         <v>2706</v>
       </c>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="170"/>
+      <c r="D25" s="172"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="172"/>
+      <c r="K25" s="172"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="99" t="s">
         <v>2704</v>
       </c>
-      <c r="B26" s="171"/>
-      <c r="C26" s="171"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="170"/>
+      <c r="B26" s="173"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="172"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="172"/>
+      <c r="K26" s="172"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="99" t="s">
@@ -16485,150 +16950,150 @@
       <c r="C27" s="107" t="s">
         <v>2708</v>
       </c>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="170"/>
+      <c r="D27" s="172"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="172"/>
+      <c r="K27" s="172"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="99" t="s">
         <v>2709</v>
       </c>
-      <c r="B28" s="171">
+      <c r="B28" s="173">
         <v>1.4930000000000001</v>
       </c>
-      <c r="C28" s="171" t="s">
+      <c r="C28" s="173" t="s">
         <v>2711</v>
       </c>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="170"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="172"/>
+      <c r="K28" s="172"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="99" t="s">
         <v>2710</v>
       </c>
-      <c r="B29" s="171"/>
-      <c r="C29" s="171"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="170"/>
+      <c r="B29" s="173"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="172"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="172"/>
+      <c r="K29" s="172"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="99" t="s">
         <v>2712</v>
       </c>
-      <c r="B30" s="171" t="s">
+      <c r="B30" s="173" t="s">
         <v>2714</v>
       </c>
-      <c r="C30" s="171" t="s">
+      <c r="C30" s="173" t="s">
         <v>2715</v>
       </c>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="170"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="172"/>
+      <c r="K30" s="172"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="99" t="s">
         <v>2713</v>
       </c>
-      <c r="B31" s="171"/>
-      <c r="C31" s="171"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="170"/>
-      <c r="K31" s="170"/>
+      <c r="B31" s="173"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="172"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="172"/>
+      <c r="K31" s="172"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="99" t="s">
         <v>2712</v>
       </c>
-      <c r="B32" s="171">
+      <c r="B32" s="173">
         <v>1.9430000000000001</v>
       </c>
-      <c r="C32" s="171" t="s">
+      <c r="C32" s="173" t="s">
         <v>2718</v>
       </c>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="170"/>
-      <c r="K32" s="170"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="172"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="172"/>
+      <c r="K32" s="172"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="99" t="s">
         <v>2716</v>
       </c>
-      <c r="B33" s="171"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="170"/>
+      <c r="B33" s="173"/>
+      <c r="C33" s="173"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="172"/>
+      <c r="K33" s="172"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="99" t="s">
         <v>2712</v>
       </c>
-      <c r="B34" s="171">
+      <c r="B34" s="173">
         <v>1.089</v>
       </c>
-      <c r="C34" s="171" t="s">
+      <c r="C34" s="173" t="s">
         <v>2720</v>
       </c>
-      <c r="D34" s="170"/>
-      <c r="E34" s="170"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="170"/>
-      <c r="K34" s="170"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="172"/>
+      <c r="K34" s="172"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="99" t="s">
         <v>2719</v>
       </c>
-      <c r="B35" s="171"/>
-      <c r="C35" s="171"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="170"/>
-      <c r="H35" s="170"/>
-      <c r="I35" s="170"/>
-      <c r="J35" s="170"/>
-      <c r="K35" s="170"/>
+      <c r="B35" s="173"/>
+      <c r="C35" s="173"/>
+      <c r="D35" s="172"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="172"/>
+      <c r="K35" s="172"/>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="99" t="s">
@@ -16637,14 +17102,14 @@
       <c r="B36" s="107">
         <v>3749</v>
       </c>
-      <c r="D36" s="170"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="170"/>
-      <c r="G36" s="170"/>
-      <c r="H36" s="170"/>
-      <c r="I36" s="170"/>
-      <c r="J36" s="170"/>
-      <c r="K36" s="170"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="172"/>
+      <c r="I36" s="172"/>
+      <c r="J36" s="172"/>
+      <c r="K36" s="172"/>
     </row>
     <row r="37" spans="1:11" ht="18">
       <c r="A37" s="99" t="s">
@@ -16653,27 +17118,27 @@
       <c r="B37" s="107">
         <v>0.125</v>
       </c>
-      <c r="D37" s="170"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="170"/>
-      <c r="K37" s="170"/>
+      <c r="D37" s="172"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="172"/>
+      <c r="I37" s="172"/>
+      <c r="J37" s="172"/>
+      <c r="K37" s="172"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="98" t="s">
         <v>489</v>
       </c>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170"/>
-      <c r="F38" s="170"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170"/>
-      <c r="I38" s="170"/>
-      <c r="J38" s="170"/>
-      <c r="K38" s="170"/>
+      <c r="D38" s="172"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="172"/>
+      <c r="G38" s="172"/>
+      <c r="H38" s="172"/>
+      <c r="I38" s="172"/>
+      <c r="J38" s="172"/>
+      <c r="K38" s="172"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="99"/>
@@ -16783,10 +17248,10 @@
       <c r="A49" s="99" t="s">
         <v>2690</v>
       </c>
-      <c r="B49" s="170">
+      <c r="B49" s="172">
         <v>0.61599999999999999</v>
       </c>
-      <c r="C49" s="170" t="s">
+      <c r="C49" s="172" t="s">
         <v>2745</v>
       </c>
       <c r="D49" s="99"/>
@@ -16796,8 +17261,8 @@
       <c r="A50" s="99" t="s">
         <v>2691</v>
       </c>
-      <c r="B50" s="170"/>
-      <c r="C50" s="170"/>
+      <c r="B50" s="172"/>
+      <c r="C50" s="172"/>
       <c r="D50" s="99"/>
       <c r="E50" s="99"/>
     </row>
@@ -16805,10 +17270,10 @@
       <c r="A51" s="99" t="s">
         <v>2690</v>
       </c>
-      <c r="B51" s="170">
+      <c r="B51" s="172">
         <v>1.1279999999999999</v>
       </c>
-      <c r="C51" s="170" t="s">
+      <c r="C51" s="172" t="s">
         <v>2746</v>
       </c>
       <c r="D51" s="99"/>
@@ -16818,10 +17283,10 @@
       <c r="A52" s="99" t="s">
         <v>2693</v>
       </c>
-      <c r="B52" s="170"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="170"/>
+      <c r="B52" s="172"/>
+      <c r="C52" s="172"/>
+      <c r="D52" s="172"/>
+      <c r="E52" s="172"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="99" t="s">
@@ -16833,8 +17298,8 @@
       <c r="C53" s="99" t="s">
         <v>2747</v>
       </c>
-      <c r="D53" s="170"/>
-      <c r="E53" s="170"/>
+      <c r="D53" s="172"/>
+      <c r="E53" s="172"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="99" t="s">
@@ -16846,8 +17311,8 @@
       <c r="C54" s="99" t="s">
         <v>2748</v>
       </c>
-      <c r="D54" s="170"/>
-      <c r="E54" s="170"/>
+      <c r="D54" s="172"/>
+      <c r="E54" s="172"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="99" t="s">
@@ -16859,8 +17324,8 @@
       <c r="C55" s="99" t="s">
         <v>2749</v>
       </c>
-      <c r="D55" s="170"/>
-      <c r="E55" s="170"/>
+      <c r="D55" s="172"/>
+      <c r="E55" s="172"/>
     </row>
     <row r="56" spans="1:5" ht="18">
       <c r="A56" s="99" t="s">
@@ -16944,10 +17409,10 @@
       <c r="A62" s="99" t="s">
         <v>2701</v>
       </c>
-      <c r="B62" s="170">
+      <c r="B62" s="172">
         <v>1.1850000000000001</v>
       </c>
-      <c r="C62" s="170" t="s">
+      <c r="C62" s="172" t="s">
         <v>2762</v>
       </c>
       <c r="D62" s="99"/>
@@ -16957,8 +17422,8 @@
       <c r="A63" s="99" t="s">
         <v>2702</v>
       </c>
-      <c r="B63" s="170"/>
-      <c r="C63" s="170"/>
+      <c r="B63" s="172"/>
+      <c r="C63" s="172"/>
       <c r="D63" s="99"/>
       <c r="E63" s="99"/>
     </row>
@@ -16966,10 +17431,10 @@
       <c r="A64" s="99" t="s">
         <v>2701</v>
       </c>
-      <c r="B64" s="170" t="s">
+      <c r="B64" s="172" t="s">
         <v>2763</v>
       </c>
-      <c r="C64" s="170" t="s">
+      <c r="C64" s="172" t="s">
         <v>2764</v>
       </c>
       <c r="D64" s="99"/>
@@ -16979,10 +17444,10 @@
       <c r="A65" s="99" t="s">
         <v>2704</v>
       </c>
-      <c r="B65" s="170"/>
-      <c r="C65" s="170"/>
-      <c r="D65" s="170"/>
-      <c r="E65" s="170"/>
+      <c r="B65" s="172"/>
+      <c r="C65" s="172"/>
+      <c r="D65" s="172"/>
+      <c r="E65" s="172"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="99" t="s">
@@ -16994,39 +17459,39 @@
       <c r="C66" s="99" t="s">
         <v>2765</v>
       </c>
-      <c r="D66" s="170"/>
-      <c r="E66" s="170"/>
+      <c r="D66" s="172"/>
+      <c r="E66" s="172"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="99" t="s">
         <v>2709</v>
       </c>
-      <c r="B67" s="170">
+      <c r="B67" s="172">
         <v>1.484</v>
       </c>
-      <c r="C67" s="170" t="s">
+      <c r="C67" s="172" t="s">
         <v>2766</v>
       </c>
-      <c r="D67" s="170"/>
-      <c r="E67" s="170"/>
+      <c r="D67" s="172"/>
+      <c r="E67" s="172"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="99" t="s">
         <v>2710</v>
       </c>
-      <c r="B68" s="170"/>
-      <c r="C68" s="170"/>
-      <c r="D68" s="170"/>
-      <c r="E68" s="170"/>
+      <c r="B68" s="172"/>
+      <c r="C68" s="172"/>
+      <c r="D68" s="172"/>
+      <c r="E68" s="172"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="99" t="s">
         <v>2712</v>
       </c>
-      <c r="B69" s="170" t="s">
+      <c r="B69" s="172" t="s">
         <v>2767</v>
       </c>
-      <c r="C69" s="170" t="s">
+      <c r="C69" s="172" t="s">
         <v>2768</v>
       </c>
       <c r="D69" s="99"/>
@@ -17036,54 +17501,54 @@
       <c r="A70" s="99" t="s">
         <v>2713</v>
       </c>
-      <c r="B70" s="170"/>
-      <c r="C70" s="170"/>
-      <c r="D70" s="170"/>
-      <c r="E70" s="170"/>
+      <c r="B70" s="172"/>
+      <c r="C70" s="172"/>
+      <c r="D70" s="172"/>
+      <c r="E70" s="172"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="99" t="s">
         <v>2712</v>
       </c>
-      <c r="B71" s="170" t="s">
+      <c r="B71" s="172" t="s">
         <v>2769</v>
       </c>
-      <c r="C71" s="170" t="s">
+      <c r="C71" s="172" t="s">
         <v>2770</v>
       </c>
-      <c r="D71" s="170"/>
-      <c r="E71" s="170"/>
+      <c r="D71" s="172"/>
+      <c r="E71" s="172"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="99" t="s">
         <v>2716</v>
       </c>
-      <c r="B72" s="170"/>
-      <c r="C72" s="170"/>
-      <c r="D72" s="170"/>
-      <c r="E72" s="170"/>
+      <c r="B72" s="172"/>
+      <c r="C72" s="172"/>
+      <c r="D72" s="172"/>
+      <c r="E72" s="172"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="99" t="s">
         <v>2712</v>
       </c>
-      <c r="B73" s="170">
+      <c r="B73" s="172">
         <v>1.0760000000000001</v>
       </c>
-      <c r="C73" s="170" t="s">
+      <c r="C73" s="172" t="s">
         <v>2771</v>
       </c>
-      <c r="D73" s="170"/>
-      <c r="E73" s="170"/>
+      <c r="D73" s="172"/>
+      <c r="E73" s="172"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="99" t="s">
         <v>2719</v>
       </c>
-      <c r="B74" s="170"/>
-      <c r="C74" s="170"/>
-      <c r="D74" s="170"/>
-      <c r="E74" s="170"/>
+      <c r="B74" s="172"/>
+      <c r="C74" s="172"/>
+      <c r="D74" s="172"/>
+      <c r="E74" s="172"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="99" t="s">
@@ -17093,8 +17558,8 @@
         <v>3749</v>
       </c>
       <c r="C75"/>
-      <c r="D75" s="170"/>
-      <c r="E75" s="170"/>
+      <c r="D75" s="172"/>
+      <c r="E75" s="172"/>
     </row>
     <row r="76" spans="1:5" ht="18">
       <c r="A76" s="99" t="s">
@@ -17114,67 +17579,27 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="H30:H38"/>
-    <mergeCell ref="I30:I38"/>
-    <mergeCell ref="J30:J38"/>
-    <mergeCell ref="K30:K38"/>
-    <mergeCell ref="D30:D38"/>
-    <mergeCell ref="E30:E38"/>
-    <mergeCell ref="F30:F38"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B62:B63"/>
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="E54:E55"/>
     <mergeCell ref="G30:G38"/>
@@ -17191,27 +17616,67 @@
     <mergeCell ref="B73:B74"/>
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D30:D38"/>
+    <mergeCell ref="E30:E38"/>
+    <mergeCell ref="F30:F38"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="H30:H38"/>
+    <mergeCell ref="I30:I38"/>
+    <mergeCell ref="J30:J38"/>
+    <mergeCell ref="K30:K38"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18201,10 +18666,10 @@
       <c r="A1" s="31"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
-      <c r="D1" s="173" t="s">
+      <c r="D1" s="175" t="s">
         <v>804</v>
       </c>
-      <c r="E1" s="173"/>
+      <c r="E1" s="175"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="31"/>
@@ -18669,24 +19134,24 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="40"/>
-      <c r="B35" s="174" t="s">
+      <c r="B35" s="176" t="s">
         <v>855</v>
       </c>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
-      <c r="E35" s="174"/>
-      <c r="F35" s="175" t="s">
+      <c r="C35" s="176"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="176"/>
+      <c r="F35" s="177" t="s">
         <v>867</v>
       </c>
-      <c r="G35" s="175"/>
-      <c r="H35" s="175"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="175" t="s">
+      <c r="G35" s="177"/>
+      <c r="H35" s="177"/>
+      <c r="I35" s="177"/>
+      <c r="J35" s="177" t="s">
         <v>868</v>
       </c>
-      <c r="K35" s="175"/>
-      <c r="L35" s="175"/>
-      <c r="M35" s="175"/>
+      <c r="K35" s="177"/>
+      <c r="L35" s="177"/>
+      <c r="M35" s="177"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="41"/>
@@ -19089,12 +19554,12 @@
       <c r="M45" s="46"/>
     </row>
     <row r="48" spans="1:13" ht="32" customHeight="1">
-      <c r="A48" s="176" t="s">
+      <c r="A48" s="178" t="s">
         <v>874</v>
       </c>
-      <c r="B48" s="177"/>
-      <c r="C48" s="177"/>
-      <c r="D48" s="178"/>
+      <c r="B48" s="179"/>
+      <c r="C48" s="179"/>
+      <c r="D48" s="180"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="56" t="s">
@@ -19139,12 +19604,12 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="32" customHeight="1">
-      <c r="A54" s="172" t="s">
+      <c r="A54" s="174" t="s">
         <v>875</v>
       </c>
-      <c r="B54" s="172"/>
-      <c r="C54" s="172"/>
-      <c r="D54" s="172"/>
+      <c r="B54" s="174"/>
+      <c r="C54" s="174"/>
+      <c r="D54" s="174"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="56" t="s">
@@ -19319,7 +19784,7 @@
   <dimension ref="A2:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G44"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19354,31 +19819,31 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="104"/>
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="163" t="s">
         <v>2539</v>
       </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161" t="s">
+      <c r="C3" s="163"/>
+      <c r="D3" s="163" t="s">
         <v>2540</v>
       </c>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161" t="s">
+      <c r="E3" s="163"/>
+      <c r="F3" s="163" t="s">
         <v>2541</v>
       </c>
-      <c r="G3" s="161"/>
+      <c r="G3" s="163"/>
       <c r="L3" s="104"/>
-      <c r="M3" s="161" t="s">
+      <c r="M3" s="163" t="s">
         <v>2539</v>
       </c>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161" t="s">
+      <c r="N3" s="163"/>
+      <c r="O3" s="163" t="s">
         <v>2540</v>
       </c>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="161" t="s">
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163" t="s">
         <v>2541</v>
       </c>
-      <c r="R3" s="161"/>
+      <c r="R3" s="163"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="104"/>
@@ -19465,10 +19930,10 @@
       <c r="L6" s="117" t="s">
         <v>2589</v>
       </c>
-      <c r="M6" s="179" t="s">
+      <c r="M6" s="187" t="s">
         <v>2543</v>
       </c>
-      <c r="N6" s="179"/>
+      <c r="N6" s="187"/>
       <c r="O6" s="118"/>
       <c r="P6" s="118"/>
       <c r="Q6" s="118"/>
@@ -19575,8 +20040,8 @@
       </c>
       <c r="O9" s="118"/>
       <c r="P9" s="118"/>
-      <c r="Q9" s="181"/>
-      <c r="R9" s="182"/>
+      <c r="Q9" s="185"/>
+      <c r="R9" s="186"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="116" t="s">
@@ -19618,18 +20083,18 @@
       <c r="A11" s="116" t="s">
         <v>799</v>
       </c>
-      <c r="B11" s="185" t="s">
+      <c r="B11" s="181" t="s">
         <v>2543</v>
       </c>
-      <c r="C11" s="185"/>
-      <c r="D11" s="185" t="s">
+      <c r="C11" s="181"/>
+      <c r="D11" s="181" t="s">
         <v>2543</v>
       </c>
-      <c r="E11" s="185"/>
-      <c r="F11" s="185" t="s">
+      <c r="E11" s="181"/>
+      <c r="F11" s="181" t="s">
         <v>2543</v>
       </c>
-      <c r="G11" s="185"/>
+      <c r="G11" s="181"/>
       <c r="L11" s="100" t="s">
         <v>5</v>
       </c>
@@ -19656,19 +20121,19 @@
       <c r="E12" s="115" t="s">
         <v>2564</v>
       </c>
-      <c r="F12" s="185"/>
-      <c r="G12" s="185"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="181"/>
       <c r="L12" s="105" t="s">
         <v>340</v>
       </c>
-      <c r="M12" s="163" t="s">
+      <c r="M12" s="165" t="s">
         <v>2543</v>
       </c>
-      <c r="N12" s="163"/>
-      <c r="O12" s="163" t="s">
+      <c r="N12" s="165"/>
+      <c r="O12" s="165" t="s">
         <v>2543</v>
       </c>
-      <c r="P12" s="163"/>
+      <c r="P12" s="165"/>
       <c r="Q12" s="59"/>
       <c r="R12" s="59"/>
     </row>
@@ -19718,10 +20183,10 @@
       <c r="C14" s="99" t="s">
         <v>2687</v>
       </c>
-      <c r="D14" s="185"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="181"/>
+      <c r="F14" s="181"/>
+      <c r="G14" s="181"/>
       <c r="L14" s="105" t="s">
         <v>10</v>
       </c>
@@ -19764,14 +20229,14 @@
       <c r="A16" s="105" t="s">
         <v>340</v>
       </c>
-      <c r="B16" s="163" t="s">
+      <c r="B16" s="165" t="s">
         <v>2543</v>
       </c>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163" t="s">
+      <c r="C16" s="165"/>
+      <c r="D16" s="165" t="s">
         <v>2543</v>
       </c>
-      <c r="E16" s="163"/>
+      <c r="E16" s="165"/>
       <c r="F16" s="59"/>
       <c r="G16" s="59"/>
       <c r="L16" s="100" t="s">
@@ -19809,14 +20274,14 @@
       <c r="L17" s="105" t="s">
         <v>343</v>
       </c>
-      <c r="M17" s="163" t="s">
+      <c r="M17" s="165" t="s">
         <v>2543</v>
       </c>
-      <c r="N17" s="163"/>
-      <c r="O17" s="163" t="s">
+      <c r="N17" s="165"/>
+      <c r="O17" s="165" t="s">
         <v>2543</v>
       </c>
-      <c r="P17" s="163"/>
+      <c r="P17" s="165"/>
       <c r="Q17" s="59"/>
       <c r="R17" s="59"/>
     </row>
@@ -19916,14 +20381,14 @@
       <c r="A21" s="105" t="s">
         <v>343</v>
       </c>
-      <c r="B21" s="163" t="s">
+      <c r="B21" s="165" t="s">
         <v>2543</v>
       </c>
-      <c r="C21" s="163"/>
-      <c r="D21" s="163" t="s">
+      <c r="C21" s="165"/>
+      <c r="D21" s="165" t="s">
         <v>2543</v>
       </c>
-      <c r="E21" s="163"/>
+      <c r="E21" s="165"/>
       <c r="F21" s="59"/>
       <c r="G21" s="59"/>
       <c r="L21" s="100" t="s">
@@ -19961,14 +20426,14 @@
       <c r="L22" s="105" t="s">
         <v>354</v>
       </c>
-      <c r="M22" s="163" t="s">
+      <c r="M22" s="165" t="s">
         <v>2543</v>
       </c>
-      <c r="N22" s="163"/>
-      <c r="O22" s="163" t="s">
+      <c r="N22" s="165"/>
+      <c r="O22" s="165" t="s">
         <v>2543</v>
       </c>
-      <c r="P22" s="163"/>
+      <c r="P22" s="165"/>
       <c r="Q22" s="59"/>
       <c r="R22" s="59"/>
     </row>
@@ -20064,14 +20529,14 @@
       <c r="A26" s="105" t="s">
         <v>354</v>
       </c>
-      <c r="B26" s="163" t="s">
+      <c r="B26" s="165" t="s">
         <v>2543</v>
       </c>
-      <c r="C26" s="163"/>
-      <c r="D26" s="163" t="s">
+      <c r="C26" s="165"/>
+      <c r="D26" s="165" t="s">
         <v>2543</v>
       </c>
-      <c r="E26" s="163"/>
+      <c r="E26" s="165"/>
       <c r="F26" s="59"/>
       <c r="G26" s="59"/>
       <c r="L26" s="105" t="s">
@@ -20145,18 +20610,18 @@
       <c r="L28" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="M28" s="180" t="s">
+      <c r="M28" s="182" t="s">
         <v>2543</v>
       </c>
-      <c r="N28" s="180"/>
-      <c r="O28" s="180" t="s">
+      <c r="N28" s="182"/>
+      <c r="O28" s="182" t="s">
         <v>2543</v>
       </c>
-      <c r="P28" s="180"/>
-      <c r="Q28" s="180" t="s">
+      <c r="P28" s="182"/>
+      <c r="Q28" s="182" t="s">
         <v>2543</v>
       </c>
-      <c r="R28" s="180"/>
+      <c r="R28" s="182"/>
     </row>
     <row r="29" spans="1:18" ht="18">
       <c r="A29" s="105" t="s">
@@ -20254,33 +20719,33 @@
       <c r="A32" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="180" t="s">
+      <c r="B32" s="182" t="s">
         <v>2543</v>
       </c>
-      <c r="C32" s="180"/>
-      <c r="D32" s="180" t="s">
+      <c r="C32" s="182"/>
+      <c r="D32" s="182" t="s">
         <v>2543</v>
       </c>
-      <c r="E32" s="180"/>
-      <c r="F32" s="180" t="s">
+      <c r="E32" s="182"/>
+      <c r="F32" s="182" t="s">
         <v>2543</v>
       </c>
-      <c r="G32" s="180"/>
+      <c r="G32" s="182"/>
       <c r="L32" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="M32" s="180" t="s">
+      <c r="M32" s="182" t="s">
         <v>2543</v>
       </c>
-      <c r="N32" s="180"/>
-      <c r="O32" s="180" t="s">
+      <c r="N32" s="182"/>
+      <c r="O32" s="182" t="s">
         <v>2543</v>
       </c>
-      <c r="P32" s="180"/>
-      <c r="Q32" s="180" t="s">
+      <c r="P32" s="182"/>
+      <c r="Q32" s="182" t="s">
         <v>2543</v>
       </c>
-      <c r="R32" s="180"/>
+      <c r="R32" s="182"/>
     </row>
     <row r="33" spans="1:18" ht="18">
       <c r="A33" s="105" t="s">
@@ -20382,18 +20847,18 @@
       <c r="A36" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="180" t="s">
+      <c r="B36" s="182" t="s">
         <v>2543</v>
       </c>
-      <c r="C36" s="180"/>
-      <c r="D36" s="180" t="s">
+      <c r="C36" s="182"/>
+      <c r="D36" s="182" t="s">
         <v>2543</v>
       </c>
-      <c r="E36" s="180"/>
-      <c r="F36" s="180" t="s">
+      <c r="E36" s="182"/>
+      <c r="F36" s="182" t="s">
         <v>2543</v>
       </c>
-      <c r="G36" s="180"/>
+      <c r="G36" s="182"/>
       <c r="L36" s="100" t="s">
         <v>360</v>
       </c>
@@ -20429,14 +20894,14 @@
       <c r="L37" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="M37" s="163" t="s">
+      <c r="M37" s="165" t="s">
         <v>2543</v>
       </c>
-      <c r="N37" s="163"/>
-      <c r="O37" s="163" t="s">
+      <c r="N37" s="165"/>
+      <c r="O37" s="165" t="s">
         <v>2543</v>
       </c>
-      <c r="P37" s="163"/>
+      <c r="P37" s="165"/>
       <c r="Q37" s="59"/>
       <c r="R37" s="59"/>
     </row>
@@ -20540,14 +21005,14 @@
       <c r="A41" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="163" t="s">
+      <c r="B41" s="165" t="s">
         <v>2543</v>
       </c>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163" t="s">
+      <c r="C41" s="165"/>
+      <c r="D41" s="165" t="s">
         <v>2543</v>
       </c>
-      <c r="E41" s="163"/>
+      <c r="E41" s="165"/>
       <c r="F41" s="59"/>
       <c r="G41" s="59"/>
       <c r="L41" s="106" t="s">
@@ -20640,26 +21105,15 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
@@ -20673,15 +21127,26 @@
     <mergeCell ref="Q32:R32"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="O22:P22"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20693,7 +21158,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -20707,14 +21172,14 @@
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1">
       <c r="A1" s="148"/>
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="188" t="s">
         <v>3325</v>
       </c>
-      <c r="C1" s="187"/>
-      <c r="D1" s="188" t="s">
+      <c r="C1" s="188"/>
+      <c r="D1" s="189" t="s">
         <v>3306</v>
       </c>
-      <c r="E1" s="188"/>
+      <c r="E1" s="189"/>
     </row>
     <row r="2" spans="1:6" ht="34">
       <c r="A2" s="148"/>
@@ -20744,14 +21209,14 @@
       <c r="A4" s="148" t="s">
         <v>794</v>
       </c>
-      <c r="B4" s="186" t="s">
+      <c r="B4" s="190" t="s">
         <v>2543</v>
       </c>
-      <c r="C4" s="186"/>
-      <c r="D4" s="163" t="s">
+      <c r="C4" s="190"/>
+      <c r="D4" s="165" t="s">
         <v>2543</v>
       </c>
-      <c r="E4" s="163"/>
+      <c r="E4" s="165"/>
     </row>
     <row r="5" spans="1:6" ht="17">
       <c r="A5" s="148" t="s">
@@ -20886,14 +21351,14 @@
       <c r="A13" s="152" t="s">
         <v>343</v>
       </c>
-      <c r="B13" s="163" t="s">
+      <c r="B13" s="165" t="s">
         <v>2543</v>
       </c>
-      <c r="C13" s="163"/>
-      <c r="D13" s="186" t="s">
+      <c r="C13" s="165"/>
+      <c r="D13" s="190" t="s">
         <v>2543</v>
       </c>
-      <c r="E13" s="186"/>
+      <c r="E13" s="190"/>
     </row>
     <row r="14" spans="1:6" ht="17">
       <c r="A14" s="152" t="s">
@@ -20959,14 +21424,14 @@
       <c r="A18" s="152" t="s">
         <v>354</v>
       </c>
-      <c r="B18" s="163" t="s">
+      <c r="B18" s="165" t="s">
         <v>2543</v>
       </c>
-      <c r="C18" s="163"/>
-      <c r="D18" s="186" t="s">
+      <c r="C18" s="165"/>
+      <c r="D18" s="190" t="s">
         <v>2543</v>
       </c>
-      <c r="E18" s="186"/>
+      <c r="E18" s="190"/>
     </row>
     <row r="19" spans="1:5" ht="17">
       <c r="A19" s="152" t="s">
@@ -21049,14 +21514,14 @@
       <c r="A24" s="152" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="163" t="s">
+      <c r="B24" s="165" t="s">
         <v>2543</v>
       </c>
-      <c r="C24" s="163"/>
-      <c r="D24" s="186" t="s">
+      <c r="C24" s="165"/>
+      <c r="D24" s="190" t="s">
         <v>2543</v>
       </c>
-      <c r="E24" s="186"/>
+      <c r="E24" s="190"/>
     </row>
     <row r="25" spans="1:5" ht="17">
       <c r="A25" s="152" t="s">
@@ -21127,6 +21592,4632 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB9C164-4610-8B4A-8C50-5EDBBFA7A755}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="1" max="1" width="68.6640625" style="200" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="201"/>
+    <col min="3" max="3" width="18.1640625" style="201" customWidth="1"/>
+    <col min="4" max="4" width="22" style="201" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="201" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="201"/>
+    <col min="7" max="16384" width="10.83203125" style="200"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="83" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>3722</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>3720</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>3721</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>3668</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="199" t="s">
+        <v>3718</v>
+      </c>
+      <c r="B2" s="204" t="s">
+        <v>3662</v>
+      </c>
+      <c r="C2" s="205" t="s">
+        <v>3674</v>
+      </c>
+      <c r="D2" s="204" t="s">
+        <v>3675</v>
+      </c>
+      <c r="E2" s="205" t="s">
+        <v>3676</v>
+      </c>
+      <c r="F2" s="204" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="202" t="s">
+        <v>3726</v>
+      </c>
+      <c r="B3" s="205" t="s">
+        <v>3662</v>
+      </c>
+      <c r="C3" s="204" t="s">
+        <v>3666</v>
+      </c>
+      <c r="D3" s="205" t="s">
+        <v>3667</v>
+      </c>
+      <c r="E3" s="205" t="s">
+        <v>3665</v>
+      </c>
+      <c r="F3" s="203" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="202" t="s">
+        <v>3727</v>
+      </c>
+      <c r="B4" s="204" t="s">
+        <v>3662</v>
+      </c>
+      <c r="C4" s="205" t="s">
+        <v>3663</v>
+      </c>
+      <c r="D4" s="204" t="s">
+        <v>3664</v>
+      </c>
+      <c r="E4" s="205" t="s">
+        <v>3665</v>
+      </c>
+      <c r="F4" s="203" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="199" t="s">
+        <v>3677</v>
+      </c>
+      <c r="B5" s="205" t="s">
+        <v>3662</v>
+      </c>
+      <c r="C5" s="204" t="s">
+        <v>3678</v>
+      </c>
+      <c r="D5" s="205" t="s">
+        <v>3679</v>
+      </c>
+      <c r="E5" s="204" t="s">
+        <v>3680</v>
+      </c>
+      <c r="F5" s="203" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="206" t="s">
+        <v>3669</v>
+      </c>
+      <c r="B6" s="204" t="s">
+        <v>3662</v>
+      </c>
+      <c r="C6" s="205" t="s">
+        <v>3670</v>
+      </c>
+      <c r="D6" s="204" t="s">
+        <v>3671</v>
+      </c>
+      <c r="E6" s="205" t="s">
+        <v>3665</v>
+      </c>
+      <c r="F6" s="203" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="199" t="s">
+        <v>3717</v>
+      </c>
+      <c r="B7" s="205" t="s">
+        <v>3662</v>
+      </c>
+      <c r="C7" s="204" t="s">
+        <v>3672</v>
+      </c>
+      <c r="D7" s="205" t="s">
+        <v>3725</v>
+      </c>
+      <c r="E7" s="204" t="s">
+        <v>3673</v>
+      </c>
+      <c r="F7" s="203" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="199" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B8" s="204" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C8" s="205" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D8" s="204" t="s">
+        <v>3683</v>
+      </c>
+      <c r="E8" s="205" t="s">
+        <v>3684</v>
+      </c>
+      <c r="F8" s="204" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="202" t="s">
+        <v>3728</v>
+      </c>
+      <c r="B9" s="205" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C9" s="204" t="s">
+        <v>3685</v>
+      </c>
+      <c r="D9" s="205" t="s">
+        <v>3686</v>
+      </c>
+      <c r="E9" s="204" t="s">
+        <v>3680</v>
+      </c>
+      <c r="F9" s="204" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="202" t="s">
+        <v>3729</v>
+      </c>
+      <c r="B10" s="204" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C10" s="205" t="s">
+        <v>3687</v>
+      </c>
+      <c r="D10" s="204" t="s">
+        <v>3688</v>
+      </c>
+      <c r="E10" s="205" t="s">
+        <v>3680</v>
+      </c>
+      <c r="F10" s="204" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="199" t="s">
+        <v>3723</v>
+      </c>
+      <c r="B11" s="204" t="s">
+        <v>3691</v>
+      </c>
+      <c r="C11" s="205" t="s">
+        <v>3692</v>
+      </c>
+      <c r="D11" s="204" t="s">
+        <v>3693</v>
+      </c>
+      <c r="E11" s="205" t="s">
+        <v>3694</v>
+      </c>
+      <c r="F11" s="204" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="201" customFormat="1">
+      <c r="A12" s="207" t="s">
+        <v>3719</v>
+      </c>
+      <c r="B12" s="205" t="s">
+        <v>3662</v>
+      </c>
+      <c r="C12" s="204" t="s">
+        <v>3689</v>
+      </c>
+      <c r="D12" s="205" t="s">
+        <v>3690</v>
+      </c>
+      <c r="E12" s="204" t="s">
+        <v>3684</v>
+      </c>
+      <c r="F12" s="203" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="202" t="s">
+        <v>3730</v>
+      </c>
+      <c r="B13" s="205" t="s">
+        <v>3695</v>
+      </c>
+      <c r="C13" s="204" t="s">
+        <v>3696</v>
+      </c>
+      <c r="D13" s="205" t="s">
+        <v>3697</v>
+      </c>
+      <c r="E13" s="204" t="s">
+        <v>3698</v>
+      </c>
+      <c r="F13" s="203" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="199" t="s">
+        <v>3731</v>
+      </c>
+      <c r="B14" s="204" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C14" s="205" t="s">
+        <v>3700</v>
+      </c>
+      <c r="D14" s="204" t="s">
+        <v>3701</v>
+      </c>
+      <c r="E14" s="205" t="s">
+        <v>3702</v>
+      </c>
+      <c r="F14" s="203" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="199" t="s">
+        <v>3703</v>
+      </c>
+      <c r="B15" s="205" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C15" s="204" t="s">
+        <v>3704</v>
+      </c>
+      <c r="D15" s="205" t="s">
+        <v>3705</v>
+      </c>
+      <c r="E15" s="204" t="s">
+        <v>3680</v>
+      </c>
+      <c r="F15" s="203" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="199" t="s">
+        <v>3714</v>
+      </c>
+      <c r="B16" s="205" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C16" s="204" t="s">
+        <v>3715</v>
+      </c>
+      <c r="D16" s="205" t="s">
+        <v>3716</v>
+      </c>
+      <c r="E16" s="204" t="s">
+        <v>3684</v>
+      </c>
+      <c r="F16" s="203" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="202" t="s">
+        <v>3732</v>
+      </c>
+      <c r="B17" s="204" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C17" s="205" t="s">
+        <v>3706</v>
+      </c>
+      <c r="D17" s="204" t="s">
+        <v>3707</v>
+      </c>
+      <c r="E17" s="205" t="s">
+        <v>3680</v>
+      </c>
+      <c r="F17" s="203" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="202" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B18" s="205" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C18" s="204" t="s">
+        <v>3708</v>
+      </c>
+      <c r="D18" s="205" t="s">
+        <v>3709</v>
+      </c>
+      <c r="E18" s="205" t="s">
+        <v>3710</v>
+      </c>
+      <c r="F18" s="203" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="202" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B19" s="204" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C19" s="205" t="s">
+        <v>3711</v>
+      </c>
+      <c r="D19" s="204" t="s">
+        <v>3712</v>
+      </c>
+      <c r="E19" s="205" t="s">
+        <v>3713</v>
+      </c>
+      <c r="F19" s="203" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6C396E-FEF7-DC49-BD2A-3B714F2D4CC2}">
+  <dimension ref="A1:Z84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X37" sqref="X37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="36.1640625" customWidth="1"/>
+    <col min="2" max="10" width="10.83203125" style="76"/>
+    <col min="13" max="13" width="19.5" customWidth="1"/>
+    <col min="14" max="14" width="28" style="75" customWidth="1"/>
+    <col min="15" max="15" width="16.5" style="90" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="90"/>
+    <col min="17" max="17" width="13.5" style="90" customWidth="1"/>
+    <col min="18" max="20" width="10.83203125" style="90"/>
+    <col min="22" max="22" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="85"/>
+      <c r="B1" s="168" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="81"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="87" t="s">
+        <v>1044</v>
+      </c>
+      <c r="P1" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="87" t="s">
+        <v>359</v>
+      </c>
+      <c r="S1" s="208"/>
+      <c r="T1" s="208"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="87" t="s">
+        <v>1044</v>
+      </c>
+      <c r="X1" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="87" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="166" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>367</v>
+      </c>
+      <c r="F2" s="82" t="s">
+        <v>368</v>
+      </c>
+      <c r="G2" s="82" t="s">
+        <v>369</v>
+      </c>
+      <c r="H2" s="82" t="s">
+        <v>370</v>
+      </c>
+      <c r="I2" s="82" t="s">
+        <v>371</v>
+      </c>
+      <c r="J2" s="167" t="s">
+        <v>359</v>
+      </c>
+      <c r="N2" s="72"/>
+      <c r="O2" s="91" t="s">
+        <v>3301</v>
+      </c>
+      <c r="P2" s="59" t="s">
+        <v>3302</v>
+      </c>
+      <c r="Q2" s="91" t="s">
+        <v>3303</v>
+      </c>
+      <c r="R2" s="88"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="209"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="91" t="s">
+        <v>3301</v>
+      </c>
+      <c r="X2" s="59" t="s">
+        <v>3302</v>
+      </c>
+      <c r="Y2" s="91" t="s">
+        <v>3303</v>
+      </c>
+      <c r="Z2" s="88"/>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="166"/>
+      <c r="B3" s="83" t="s">
+        <v>3269</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>3270</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>3271</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>3272</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>3273</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>3274</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>3275</v>
+      </c>
+      <c r="I3" s="83" t="s">
+        <v>3276</v>
+      </c>
+      <c r="J3" s="167"/>
+      <c r="N3" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="89"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="59">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="S3" s="210"/>
+      <c r="T3" s="210"/>
+      <c r="V3" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="89"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="59">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="N4" s="72" t="s">
+        <v>340</v>
+      </c>
+      <c r="O4" s="59" t="s">
+        <v>2351</v>
+      </c>
+      <c r="P4" s="59" t="s">
+        <v>2352</v>
+      </c>
+      <c r="Q4" s="59" t="s">
+        <v>2353</v>
+      </c>
+      <c r="R4" s="88"/>
+      <c r="S4" s="209"/>
+      <c r="T4" s="209"/>
+      <c r="V4" s="72" t="s">
+        <v>340</v>
+      </c>
+      <c r="W4" s="59" t="s">
+        <v>2351</v>
+      </c>
+      <c r="X4" s="59" t="s">
+        <v>2352</v>
+      </c>
+      <c r="Y4" s="59" t="s">
+        <v>2353</v>
+      </c>
+      <c r="Z4" s="88"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="85" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>2958</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>2959</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>2960</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>2961</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>2962</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>2963</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>2964</v>
+      </c>
+      <c r="I5" s="59" t="s">
+        <v>2965</v>
+      </c>
+      <c r="J5" s="92"/>
+      <c r="N5" s="72" t="s">
+        <v>341</v>
+      </c>
+      <c r="O5" s="59" t="s">
+        <v>2304</v>
+      </c>
+      <c r="P5" s="59" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Q5" s="59" t="s">
+        <v>2355</v>
+      </c>
+      <c r="R5" s="88"/>
+      <c r="S5" s="209"/>
+      <c r="T5" s="209"/>
+      <c r="V5" s="72" t="s">
+        <v>341</v>
+      </c>
+      <c r="W5" s="59" t="s">
+        <v>2304</v>
+      </c>
+      <c r="X5" s="59" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Y5" s="59" t="s">
+        <v>2355</v>
+      </c>
+      <c r="Z5" s="88"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="85" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>2966</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>2362</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>2967</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>2968</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>2969</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>2969</v>
+      </c>
+      <c r="J6" s="92"/>
+      <c r="N6" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="59" t="s">
+        <v>2356</v>
+      </c>
+      <c r="P6" s="59" t="s">
+        <v>2357</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>2358</v>
+      </c>
+      <c r="R6" s="88"/>
+      <c r="S6" s="209"/>
+      <c r="T6" s="209"/>
+      <c r="V6" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" s="59" t="s">
+        <v>2356</v>
+      </c>
+      <c r="X6" s="59" t="s">
+        <v>2357</v>
+      </c>
+      <c r="Y6" s="59" t="s">
+        <v>2358</v>
+      </c>
+      <c r="Z6" s="88"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>2971</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>2364</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>2173</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>2972</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>2972</v>
+      </c>
+      <c r="J7" s="92"/>
+      <c r="N7" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="59" t="s">
+        <v>2359</v>
+      </c>
+      <c r="P7" s="59" t="s">
+        <v>2360</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>2361</v>
+      </c>
+      <c r="R7" s="88"/>
+      <c r="S7" s="209"/>
+      <c r="T7" s="209"/>
+      <c r="V7" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="W7" s="59" t="s">
+        <v>2359</v>
+      </c>
+      <c r="X7" s="59" t="s">
+        <v>2360</v>
+      </c>
+      <c r="Y7" s="59" t="s">
+        <v>2361</v>
+      </c>
+      <c r="Z7" s="88"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>2974</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>2975</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>1860</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>2365</v>
+      </c>
+      <c r="J8" s="92"/>
+      <c r="N8" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="59">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="S8" s="210"/>
+      <c r="T8" s="210"/>
+      <c r="V8" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="59">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="N9" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="59" t="s">
+        <v>2342</v>
+      </c>
+      <c r="P9" s="59" t="s">
+        <v>2343</v>
+      </c>
+      <c r="Q9" s="59" t="s">
+        <v>2344</v>
+      </c>
+      <c r="R9" s="88"/>
+      <c r="S9" s="209"/>
+      <c r="T9" s="209"/>
+      <c r="V9" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" s="59" t="s">
+        <v>2342</v>
+      </c>
+      <c r="X9" s="59" t="s">
+        <v>2343</v>
+      </c>
+      <c r="Y9" s="59" t="s">
+        <v>2344</v>
+      </c>
+      <c r="Z9" s="88"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>2978</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>2979</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>2980</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>2981</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>2982</v>
+      </c>
+      <c r="I10" s="59" t="s">
+        <v>2366</v>
+      </c>
+      <c r="J10" s="92"/>
+      <c r="N10" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="59" t="s">
+        <v>2345</v>
+      </c>
+      <c r="P10" s="59" t="s">
+        <v>2346</v>
+      </c>
+      <c r="Q10" s="59" t="s">
+        <v>2347</v>
+      </c>
+      <c r="R10" s="88"/>
+      <c r="S10" s="209"/>
+      <c r="T10" s="209"/>
+      <c r="V10" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="W10" s="59" t="s">
+        <v>2345</v>
+      </c>
+      <c r="X10" s="59" t="s">
+        <v>2346</v>
+      </c>
+      <c r="Y10" s="59" t="s">
+        <v>2347</v>
+      </c>
+      <c r="Z10" s="88"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>2984</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>2985</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>2986</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>2987</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>2988</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>2989</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>2990</v>
+      </c>
+      <c r="J11" s="92"/>
+      <c r="N11" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="59" t="s">
+        <v>2348</v>
+      </c>
+      <c r="P11" s="59" t="s">
+        <v>2349</v>
+      </c>
+      <c r="Q11" s="59" t="s">
+        <v>2350</v>
+      </c>
+      <c r="R11" s="88"/>
+      <c r="S11" s="209"/>
+      <c r="T11" s="209"/>
+      <c r="V11" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="W11" s="59" t="s">
+        <v>2348</v>
+      </c>
+      <c r="X11" s="59" t="s">
+        <v>2349</v>
+      </c>
+      <c r="Y11" s="59" t="s">
+        <v>2350</v>
+      </c>
+      <c r="Z11" s="88"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>2992</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>2367</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>2993</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>2994</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>2995</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>2022</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>2022</v>
+      </c>
+      <c r="J12" s="92"/>
+      <c r="N12" s="77" t="s">
+        <v>342</v>
+      </c>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88" t="s">
+        <v>373</v>
+      </c>
+      <c r="S12" s="209"/>
+      <c r="T12" s="209"/>
+      <c r="V12" s="77" t="s">
+        <v>342</v>
+      </c>
+      <c r="W12" s="88"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="84" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="59">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="N13" s="72" t="s">
+        <v>343</v>
+      </c>
+      <c r="O13" s="59" t="s">
+        <v>2333</v>
+      </c>
+      <c r="P13" s="59" t="s">
+        <v>2334</v>
+      </c>
+      <c r="Q13" s="59" t="s">
+        <v>2335</v>
+      </c>
+      <c r="R13" s="88"/>
+      <c r="S13" s="209"/>
+      <c r="T13" s="209"/>
+      <c r="V13" s="72" t="s">
+        <v>343</v>
+      </c>
+      <c r="W13" s="59" t="s">
+        <v>2333</v>
+      </c>
+      <c r="X13" s="59" t="s">
+        <v>2334</v>
+      </c>
+      <c r="Y13" s="59" t="s">
+        <v>2335</v>
+      </c>
+      <c r="Z13" s="88"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="85" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>2997</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>1933</v>
+      </c>
+      <c r="G14" s="59" t="s">
+        <v>2999</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>3000</v>
+      </c>
+      <c r="I14" s="59" t="s">
+        <v>3001</v>
+      </c>
+      <c r="J14" s="92"/>
+      <c r="N14" s="72" t="s">
+        <v>344</v>
+      </c>
+      <c r="O14" s="59" t="s">
+        <v>2336</v>
+      </c>
+      <c r="P14" s="59" t="s">
+        <v>2337</v>
+      </c>
+      <c r="Q14" s="59" t="s">
+        <v>2338</v>
+      </c>
+      <c r="R14" s="88"/>
+      <c r="S14" s="209"/>
+      <c r="T14" s="209"/>
+      <c r="V14" s="72" t="s">
+        <v>344</v>
+      </c>
+      <c r="W14" s="59" t="s">
+        <v>2336</v>
+      </c>
+      <c r="X14" s="59" t="s">
+        <v>2337</v>
+      </c>
+      <c r="Y14" s="59" t="s">
+        <v>2338</v>
+      </c>
+      <c r="Z14" s="88"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="85" t="s">
+        <v>344</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>2368</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>3003</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>3004</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G15" s="59" t="s">
+        <v>3006</v>
+      </c>
+      <c r="H15" s="59" t="s">
+        <v>3007</v>
+      </c>
+      <c r="I15" s="59" t="s">
+        <v>3008</v>
+      </c>
+      <c r="J15" s="92"/>
+      <c r="N15" s="72" t="s">
+        <v>345</v>
+      </c>
+      <c r="O15" s="59" t="s">
+        <v>2339</v>
+      </c>
+      <c r="P15" s="59" t="s">
+        <v>2340</v>
+      </c>
+      <c r="Q15" s="59" t="s">
+        <v>2341</v>
+      </c>
+      <c r="R15" s="88"/>
+      <c r="S15" s="209"/>
+      <c r="T15" s="209"/>
+      <c r="V15" s="72" t="s">
+        <v>345</v>
+      </c>
+      <c r="W15" s="59" t="s">
+        <v>2339</v>
+      </c>
+      <c r="X15" s="59" t="s">
+        <v>2340</v>
+      </c>
+      <c r="Y15" s="59" t="s">
+        <v>2341</v>
+      </c>
+      <c r="Z15" s="88"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="85" t="s">
+        <v>345</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>3009</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>3010</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>3011</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>3012</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>3013</v>
+      </c>
+      <c r="G16" s="59" t="s">
+        <v>3014</v>
+      </c>
+      <c r="H16" s="59" t="s">
+        <v>3015</v>
+      </c>
+      <c r="I16" s="59" t="s">
+        <v>3016</v>
+      </c>
+      <c r="J16" s="92"/>
+      <c r="N16" s="77" t="s">
+        <v>353</v>
+      </c>
+      <c r="O16" s="88"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="88" t="s">
+        <v>373</v>
+      </c>
+      <c r="S16" s="209"/>
+      <c r="T16" s="209"/>
+      <c r="V16" s="77" t="s">
+        <v>353</v>
+      </c>
+      <c r="W16" s="88"/>
+      <c r="X16" s="88"/>
+      <c r="Y16" s="88"/>
+      <c r="Z16" s="88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="84" t="s">
+        <v>353</v>
+      </c>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="N17" s="72" t="s">
+        <v>354</v>
+      </c>
+      <c r="O17" s="59" t="s">
+        <v>2318</v>
+      </c>
+      <c r="P17" s="59" t="s">
+        <v>2319</v>
+      </c>
+      <c r="Q17" s="59" t="s">
+        <v>2320</v>
+      </c>
+      <c r="R17" s="88"/>
+      <c r="S17" s="209"/>
+      <c r="T17" s="209"/>
+      <c r="V17" s="72" t="s">
+        <v>354</v>
+      </c>
+      <c r="W17" s="59" t="s">
+        <v>2318</v>
+      </c>
+      <c r="X17" s="59" t="s">
+        <v>2319</v>
+      </c>
+      <c r="Y17" s="59" t="s">
+        <v>2320</v>
+      </c>
+      <c r="Z17" s="88"/>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="85" t="s">
+        <v>354</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>3019</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>3020</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>3021</v>
+      </c>
+      <c r="G18" s="59" t="s">
+        <v>3022</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>3023</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>3024</v>
+      </c>
+      <c r="J18" s="92"/>
+      <c r="N18" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="59" t="s">
+        <v>2321</v>
+      </c>
+      <c r="P18" s="59" t="s">
+        <v>2322</v>
+      </c>
+      <c r="Q18" s="59" t="s">
+        <v>2323</v>
+      </c>
+      <c r="R18" s="88"/>
+      <c r="S18" s="209"/>
+      <c r="T18" s="209"/>
+      <c r="V18" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="W18" s="59" t="s">
+        <v>2321</v>
+      </c>
+      <c r="X18" s="59" t="s">
+        <v>2322</v>
+      </c>
+      <c r="Y18" s="59" t="s">
+        <v>2323</v>
+      </c>
+      <c r="Z18" s="88"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>3025</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>3027</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>3028</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>3029</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>3030</v>
+      </c>
+      <c r="H19" s="59" t="s">
+        <v>3031</v>
+      </c>
+      <c r="I19" s="59" t="s">
+        <v>3032</v>
+      </c>
+      <c r="J19" s="92"/>
+      <c r="N19" s="72" t="s">
+        <v>355</v>
+      </c>
+      <c r="O19" s="59" t="s">
+        <v>2324</v>
+      </c>
+      <c r="P19" s="59" t="s">
+        <v>2325</v>
+      </c>
+      <c r="Q19" s="59" t="s">
+        <v>2326</v>
+      </c>
+      <c r="R19" s="88"/>
+      <c r="S19" s="209"/>
+      <c r="T19" s="209"/>
+      <c r="V19" s="72" t="s">
+        <v>355</v>
+      </c>
+      <c r="W19" s="59" t="s">
+        <v>2324</v>
+      </c>
+      <c r="X19" s="59" t="s">
+        <v>2325</v>
+      </c>
+      <c r="Y19" s="59" t="s">
+        <v>2326</v>
+      </c>
+      <c r="Z19" s="88"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="85" t="s">
+        <v>355</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>3033</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>3035</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>3036</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>2369</v>
+      </c>
+      <c r="G20" s="59" t="s">
+        <v>2369</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>3037</v>
+      </c>
+      <c r="I20" s="59" t="s">
+        <v>3038</v>
+      </c>
+      <c r="J20" s="92"/>
+      <c r="N20" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="59" t="s">
+        <v>2327</v>
+      </c>
+      <c r="P20" s="59" t="s">
+        <v>2328</v>
+      </c>
+      <c r="Q20" s="59" t="s">
+        <v>2329</v>
+      </c>
+      <c r="R20" s="88"/>
+      <c r="S20" s="209"/>
+      <c r="T20" s="209"/>
+      <c r="V20" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="W20" s="59" t="s">
+        <v>2327</v>
+      </c>
+      <c r="X20" s="59" t="s">
+        <v>2328</v>
+      </c>
+      <c r="Y20" s="59" t="s">
+        <v>2329</v>
+      </c>
+      <c r="Z20" s="88"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>3040</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>3041</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>3042</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>3043</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>2371</v>
+      </c>
+      <c r="H21" s="59" t="s">
+        <v>3044</v>
+      </c>
+      <c r="I21" s="59" t="s">
+        <v>2370</v>
+      </c>
+      <c r="J21" s="92"/>
+      <c r="N21" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="59" t="s">
+        <v>2330</v>
+      </c>
+      <c r="P21" s="59" t="s">
+        <v>2331</v>
+      </c>
+      <c r="Q21" s="59" t="s">
+        <v>2332</v>
+      </c>
+      <c r="R21" s="88"/>
+      <c r="S21" s="209"/>
+      <c r="T21" s="209"/>
+      <c r="V21" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="W21" s="59" t="s">
+        <v>2330</v>
+      </c>
+      <c r="X21" s="59" t="s">
+        <v>2331</v>
+      </c>
+      <c r="Y21" s="59" t="s">
+        <v>2332</v>
+      </c>
+      <c r="Z21" s="88"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>3045</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>3046</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>2373</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>2372</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>3047</v>
+      </c>
+      <c r="G22" s="59" t="s">
+        <v>3047</v>
+      </c>
+      <c r="H22" s="59" t="s">
+        <v>2372</v>
+      </c>
+      <c r="I22" s="59" t="s">
+        <v>2372</v>
+      </c>
+      <c r="J22" s="92"/>
+      <c r="N22" s="77" t="s">
+        <v>346</v>
+      </c>
+      <c r="O22" s="88"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88" t="s">
+        <v>373</v>
+      </c>
+      <c r="S22" s="209"/>
+      <c r="T22" s="209"/>
+      <c r="V22" s="77" t="s">
+        <v>346</v>
+      </c>
+      <c r="W22" s="88"/>
+      <c r="X22" s="88"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="84" t="s">
+        <v>346</v>
+      </c>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="59">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="N23" s="72" t="s">
+        <v>347</v>
+      </c>
+      <c r="O23" s="59" t="s">
+        <v>2304</v>
+      </c>
+      <c r="P23" s="59" t="s">
+        <v>2305</v>
+      </c>
+      <c r="Q23" s="59" t="s">
+        <v>938</v>
+      </c>
+      <c r="R23" s="88"/>
+      <c r="S23" s="209"/>
+      <c r="T23" s="209"/>
+      <c r="V23" s="72" t="s">
+        <v>347</v>
+      </c>
+      <c r="W23" s="59" t="s">
+        <v>2304</v>
+      </c>
+      <c r="X23" s="59" t="s">
+        <v>2305</v>
+      </c>
+      <c r="Y23" s="59" t="s">
+        <v>938</v>
+      </c>
+      <c r="Z23" s="88"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="85" t="s">
+        <v>347</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>3049</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>3049</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>2363</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>2363</v>
+      </c>
+      <c r="H24" s="59" t="s">
+        <v>3051</v>
+      </c>
+      <c r="I24" s="59" t="s">
+        <v>3052</v>
+      </c>
+      <c r="J24" s="92"/>
+      <c r="N24" s="72" t="s">
+        <v>348</v>
+      </c>
+      <c r="O24" s="59" t="s">
+        <v>2306</v>
+      </c>
+      <c r="P24" s="59" t="s">
+        <v>2307</v>
+      </c>
+      <c r="Q24" s="59" t="s">
+        <v>2308</v>
+      </c>
+      <c r="R24" s="88"/>
+      <c r="S24" s="209"/>
+      <c r="T24" s="209"/>
+      <c r="V24" s="72" t="s">
+        <v>348</v>
+      </c>
+      <c r="W24" s="59" t="s">
+        <v>2306</v>
+      </c>
+      <c r="X24" s="59" t="s">
+        <v>2307</v>
+      </c>
+      <c r="Y24" s="59" t="s">
+        <v>2308</v>
+      </c>
+      <c r="Z24" s="88"/>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="85" t="s">
+        <v>348</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>3056</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>3057</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>3058</v>
+      </c>
+      <c r="H25" s="59" t="s">
+        <v>3059</v>
+      </c>
+      <c r="I25" s="59" t="s">
+        <v>3060</v>
+      </c>
+      <c r="J25" s="92"/>
+      <c r="N25" s="72" t="s">
+        <v>349</v>
+      </c>
+      <c r="O25" s="59" t="s">
+        <v>2309</v>
+      </c>
+      <c r="P25" s="59" t="s">
+        <v>2310</v>
+      </c>
+      <c r="Q25" s="59" t="s">
+        <v>2311</v>
+      </c>
+      <c r="R25" s="88"/>
+      <c r="S25" s="209"/>
+      <c r="T25" s="209"/>
+      <c r="V25" s="72" t="s">
+        <v>349</v>
+      </c>
+      <c r="W25" s="59" t="s">
+        <v>2309</v>
+      </c>
+      <c r="X25" s="59" t="s">
+        <v>2310</v>
+      </c>
+      <c r="Y25" s="59" t="s">
+        <v>2311</v>
+      </c>
+      <c r="Z25" s="88"/>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="85" t="s">
+        <v>349</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>3063</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>3064</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>3065</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>3066</v>
+      </c>
+      <c r="H26" s="59" t="s">
+        <v>3067</v>
+      </c>
+      <c r="I26" s="59" t="s">
+        <v>3066</v>
+      </c>
+      <c r="J26" s="92"/>
+      <c r="N26" s="72" t="s">
+        <v>350</v>
+      </c>
+      <c r="O26" s="59" t="s">
+        <v>2312</v>
+      </c>
+      <c r="P26" s="59" t="s">
+        <v>2313</v>
+      </c>
+      <c r="Q26" s="59" t="s">
+        <v>2314</v>
+      </c>
+      <c r="R26" s="88"/>
+      <c r="S26" s="209"/>
+      <c r="T26" s="209"/>
+      <c r="V26" s="72" t="s">
+        <v>350</v>
+      </c>
+      <c r="W26" s="59" t="s">
+        <v>2312</v>
+      </c>
+      <c r="X26" s="59" t="s">
+        <v>2313</v>
+      </c>
+      <c r="Y26" s="59" t="s">
+        <v>2314</v>
+      </c>
+      <c r="Z26" s="88"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="85" t="s">
+        <v>350</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>3068</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>3069</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>3070</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>3042</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>3042</v>
+      </c>
+      <c r="G27" s="59" t="s">
+        <v>2371</v>
+      </c>
+      <c r="H27" s="59" t="s">
+        <v>3071</v>
+      </c>
+      <c r="I27" s="59" t="s">
+        <v>2374</v>
+      </c>
+      <c r="J27" s="92"/>
+      <c r="N27" s="72" t="s">
+        <v>351</v>
+      </c>
+      <c r="O27" s="59" t="s">
+        <v>2315</v>
+      </c>
+      <c r="P27" s="59" t="s">
+        <v>2316</v>
+      </c>
+      <c r="Q27" s="59" t="s">
+        <v>2317</v>
+      </c>
+      <c r="R27" s="88"/>
+      <c r="S27" s="209"/>
+      <c r="T27" s="209"/>
+      <c r="V27" s="72" t="s">
+        <v>351</v>
+      </c>
+      <c r="W27" s="59" t="s">
+        <v>2315</v>
+      </c>
+      <c r="X27" s="59" t="s">
+        <v>2316</v>
+      </c>
+      <c r="Y27" s="59" t="s">
+        <v>2317</v>
+      </c>
+      <c r="Z27" s="88"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="85" t="s">
+        <v>351</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>3072</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>3074</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>3075</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>3076</v>
+      </c>
+      <c r="G28" s="59" t="s">
+        <v>3077</v>
+      </c>
+      <c r="H28" s="59" t="s">
+        <v>2375</v>
+      </c>
+      <c r="I28" s="59" t="s">
+        <v>2376</v>
+      </c>
+      <c r="J28" s="92"/>
+      <c r="N28" s="77" t="s">
+        <v>352</v>
+      </c>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88" t="s">
+        <v>373</v>
+      </c>
+      <c r="S28" s="209"/>
+      <c r="T28" s="209"/>
+      <c r="V28" s="77" t="s">
+        <v>352</v>
+      </c>
+      <c r="W28" s="88"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="84" t="s">
+        <v>352</v>
+      </c>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="59">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="N29" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" s="59" t="s">
+        <v>2294</v>
+      </c>
+      <c r="P29" s="59" t="s">
+        <v>2295</v>
+      </c>
+      <c r="Q29" s="59" t="s">
+        <v>938</v>
+      </c>
+      <c r="R29" s="88"/>
+      <c r="S29" s="209"/>
+      <c r="T29" s="209"/>
+      <c r="V29" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="W29" s="59" t="s">
+        <v>2294</v>
+      </c>
+      <c r="X29" s="59" t="s">
+        <v>2295</v>
+      </c>
+      <c r="Y29" s="59" t="s">
+        <v>938</v>
+      </c>
+      <c r="Z29" s="88"/>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>3079</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>3080</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>3079</v>
+      </c>
+      <c r="F30" s="59" t="s">
+        <v>2377</v>
+      </c>
+      <c r="G30" s="59" t="s">
+        <v>2378</v>
+      </c>
+      <c r="H30" s="59" t="s">
+        <v>3081</v>
+      </c>
+      <c r="I30" s="59" t="s">
+        <v>3082</v>
+      </c>
+      <c r="J30" s="92"/>
+      <c r="N30" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="O30" s="59" t="s">
+        <v>1107</v>
+      </c>
+      <c r="P30" s="59" t="s">
+        <v>2296</v>
+      </c>
+      <c r="Q30" s="59" t="s">
+        <v>2297</v>
+      </c>
+      <c r="R30" s="88"/>
+      <c r="S30" s="209"/>
+      <c r="T30" s="209"/>
+      <c r="V30" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="W30" s="59" t="s">
+        <v>1107</v>
+      </c>
+      <c r="X30" s="59" t="s">
+        <v>2296</v>
+      </c>
+      <c r="Y30" s="59" t="s">
+        <v>2297</v>
+      </c>
+      <c r="Z30" s="88"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E31" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G31" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="H31" s="59" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I31" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="J31" s="92"/>
+      <c r="N31" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="O31" s="59" t="s">
+        <v>2298</v>
+      </c>
+      <c r="P31" s="59" t="s">
+        <v>2299</v>
+      </c>
+      <c r="Q31" s="59" t="s">
+        <v>2300</v>
+      </c>
+      <c r="R31" s="88"/>
+      <c r="S31" s="209"/>
+      <c r="T31" s="209"/>
+      <c r="V31" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="W31" s="59" t="s">
+        <v>2298</v>
+      </c>
+      <c r="X31" s="59" t="s">
+        <v>2299</v>
+      </c>
+      <c r="Y31" s="59" t="s">
+        <v>2300</v>
+      </c>
+      <c r="Z31" s="88"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>3085</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>3086</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>3087</v>
+      </c>
+      <c r="G32" s="59" t="s">
+        <v>3088</v>
+      </c>
+      <c r="H32" s="59" t="s">
+        <v>3089</v>
+      </c>
+      <c r="I32" s="59" t="s">
+        <v>3090</v>
+      </c>
+      <c r="J32" s="92"/>
+      <c r="N32" s="72" t="s">
+        <v>1113</v>
+      </c>
+      <c r="O32" s="59" t="s">
+        <v>2301</v>
+      </c>
+      <c r="P32" s="59" t="s">
+        <v>2302</v>
+      </c>
+      <c r="Q32" s="59" t="s">
+        <v>2303</v>
+      </c>
+      <c r="R32" s="88"/>
+      <c r="S32" s="209"/>
+      <c r="T32" s="209"/>
+      <c r="V32" s="72" t="s">
+        <v>1113</v>
+      </c>
+      <c r="W32" s="59" t="s">
+        <v>2301</v>
+      </c>
+      <c r="X32" s="59" t="s">
+        <v>2302</v>
+      </c>
+      <c r="Y32" s="59" t="s">
+        <v>2303</v>
+      </c>
+      <c r="Z32" s="88"/>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="85" t="s">
+        <v>890</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>2380</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>2379</v>
+      </c>
+      <c r="E33" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F33" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G33" s="59" t="s">
+        <v>3091</v>
+      </c>
+      <c r="H33" s="59" t="s">
+        <v>3092</v>
+      </c>
+      <c r="I33" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="J33" s="92"/>
+      <c r="N33" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="88" t="s">
+        <v>373</v>
+      </c>
+      <c r="S33" s="209"/>
+      <c r="T33" s="209"/>
+      <c r="V33" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="W33" s="88"/>
+      <c r="X33" s="88"/>
+      <c r="Y33" s="88"/>
+      <c r="Z33" s="88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="N34" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="O34" s="59" t="s">
+        <v>2279</v>
+      </c>
+      <c r="P34" s="59" t="s">
+        <v>2280</v>
+      </c>
+      <c r="Q34" s="59" t="s">
+        <v>2281</v>
+      </c>
+      <c r="R34" s="88"/>
+      <c r="S34" s="209"/>
+      <c r="T34" s="209"/>
+      <c r="V34" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="W34" s="59" t="s">
+        <v>2279</v>
+      </c>
+      <c r="X34" s="59" t="s">
+        <v>2280</v>
+      </c>
+      <c r="Y34" s="59" t="s">
+        <v>2281</v>
+      </c>
+      <c r="Z34" s="88"/>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="59" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>3095</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>3096</v>
+      </c>
+      <c r="F35" s="59" t="s">
+        <v>3097</v>
+      </c>
+      <c r="G35" s="59" t="s">
+        <v>3098</v>
+      </c>
+      <c r="H35" s="59" t="s">
+        <v>3099</v>
+      </c>
+      <c r="I35" s="59" t="s">
+        <v>3100</v>
+      </c>
+      <c r="J35" s="92"/>
+      <c r="N35" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="O35" s="59" t="s">
+        <v>2291</v>
+      </c>
+      <c r="P35" s="59" t="s">
+        <v>2292</v>
+      </c>
+      <c r="Q35" s="59" t="s">
+        <v>2293</v>
+      </c>
+      <c r="R35" s="88"/>
+      <c r="S35" s="209"/>
+      <c r="T35" s="209"/>
+      <c r="V35" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="W35" s="59" t="s">
+        <v>2291</v>
+      </c>
+      <c r="X35" s="59" t="s">
+        <v>2292</v>
+      </c>
+      <c r="Y35" s="59" t="s">
+        <v>2293</v>
+      </c>
+      <c r="Z35" s="88"/>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D36" s="59" t="s">
+        <v>3101</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>3102</v>
+      </c>
+      <c r="F36" s="59" t="s">
+        <v>3103</v>
+      </c>
+      <c r="G36" s="59" t="s">
+        <v>3104</v>
+      </c>
+      <c r="H36" s="59" t="s">
+        <v>3105</v>
+      </c>
+      <c r="I36" s="59" t="s">
+        <v>3106</v>
+      </c>
+      <c r="J36" s="92"/>
+      <c r="N36" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="O36" s="88"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="88"/>
+      <c r="R36" s="88" t="s">
+        <v>373</v>
+      </c>
+      <c r="S36" s="209"/>
+      <c r="T36" s="209"/>
+      <c r="V36" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="W36" s="88"/>
+      <c r="X36" s="88"/>
+      <c r="Y36" s="88"/>
+      <c r="Z36" s="88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="59">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="N37" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="O37" s="59" t="s">
+        <v>2279</v>
+      </c>
+      <c r="P37" s="59" t="s">
+        <v>2280</v>
+      </c>
+      <c r="Q37" s="59" t="s">
+        <v>2281</v>
+      </c>
+      <c r="R37" s="88"/>
+      <c r="S37" s="209"/>
+      <c r="T37" s="209"/>
+      <c r="V37" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="W37" s="59" t="s">
+        <v>2279</v>
+      </c>
+      <c r="X37" s="59" t="s">
+        <v>2280</v>
+      </c>
+      <c r="Y37" s="59" t="s">
+        <v>2281</v>
+      </c>
+      <c r="Z37" s="88"/>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>3095</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>3096</v>
+      </c>
+      <c r="F38" s="59" t="s">
+        <v>3097</v>
+      </c>
+      <c r="G38" s="59" t="s">
+        <v>3098</v>
+      </c>
+      <c r="H38" s="59" t="s">
+        <v>3099</v>
+      </c>
+      <c r="I38" s="59" t="s">
+        <v>3100</v>
+      </c>
+      <c r="J38" s="92"/>
+      <c r="N38" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="O38" s="59" t="s">
+        <v>2282</v>
+      </c>
+      <c r="P38" s="59" t="s">
+        <v>2283</v>
+      </c>
+      <c r="Q38" s="59" t="s">
+        <v>2284</v>
+      </c>
+      <c r="R38" s="88"/>
+      <c r="S38" s="209"/>
+      <c r="T38" s="209"/>
+      <c r="V38" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="W38" s="59" t="s">
+        <v>2282</v>
+      </c>
+      <c r="X38" s="59" t="s">
+        <v>2283</v>
+      </c>
+      <c r="Y38" s="59" t="s">
+        <v>2284</v>
+      </c>
+      <c r="Z38" s="88"/>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="59" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D39" s="59" t="s">
+        <v>2383</v>
+      </c>
+      <c r="E39" s="59" t="s">
+        <v>2382</v>
+      </c>
+      <c r="F39" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G39" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="H39" s="59" t="s">
+        <v>2385</v>
+      </c>
+      <c r="I39" s="59" t="s">
+        <v>2384</v>
+      </c>
+      <c r="J39" s="92"/>
+      <c r="N39" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="O39" s="59" t="s">
+        <v>2285</v>
+      </c>
+      <c r="P39" s="59" t="s">
+        <v>2286</v>
+      </c>
+      <c r="Q39" s="59" t="s">
+        <v>2287</v>
+      </c>
+      <c r="R39" s="88"/>
+      <c r="S39" s="209"/>
+      <c r="T39" s="209"/>
+      <c r="V39" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="W39" s="59" t="s">
+        <v>2285</v>
+      </c>
+      <c r="X39" s="59" t="s">
+        <v>2286</v>
+      </c>
+      <c r="Y39" s="59" t="s">
+        <v>2287</v>
+      </c>
+      <c r="Z39" s="88"/>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>3107</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D40" s="59" t="s">
+        <v>3108</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>3109</v>
+      </c>
+      <c r="F40" s="59" t="s">
+        <v>3110</v>
+      </c>
+      <c r="G40" s="59" t="s">
+        <v>3111</v>
+      </c>
+      <c r="H40" s="59" t="s">
+        <v>2387</v>
+      </c>
+      <c r="I40" s="59" t="s">
+        <v>3112</v>
+      </c>
+      <c r="J40" s="92"/>
+      <c r="N40" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="O40" s="59" t="s">
+        <v>2288</v>
+      </c>
+      <c r="P40" s="59" t="s">
+        <v>2289</v>
+      </c>
+      <c r="Q40" s="59" t="s">
+        <v>2290</v>
+      </c>
+      <c r="R40" s="88"/>
+      <c r="S40" s="209"/>
+      <c r="T40" s="209"/>
+      <c r="V40" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="W40" s="59" t="s">
+        <v>2288</v>
+      </c>
+      <c r="X40" s="59" t="s">
+        <v>2289</v>
+      </c>
+      <c r="Y40" s="59" t="s">
+        <v>2290</v>
+      </c>
+      <c r="Z40" s="88"/>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="59" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C41" s="59" t="s">
+        <v>3114</v>
+      </c>
+      <c r="D41" s="59" t="s">
+        <v>3115</v>
+      </c>
+      <c r="E41" s="59" t="s">
+        <v>3116</v>
+      </c>
+      <c r="F41" s="59" t="s">
+        <v>3117</v>
+      </c>
+      <c r="G41" s="59" t="s">
+        <v>3118</v>
+      </c>
+      <c r="H41" s="59" t="s">
+        <v>2388</v>
+      </c>
+      <c r="I41" s="59" t="s">
+        <v>2389</v>
+      </c>
+      <c r="J41" s="92"/>
+      <c r="N41" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="O41" s="88"/>
+      <c r="P41" s="88"/>
+      <c r="Q41" s="88"/>
+      <c r="R41" s="88" t="s">
+        <v>373</v>
+      </c>
+      <c r="S41" s="209"/>
+      <c r="T41" s="209"/>
+      <c r="V41" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="W41" s="88"/>
+      <c r="X41" s="88"/>
+      <c r="Y41" s="88"/>
+      <c r="Z41" s="88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="92"/>
+      <c r="J42" s="59">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="N42" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="O42" s="59" t="s">
+        <v>2273</v>
+      </c>
+      <c r="P42" s="59" t="s">
+        <v>2274</v>
+      </c>
+      <c r="Q42" s="59" t="s">
+        <v>2275</v>
+      </c>
+      <c r="R42" s="88"/>
+      <c r="S42" s="209"/>
+      <c r="T42" s="209"/>
+      <c r="V42" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="W42" s="59" t="s">
+        <v>2273</v>
+      </c>
+      <c r="X42" s="59" t="s">
+        <v>2274</v>
+      </c>
+      <c r="Y42" s="59" t="s">
+        <v>2275</v>
+      </c>
+      <c r="Z42" s="88"/>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="59" t="s">
+        <v>3119</v>
+      </c>
+      <c r="C43" s="59" t="s">
+        <v>3120</v>
+      </c>
+      <c r="D43" s="59" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F43" s="59" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G43" s="59" t="s">
+        <v>3124</v>
+      </c>
+      <c r="H43" s="59" t="s">
+        <v>3125</v>
+      </c>
+      <c r="I43" s="59" t="s">
+        <v>3126</v>
+      </c>
+      <c r="J43" s="92"/>
+      <c r="N43" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="O43" s="59" t="s">
+        <v>2276</v>
+      </c>
+      <c r="P43" s="59" t="s">
+        <v>2277</v>
+      </c>
+      <c r="Q43" s="59" t="s">
+        <v>2278</v>
+      </c>
+      <c r="R43" s="88"/>
+      <c r="S43" s="209"/>
+      <c r="T43" s="209"/>
+      <c r="V43" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="W43" s="59" t="s">
+        <v>2276</v>
+      </c>
+      <c r="X43" s="59" t="s">
+        <v>2277</v>
+      </c>
+      <c r="Y43" s="59" t="s">
+        <v>2278</v>
+      </c>
+      <c r="Z43" s="88"/>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="59" t="s">
+        <v>3127</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D44" s="59" t="s">
+        <v>3129</v>
+      </c>
+      <c r="E44" s="59" t="s">
+        <v>3130</v>
+      </c>
+      <c r="F44" s="59" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G44" s="59" t="s">
+        <v>3131</v>
+      </c>
+      <c r="H44" s="59" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I44" s="59" t="s">
+        <v>1464</v>
+      </c>
+      <c r="J44" s="92"/>
+      <c r="N44" s="60" t="s">
+        <v>2537</v>
+      </c>
+      <c r="O44" s="88"/>
+      <c r="P44" s="88"/>
+      <c r="Q44" s="88"/>
+      <c r="R44" s="88" t="s">
+        <v>373</v>
+      </c>
+      <c r="S44" s="209"/>
+      <c r="T44" s="209"/>
+      <c r="V44" s="60" t="s">
+        <v>2537</v>
+      </c>
+      <c r="W44" s="88"/>
+      <c r="X44" s="88"/>
+      <c r="Y44" s="88"/>
+      <c r="Z44" s="88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" s="60" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="59">
+        <v>0.318</v>
+      </c>
+      <c r="N45" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="O45" s="59" t="s">
+        <v>2261</v>
+      </c>
+      <c r="P45" s="59" t="s">
+        <v>2262</v>
+      </c>
+      <c r="Q45" s="59" t="s">
+        <v>2263</v>
+      </c>
+      <c r="R45" s="88"/>
+      <c r="S45" s="209"/>
+      <c r="T45" s="209"/>
+      <c r="V45" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="W45" s="59" t="s">
+        <v>2261</v>
+      </c>
+      <c r="X45" s="59" t="s">
+        <v>2262</v>
+      </c>
+      <c r="Y45" s="59" t="s">
+        <v>2263</v>
+      </c>
+      <c r="Z45" s="88"/>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="59" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C46" s="59" t="s">
+        <v>3133</v>
+      </c>
+      <c r="D46" s="59" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E46" s="59" t="s">
+        <v>3135</v>
+      </c>
+      <c r="F46" s="59" t="s">
+        <v>3136</v>
+      </c>
+      <c r="G46" s="59" t="s">
+        <v>3137</v>
+      </c>
+      <c r="H46" s="59" t="s">
+        <v>3138</v>
+      </c>
+      <c r="I46" s="59" t="s">
+        <v>3139</v>
+      </c>
+      <c r="J46" s="59"/>
+      <c r="N46" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="O46" s="59" t="s">
+        <v>2264</v>
+      </c>
+      <c r="P46" s="59" t="s">
+        <v>2265</v>
+      </c>
+      <c r="Q46" s="59" t="s">
+        <v>2266</v>
+      </c>
+      <c r="R46" s="88"/>
+      <c r="S46" s="209"/>
+      <c r="T46" s="209"/>
+      <c r="V46" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="W46" s="59" t="s">
+        <v>2264</v>
+      </c>
+      <c r="X46" s="59" t="s">
+        <v>2265</v>
+      </c>
+      <c r="Y46" s="59" t="s">
+        <v>2266</v>
+      </c>
+      <c r="Z46" s="88"/>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="59" t="s">
+        <v>2390</v>
+      </c>
+      <c r="C47" s="59" t="s">
+        <v>3140</v>
+      </c>
+      <c r="D47" s="59" t="s">
+        <v>3141</v>
+      </c>
+      <c r="E47" s="59" t="s">
+        <v>3142</v>
+      </c>
+      <c r="F47" s="59" t="s">
+        <v>3143</v>
+      </c>
+      <c r="G47" s="59" t="s">
+        <v>3143</v>
+      </c>
+      <c r="H47" s="59" t="s">
+        <v>3144</v>
+      </c>
+      <c r="I47" s="59" t="s">
+        <v>3145</v>
+      </c>
+      <c r="J47" s="92"/>
+      <c r="N47" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="O47" s="59" t="s">
+        <v>2267</v>
+      </c>
+      <c r="P47" s="59" t="s">
+        <v>2268</v>
+      </c>
+      <c r="Q47" s="59" t="s">
+        <v>2269</v>
+      </c>
+      <c r="R47" s="88"/>
+      <c r="S47" s="209"/>
+      <c r="T47" s="209"/>
+      <c r="V47" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="W47" s="59" t="s">
+        <v>2267</v>
+      </c>
+      <c r="X47" s="59" t="s">
+        <v>2268</v>
+      </c>
+      <c r="Y47" s="59" t="s">
+        <v>2269</v>
+      </c>
+      <c r="Z47" s="88"/>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="59" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C48" s="59" t="s">
+        <v>3147</v>
+      </c>
+      <c r="D48" s="59" t="s">
+        <v>3148</v>
+      </c>
+      <c r="E48" s="59" t="s">
+        <v>3149</v>
+      </c>
+      <c r="F48" s="59" t="s">
+        <v>3150</v>
+      </c>
+      <c r="G48" s="59" t="s">
+        <v>3151</v>
+      </c>
+      <c r="H48" s="59" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I48" s="59" t="s">
+        <v>3152</v>
+      </c>
+      <c r="J48" s="92"/>
+      <c r="N48" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="O48" s="59" t="s">
+        <v>2270</v>
+      </c>
+      <c r="P48" s="59" t="s">
+        <v>2271</v>
+      </c>
+      <c r="Q48" s="59" t="s">
+        <v>2272</v>
+      </c>
+      <c r="R48" s="88"/>
+      <c r="S48" s="209"/>
+      <c r="T48" s="209"/>
+      <c r="V48" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="W48" s="59" t="s">
+        <v>2270</v>
+      </c>
+      <c r="X48" s="59" t="s">
+        <v>2271</v>
+      </c>
+      <c r="Y48" s="59" t="s">
+        <v>2272</v>
+      </c>
+      <c r="Z48" s="88"/>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="59" t="s">
+        <v>3153</v>
+      </c>
+      <c r="C49" s="59" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D49" s="59" t="s">
+        <v>3153</v>
+      </c>
+      <c r="E49" s="59" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F49" s="59" t="s">
+        <v>1631</v>
+      </c>
+      <c r="G49" s="59" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H49" s="59" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I49" s="59" t="s">
+        <v>1633</v>
+      </c>
+      <c r="J49" s="92"/>
+      <c r="N49" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="O49" s="88"/>
+      <c r="P49" s="88"/>
+      <c r="Q49" s="88"/>
+      <c r="R49" s="88" t="s">
+        <v>373</v>
+      </c>
+      <c r="S49" s="209"/>
+      <c r="T49" s="209"/>
+      <c r="V49" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="W49" s="88"/>
+      <c r="X49" s="88"/>
+      <c r="Y49" s="88"/>
+      <c r="Z49" s="88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="92"/>
+      <c r="H50" s="92"/>
+      <c r="I50" s="92"/>
+      <c r="J50" s="59">
+        <v>0.151</v>
+      </c>
+      <c r="N50" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="O50" s="59" t="s">
+        <v>2252</v>
+      </c>
+      <c r="P50" s="59" t="s">
+        <v>2253</v>
+      </c>
+      <c r="Q50" s="59" t="s">
+        <v>2254</v>
+      </c>
+      <c r="R50" s="88"/>
+      <c r="S50" s="209"/>
+      <c r="T50" s="209"/>
+      <c r="V50" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="W50" s="59" t="s">
+        <v>2252</v>
+      </c>
+      <c r="X50" s="59" t="s">
+        <v>2253</v>
+      </c>
+      <c r="Y50" s="59" t="s">
+        <v>2254</v>
+      </c>
+      <c r="Z50" s="88"/>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="59" t="s">
+        <v>3154</v>
+      </c>
+      <c r="C51" s="59" t="s">
+        <v>3155</v>
+      </c>
+      <c r="D51" s="59" t="s">
+        <v>3156</v>
+      </c>
+      <c r="E51" s="59" t="s">
+        <v>3157</v>
+      </c>
+      <c r="F51" s="59" t="s">
+        <v>3158</v>
+      </c>
+      <c r="G51" s="59" t="s">
+        <v>3159</v>
+      </c>
+      <c r="H51" s="59" t="s">
+        <v>3160</v>
+      </c>
+      <c r="I51" s="59" t="s">
+        <v>3161</v>
+      </c>
+      <c r="J51" s="92"/>
+      <c r="N51" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="O51" s="59" t="s">
+        <v>2255</v>
+      </c>
+      <c r="P51" s="59" t="s">
+        <v>2256</v>
+      </c>
+      <c r="Q51" s="59" t="s">
+        <v>2257</v>
+      </c>
+      <c r="R51" s="88"/>
+      <c r="S51" s="209"/>
+      <c r="T51" s="209"/>
+      <c r="V51" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="W51" s="59" t="s">
+        <v>2255</v>
+      </c>
+      <c r="X51" s="59" t="s">
+        <v>2256</v>
+      </c>
+      <c r="Y51" s="59" t="s">
+        <v>2257</v>
+      </c>
+      <c r="Z51" s="88"/>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="59" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C52" s="59" t="s">
+        <v>3163</v>
+      </c>
+      <c r="D52" s="59" t="s">
+        <v>3164</v>
+      </c>
+      <c r="E52" s="59" t="s">
+        <v>3165</v>
+      </c>
+      <c r="F52" s="59" t="s">
+        <v>3166</v>
+      </c>
+      <c r="G52" s="59" t="s">
+        <v>3167</v>
+      </c>
+      <c r="H52" s="59" t="s">
+        <v>3168</v>
+      </c>
+      <c r="I52" s="59" t="s">
+        <v>3169</v>
+      </c>
+      <c r="J52" s="92"/>
+      <c r="N52" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="O52" s="59" t="s">
+        <v>2258</v>
+      </c>
+      <c r="P52" s="59" t="s">
+        <v>2259</v>
+      </c>
+      <c r="Q52" s="59" t="s">
+        <v>2260</v>
+      </c>
+      <c r="R52" s="88"/>
+      <c r="S52" s="209"/>
+      <c r="T52" s="209"/>
+      <c r="V52" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="W52" s="59" t="s">
+        <v>2258</v>
+      </c>
+      <c r="X52" s="59" t="s">
+        <v>2259</v>
+      </c>
+      <c r="Y52" s="59" t="s">
+        <v>2260</v>
+      </c>
+      <c r="Z52" s="88"/>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="59" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C53" s="59" t="s">
+        <v>3171</v>
+      </c>
+      <c r="D53" s="59" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E53" s="59" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F53" s="59" t="s">
+        <v>3173</v>
+      </c>
+      <c r="G53" s="59" t="s">
+        <v>3173</v>
+      </c>
+      <c r="H53" s="59" t="s">
+        <v>3174</v>
+      </c>
+      <c r="I53" s="59" t="s">
+        <v>3175</v>
+      </c>
+      <c r="J53" s="92"/>
+      <c r="N53" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="O53" s="88"/>
+      <c r="P53" s="88"/>
+      <c r="Q53" s="88"/>
+      <c r="R53" s="88" t="s">
+        <v>373</v>
+      </c>
+      <c r="S53" s="209"/>
+      <c r="T53" s="209"/>
+      <c r="V53" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="W53" s="88"/>
+      <c r="X53" s="88"/>
+      <c r="Y53" s="88"/>
+      <c r="Z53" s="88" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54" s="71" t="s">
+        <v>360</v>
+      </c>
+      <c r="B54" s="92"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="92"/>
+      <c r="I54" s="92"/>
+      <c r="J54" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="N54" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="O54" s="59" t="s">
+        <v>2240</v>
+      </c>
+      <c r="P54" s="59" t="s">
+        <v>2241</v>
+      </c>
+      <c r="Q54" s="59" t="s">
+        <v>2242</v>
+      </c>
+      <c r="R54" s="88"/>
+      <c r="S54" s="209"/>
+      <c r="T54" s="209"/>
+      <c r="V54" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="W54" s="59" t="s">
+        <v>2240</v>
+      </c>
+      <c r="X54" s="59" t="s">
+        <v>2241</v>
+      </c>
+      <c r="Y54" s="59" t="s">
+        <v>2242</v>
+      </c>
+      <c r="Z54" s="88"/>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="59" t="s">
+        <v>3176</v>
+      </c>
+      <c r="C55" s="59" t="s">
+        <v>3177</v>
+      </c>
+      <c r="D55" s="59" t="s">
+        <v>3178</v>
+      </c>
+      <c r="E55" s="59" t="s">
+        <v>3179</v>
+      </c>
+      <c r="F55" s="59" t="s">
+        <v>3180</v>
+      </c>
+      <c r="G55" s="59" t="s">
+        <v>3181</v>
+      </c>
+      <c r="H55" s="59" t="s">
+        <v>3182</v>
+      </c>
+      <c r="I55" s="59" t="s">
+        <v>3183</v>
+      </c>
+      <c r="J55" s="92"/>
+      <c r="N55" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="O55" s="59" t="s">
+        <v>2243</v>
+      </c>
+      <c r="P55" s="59" t="s">
+        <v>2244</v>
+      </c>
+      <c r="Q55" s="59" t="s">
+        <v>2245</v>
+      </c>
+      <c r="R55" s="88"/>
+      <c r="S55" s="209"/>
+      <c r="T55" s="209"/>
+      <c r="V55" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="W55" s="59" t="s">
+        <v>2243</v>
+      </c>
+      <c r="X55" s="59" t="s">
+        <v>2244</v>
+      </c>
+      <c r="Y55" s="59" t="s">
+        <v>2245</v>
+      </c>
+      <c r="Z55" s="88"/>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="59" t="s">
+        <v>3184</v>
+      </c>
+      <c r="C56" s="59" t="s">
+        <v>3185</v>
+      </c>
+      <c r="D56" s="59" t="s">
+        <v>3186</v>
+      </c>
+      <c r="E56" s="59" t="s">
+        <v>3187</v>
+      </c>
+      <c r="F56" s="59" t="s">
+        <v>3188</v>
+      </c>
+      <c r="G56" s="59" t="s">
+        <v>3189</v>
+      </c>
+      <c r="H56" s="59" t="s">
+        <v>3190</v>
+      </c>
+      <c r="I56" s="59" t="s">
+        <v>3191</v>
+      </c>
+      <c r="J56" s="92"/>
+      <c r="N56" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="O56" s="59" t="s">
+        <v>2246</v>
+      </c>
+      <c r="P56" s="59" t="s">
+        <v>2247</v>
+      </c>
+      <c r="Q56" s="59" t="s">
+        <v>2248</v>
+      </c>
+      <c r="R56" s="88"/>
+      <c r="S56" s="209"/>
+      <c r="T56" s="209"/>
+      <c r="V56" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="W56" s="59" t="s">
+        <v>2246</v>
+      </c>
+      <c r="X56" s="59" t="s">
+        <v>2247</v>
+      </c>
+      <c r="Y56" s="59" t="s">
+        <v>2248</v>
+      </c>
+      <c r="Z56" s="88"/>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="59" t="s">
+        <v>3192</v>
+      </c>
+      <c r="C57" s="59" t="s">
+        <v>2392</v>
+      </c>
+      <c r="D57" s="59" t="s">
+        <v>3193</v>
+      </c>
+      <c r="E57" s="59" t="s">
+        <v>3194</v>
+      </c>
+      <c r="F57" s="59" t="s">
+        <v>2391</v>
+      </c>
+      <c r="G57" s="59" t="s">
+        <v>2392</v>
+      </c>
+      <c r="H57" s="59" t="s">
+        <v>2391</v>
+      </c>
+      <c r="I57" s="59" t="s">
+        <v>2392</v>
+      </c>
+      <c r="J57" s="92"/>
+      <c r="N57" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="O57" s="59" t="s">
+        <v>2249</v>
+      </c>
+      <c r="P57" s="59" t="s">
+        <v>2250</v>
+      </c>
+      <c r="Q57" s="59" t="s">
+        <v>2251</v>
+      </c>
+      <c r="R57" s="88"/>
+      <c r="S57" s="209"/>
+      <c r="T57" s="209"/>
+      <c r="V57" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="W57" s="59" t="s">
+        <v>2249</v>
+      </c>
+      <c r="X57" s="59" t="s">
+        <v>2250</v>
+      </c>
+      <c r="Y57" s="59" t="s">
+        <v>2251</v>
+      </c>
+      <c r="Z57" s="88"/>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="59" t="s">
+        <v>3195</v>
+      </c>
+      <c r="C58" s="59" t="s">
+        <v>3196</v>
+      </c>
+      <c r="D58" s="59" t="s">
+        <v>3197</v>
+      </c>
+      <c r="E58" s="59" t="s">
+        <v>3198</v>
+      </c>
+      <c r="F58" s="59" t="s">
+        <v>3199</v>
+      </c>
+      <c r="G58" s="59" t="s">
+        <v>3200</v>
+      </c>
+      <c r="H58" s="59" t="s">
+        <v>2393</v>
+      </c>
+      <c r="I58" s="59" t="s">
+        <v>3201</v>
+      </c>
+      <c r="J58" s="92"/>
+      <c r="N58" s="77" t="s">
+        <v>361</v>
+      </c>
+      <c r="O58" s="88"/>
+      <c r="P58" s="88"/>
+      <c r="Q58" s="88"/>
+      <c r="R58" s="93" t="s">
+        <v>373</v>
+      </c>
+      <c r="S58" s="211"/>
+      <c r="T58" s="211"/>
+      <c r="V58" s="77" t="s">
+        <v>361</v>
+      </c>
+      <c r="W58" s="88"/>
+      <c r="X58" s="88"/>
+      <c r="Y58" s="88"/>
+      <c r="Z58" s="93" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="B59" s="92"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="92"/>
+      <c r="H59" s="92"/>
+      <c r="I59" s="92"/>
+      <c r="J59" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="N59" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="O59" s="59" t="s">
+        <v>2231</v>
+      </c>
+      <c r="P59" s="59" t="s">
+        <v>2232</v>
+      </c>
+      <c r="Q59" s="59" t="s">
+        <v>2233</v>
+      </c>
+      <c r="R59" s="88"/>
+      <c r="S59" s="209"/>
+      <c r="T59" s="209"/>
+      <c r="V59" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="W59" s="59" t="s">
+        <v>2231</v>
+      </c>
+      <c r="X59" s="59" t="s">
+        <v>2232</v>
+      </c>
+      <c r="Y59" s="59" t="s">
+        <v>2233</v>
+      </c>
+      <c r="Z59" s="88"/>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="59" t="s">
+        <v>2395</v>
+      </c>
+      <c r="C60" s="59" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D60" s="59" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E60" s="59" t="s">
+        <v>2396</v>
+      </c>
+      <c r="F60" s="59" t="s">
+        <v>3203</v>
+      </c>
+      <c r="G60" s="59" t="s">
+        <v>3204</v>
+      </c>
+      <c r="H60" s="59" t="s">
+        <v>3205</v>
+      </c>
+      <c r="I60" s="59" t="s">
+        <v>2394</v>
+      </c>
+      <c r="J60" s="92"/>
+      <c r="N60" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="O60" s="59" t="s">
+        <v>2234</v>
+      </c>
+      <c r="P60" s="59" t="s">
+        <v>2235</v>
+      </c>
+      <c r="Q60" s="59" t="s">
+        <v>2236</v>
+      </c>
+      <c r="R60" s="88"/>
+      <c r="S60" s="209"/>
+      <c r="T60" s="209"/>
+      <c r="V60" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="W60" s="59" t="s">
+        <v>2234</v>
+      </c>
+      <c r="X60" s="59" t="s">
+        <v>2235</v>
+      </c>
+      <c r="Y60" s="59" t="s">
+        <v>2236</v>
+      </c>
+      <c r="Z60" s="88"/>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="59" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C61" s="59" t="s">
+        <v>3207</v>
+      </c>
+      <c r="D61" s="59" t="s">
+        <v>3208</v>
+      </c>
+      <c r="E61" s="59" t="s">
+        <v>2397</v>
+      </c>
+      <c r="F61" s="59" t="s">
+        <v>3209</v>
+      </c>
+      <c r="G61" s="59" t="s">
+        <v>3210</v>
+      </c>
+      <c r="H61" s="59" t="s">
+        <v>3211</v>
+      </c>
+      <c r="I61" s="59" t="s">
+        <v>3212</v>
+      </c>
+      <c r="J61" s="92"/>
+      <c r="N61" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="O61" s="59" t="s">
+        <v>2237</v>
+      </c>
+      <c r="P61" s="59" t="s">
+        <v>2238</v>
+      </c>
+      <c r="Q61" s="59" t="s">
+        <v>2239</v>
+      </c>
+      <c r="R61" s="88"/>
+      <c r="S61" s="209"/>
+      <c r="T61" s="209"/>
+      <c r="V61" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="W61" s="59" t="s">
+        <v>2237</v>
+      </c>
+      <c r="X61" s="59" t="s">
+        <v>2238</v>
+      </c>
+      <c r="Y61" s="59" t="s">
+        <v>2239</v>
+      </c>
+      <c r="Z61" s="88"/>
+    </row>
+    <row r="62" spans="1:26" ht="34">
+      <c r="A62" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="59" t="s">
+        <v>3213</v>
+      </c>
+      <c r="C62" s="59" t="s">
+        <v>3214</v>
+      </c>
+      <c r="D62" s="59" t="s">
+        <v>3215</v>
+      </c>
+      <c r="E62" s="59" t="s">
+        <v>3214</v>
+      </c>
+      <c r="F62" s="59" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G62" s="59" t="s">
+        <v>3217</v>
+      </c>
+      <c r="H62" s="59" t="s">
+        <v>3218</v>
+      </c>
+      <c r="I62" s="59" t="s">
+        <v>3219</v>
+      </c>
+      <c r="J62" s="92"/>
+      <c r="N62" s="80" t="s">
+        <v>362</v>
+      </c>
+      <c r="O62" s="88"/>
+      <c r="P62" s="88"/>
+      <c r="Q62" s="88"/>
+      <c r="R62" s="93" t="s">
+        <v>373</v>
+      </c>
+      <c r="S62" s="211"/>
+      <c r="T62" s="211"/>
+      <c r="V62" s="214" t="s">
+        <v>362</v>
+      </c>
+      <c r="W62" s="88"/>
+      <c r="X62" s="88"/>
+      <c r="Y62" s="88"/>
+      <c r="Z62" s="93" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="18" customHeight="1">
+      <c r="A63" s="86" t="s">
+        <v>362</v>
+      </c>
+      <c r="B63" s="92"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="92"/>
+      <c r="G63" s="92"/>
+      <c r="H63" s="92"/>
+      <c r="I63" s="92"/>
+      <c r="J63" s="59" t="s">
+        <v>373</v>
+      </c>
+      <c r="N63" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="O63" s="59" t="s">
+        <v>2210</v>
+      </c>
+      <c r="P63" s="59" t="s">
+        <v>2211</v>
+      </c>
+      <c r="Q63" s="59" t="s">
+        <v>2212</v>
+      </c>
+      <c r="R63" s="88"/>
+      <c r="S63" s="209"/>
+      <c r="T63" s="209"/>
+      <c r="V63" s="215" t="s">
+        <v>109</v>
+      </c>
+      <c r="W63" s="88" t="s">
+        <v>2210</v>
+      </c>
+      <c r="X63" s="88" t="s">
+        <v>2211</v>
+      </c>
+      <c r="Y63" s="88" t="s">
+        <v>2212</v>
+      </c>
+      <c r="Z63" s="88"/>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="59" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C64" s="59" t="s">
+        <v>3221</v>
+      </c>
+      <c r="D64" s="59" t="s">
+        <v>3222</v>
+      </c>
+      <c r="E64" s="59" t="s">
+        <v>3223</v>
+      </c>
+      <c r="F64" s="59" t="s">
+        <v>3224</v>
+      </c>
+      <c r="G64" s="59" t="s">
+        <v>3225</v>
+      </c>
+      <c r="H64" s="59" t="s">
+        <v>3226</v>
+      </c>
+      <c r="I64" s="59" t="s">
+        <v>3227</v>
+      </c>
+      <c r="J64" s="92"/>
+      <c r="N64" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="O64" s="59" t="s">
+        <v>2213</v>
+      </c>
+      <c r="P64" s="59" t="s">
+        <v>2214</v>
+      </c>
+      <c r="Q64" s="59" t="s">
+        <v>2215</v>
+      </c>
+      <c r="R64" s="88"/>
+      <c r="S64" s="209"/>
+      <c r="T64" s="209"/>
+      <c r="V64" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="W64" s="59" t="s">
+        <v>2213</v>
+      </c>
+      <c r="X64" s="59" t="s">
+        <v>2214</v>
+      </c>
+      <c r="Y64" s="59" t="s">
+        <v>2215</v>
+      </c>
+      <c r="Z64" s="88"/>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="59" t="s">
+        <v>2400</v>
+      </c>
+      <c r="C65" s="59" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D65" s="59" t="s">
+        <v>2398</v>
+      </c>
+      <c r="E65" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F65" s="59" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G65" s="59" t="s">
+        <v>2399</v>
+      </c>
+      <c r="H65" s="59" t="s">
+        <v>2398</v>
+      </c>
+      <c r="I65" s="59" t="s">
+        <v>2398</v>
+      </c>
+      <c r="J65" s="92"/>
+      <c r="N65" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="O65" s="59" t="s">
+        <v>2216</v>
+      </c>
+      <c r="P65" s="59" t="s">
+        <v>2217</v>
+      </c>
+      <c r="Q65" s="59" t="s">
+        <v>2218</v>
+      </c>
+      <c r="R65" s="88"/>
+      <c r="S65" s="209"/>
+      <c r="T65" s="209"/>
+      <c r="V65" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="W65" s="59" t="s">
+        <v>2216</v>
+      </c>
+      <c r="X65" s="59" t="s">
+        <v>2217</v>
+      </c>
+      <c r="Y65" s="59" t="s">
+        <v>2218</v>
+      </c>
+      <c r="Z65" s="88"/>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="59" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C66" s="59" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D66" s="59" t="s">
+        <v>3228</v>
+      </c>
+      <c r="E66" s="59" t="s">
+        <v>3229</v>
+      </c>
+      <c r="F66" s="59" t="s">
+        <v>3230</v>
+      </c>
+      <c r="G66" s="59" t="s">
+        <v>3231</v>
+      </c>
+      <c r="H66" s="59" t="s">
+        <v>3232</v>
+      </c>
+      <c r="I66" s="59" t="s">
+        <v>2402</v>
+      </c>
+      <c r="J66" s="92"/>
+      <c r="N66" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="O66" s="59" t="s">
+        <v>2219</v>
+      </c>
+      <c r="P66" s="59" t="s">
+        <v>2220</v>
+      </c>
+      <c r="Q66" s="59" t="s">
+        <v>2221</v>
+      </c>
+      <c r="R66" s="88"/>
+      <c r="S66" s="209"/>
+      <c r="T66" s="209"/>
+      <c r="V66" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="W66" s="59" t="s">
+        <v>2219</v>
+      </c>
+      <c r="X66" s="59" t="s">
+        <v>2220</v>
+      </c>
+      <c r="Y66" s="59" t="s">
+        <v>2221</v>
+      </c>
+      <c r="Z66" s="88"/>
+    </row>
+    <row r="67" spans="1:26">
+      <c r="A67" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="59" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C67" s="59" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D67" s="59" t="s">
+        <v>3235</v>
+      </c>
+      <c r="E67" s="59" t="s">
+        <v>3236</v>
+      </c>
+      <c r="F67" s="59" t="s">
+        <v>3237</v>
+      </c>
+      <c r="G67" s="59" t="s">
+        <v>3238</v>
+      </c>
+      <c r="H67" s="59" t="s">
+        <v>3239</v>
+      </c>
+      <c r="I67" s="59" t="s">
+        <v>3240</v>
+      </c>
+      <c r="J67" s="92"/>
+      <c r="N67" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="O67" s="59" t="s">
+        <v>2222</v>
+      </c>
+      <c r="P67" s="59" t="s">
+        <v>2223</v>
+      </c>
+      <c r="Q67" s="59" t="s">
+        <v>2224</v>
+      </c>
+      <c r="R67" s="88"/>
+      <c r="S67" s="209"/>
+      <c r="T67" s="209"/>
+      <c r="V67" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="W67" s="59" t="s">
+        <v>2222</v>
+      </c>
+      <c r="X67" s="59" t="s">
+        <v>2223</v>
+      </c>
+      <c r="Y67" s="59" t="s">
+        <v>2224</v>
+      </c>
+      <c r="Z67" s="88"/>
+    </row>
+    <row r="68" spans="1:26">
+      <c r="A68" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="59" t="s">
+        <v>3241</v>
+      </c>
+      <c r="C68" s="59" t="s">
+        <v>3242</v>
+      </c>
+      <c r="D68" s="59" t="s">
+        <v>2404</v>
+      </c>
+      <c r="E68" s="59" t="s">
+        <v>3243</v>
+      </c>
+      <c r="F68" s="59" t="s">
+        <v>3242</v>
+      </c>
+      <c r="G68" s="59" t="s">
+        <v>3244</v>
+      </c>
+      <c r="H68" s="59" t="s">
+        <v>3242</v>
+      </c>
+      <c r="I68" s="59" t="s">
+        <v>2403</v>
+      </c>
+      <c r="J68" s="92"/>
+      <c r="N68" s="72" t="s">
+        <v>339</v>
+      </c>
+      <c r="O68" s="59" t="s">
+        <v>2225</v>
+      </c>
+      <c r="P68" s="59" t="s">
+        <v>2226</v>
+      </c>
+      <c r="Q68" s="59" t="s">
+        <v>2227</v>
+      </c>
+      <c r="R68" s="88"/>
+      <c r="S68" s="209"/>
+      <c r="T68" s="209"/>
+      <c r="V68" s="72" t="s">
+        <v>339</v>
+      </c>
+      <c r="W68" s="59" t="s">
+        <v>2225</v>
+      </c>
+      <c r="X68" s="59" t="s">
+        <v>2226</v>
+      </c>
+      <c r="Y68" s="59" t="s">
+        <v>2227</v>
+      </c>
+      <c r="Z68" s="88"/>
+    </row>
+    <row r="69" spans="1:26">
+      <c r="A69" s="72" t="s">
+        <v>339</v>
+      </c>
+      <c r="B69" s="59" t="s">
+        <v>2407</v>
+      </c>
+      <c r="C69" s="59" t="s">
+        <v>3245</v>
+      </c>
+      <c r="D69" s="59" t="s">
+        <v>2405</v>
+      </c>
+      <c r="E69" s="59" t="s">
+        <v>2408</v>
+      </c>
+      <c r="F69" s="59" t="s">
+        <v>2408</v>
+      </c>
+      <c r="G69" s="59" t="s">
+        <v>3246</v>
+      </c>
+      <c r="H69" s="59" t="s">
+        <v>2406</v>
+      </c>
+      <c r="I69" s="59" t="s">
+        <v>3247</v>
+      </c>
+      <c r="J69" s="92"/>
+      <c r="N69" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="O69" s="59" t="s">
+        <v>2228</v>
+      </c>
+      <c r="P69" s="59" t="s">
+        <v>2229</v>
+      </c>
+      <c r="Q69" s="59" t="s">
+        <v>2230</v>
+      </c>
+      <c r="R69" s="88"/>
+      <c r="S69" s="209"/>
+      <c r="T69" s="209"/>
+      <c r="V69" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="W69" s="59" t="s">
+        <v>2228</v>
+      </c>
+      <c r="X69" s="59" t="s">
+        <v>2229</v>
+      </c>
+      <c r="Y69" s="59" t="s">
+        <v>2230</v>
+      </c>
+      <c r="Z69" s="88"/>
+    </row>
+    <row r="70" spans="1:26">
+      <c r="A70" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="59" t="s">
+        <v>3248</v>
+      </c>
+      <c r="C70" s="59" t="s">
+        <v>3249</v>
+      </c>
+      <c r="D70" s="59" t="s">
+        <v>3250</v>
+      </c>
+      <c r="E70" s="59" t="s">
+        <v>2409</v>
+      </c>
+      <c r="F70" s="59" t="s">
+        <v>3251</v>
+      </c>
+      <c r="G70" s="59" t="s">
+        <v>3252</v>
+      </c>
+      <c r="H70" s="59" t="s">
+        <v>3253</v>
+      </c>
+      <c r="I70" s="59" t="s">
+        <v>3254</v>
+      </c>
+      <c r="J70" s="92"/>
+      <c r="N70" s="71" t="s">
+        <v>1236</v>
+      </c>
+      <c r="O70" s="88"/>
+      <c r="P70" s="88"/>
+      <c r="Q70" s="88"/>
+      <c r="R70" s="59"/>
+      <c r="S70" s="210"/>
+      <c r="T70" s="210"/>
+      <c r="V70" s="71" t="s">
+        <v>3744</v>
+      </c>
+      <c r="W70" s="88"/>
+      <c r="X70" s="88"/>
+      <c r="Y70" s="88"/>
+      <c r="Z70" s="59"/>
+    </row>
+    <row r="71" spans="1:26">
+      <c r="A71" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="B71" s="92"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="92"/>
+      <c r="G71" s="92"/>
+      <c r="H71" s="92"/>
+      <c r="I71" s="92"/>
+      <c r="J71" s="59">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="N71" s="72" t="s">
+        <v>1200</v>
+      </c>
+      <c r="O71" s="74" t="s">
+        <v>3278</v>
+      </c>
+      <c r="P71" s="74" t="s">
+        <v>3285</v>
+      </c>
+      <c r="Q71" s="74" t="s">
+        <v>3286</v>
+      </c>
+      <c r="R71" s="85">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="S71" s="212"/>
+      <c r="T71" s="212"/>
+      <c r="V71" s="72" t="s">
+        <v>3745</v>
+      </c>
+      <c r="W71" s="74" t="s">
+        <v>3278</v>
+      </c>
+      <c r="X71" s="74" t="s">
+        <v>3285</v>
+      </c>
+      <c r="Y71" s="74" t="s">
+        <v>3286</v>
+      </c>
+      <c r="Z71" s="85">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
+      <c r="A72" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="59" t="s">
+        <v>3255</v>
+      </c>
+      <c r="C72" s="59" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D72" s="59" t="s">
+        <v>3257</v>
+      </c>
+      <c r="E72" s="59" t="s">
+        <v>3062</v>
+      </c>
+      <c r="F72" s="59" t="s">
+        <v>3258</v>
+      </c>
+      <c r="G72" s="59" t="s">
+        <v>3259</v>
+      </c>
+      <c r="H72" s="59" t="s">
+        <v>3067</v>
+      </c>
+      <c r="I72" s="59" t="s">
+        <v>3260</v>
+      </c>
+      <c r="J72" s="92"/>
+      <c r="N72" s="72" t="s">
+        <v>1204</v>
+      </c>
+      <c r="O72" s="74" t="s">
+        <v>3279</v>
+      </c>
+      <c r="P72" s="74" t="s">
+        <v>3287</v>
+      </c>
+      <c r="Q72" s="74" t="s">
+        <v>3288</v>
+      </c>
+      <c r="R72" s="85"/>
+      <c r="S72" s="212"/>
+      <c r="T72" s="212"/>
+      <c r="V72" s="72" t="s">
+        <v>3746</v>
+      </c>
+      <c r="W72" s="74" t="s">
+        <v>3279</v>
+      </c>
+      <c r="X72" s="74" t="s">
+        <v>3287</v>
+      </c>
+      <c r="Y72" s="74" t="s">
+        <v>3288</v>
+      </c>
+      <c r="Z72" s="85"/>
+    </row>
+    <row r="73" spans="1:26">
+      <c r="A73" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="59" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C73" s="59" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D73" s="59" t="s">
+        <v>3263</v>
+      </c>
+      <c r="E73" s="59" t="s">
+        <v>3264</v>
+      </c>
+      <c r="F73" s="59" t="s">
+        <v>3265</v>
+      </c>
+      <c r="G73" s="59" t="s">
+        <v>3266</v>
+      </c>
+      <c r="H73" s="59" t="s">
+        <v>3267</v>
+      </c>
+      <c r="I73" s="59" t="s">
+        <v>3268</v>
+      </c>
+      <c r="J73" s="92"/>
+      <c r="N73" s="72" t="s">
+        <v>1208</v>
+      </c>
+      <c r="O73" s="74" t="s">
+        <v>3280</v>
+      </c>
+      <c r="P73" s="74" t="s">
+        <v>3289</v>
+      </c>
+      <c r="Q73" s="74" t="s">
+        <v>3290</v>
+      </c>
+      <c r="R73" s="85"/>
+      <c r="S73" s="212"/>
+      <c r="T73" s="212"/>
+      <c r="V73" s="72" t="s">
+        <v>3747</v>
+      </c>
+      <c r="W73" s="74" t="s">
+        <v>3280</v>
+      </c>
+      <c r="X73" s="74" t="s">
+        <v>3289</v>
+      </c>
+      <c r="Y73" s="74" t="s">
+        <v>3290</v>
+      </c>
+      <c r="Z73" s="85"/>
+    </row>
+    <row r="74" spans="1:26">
+      <c r="A74" s="79"/>
+      <c r="B74" s="94"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="94"/>
+      <c r="E74" s="94"/>
+      <c r="F74" s="94"/>
+      <c r="G74" s="94"/>
+      <c r="H74" s="94"/>
+      <c r="I74" s="94"/>
+      <c r="J74" s="94"/>
+      <c r="N74" s="72" t="s">
+        <v>367</v>
+      </c>
+      <c r="O74" s="74" t="s">
+        <v>3281</v>
+      </c>
+      <c r="P74" s="74" t="s">
+        <v>3291</v>
+      </c>
+      <c r="Q74" s="74" t="s">
+        <v>3292</v>
+      </c>
+      <c r="R74" s="85"/>
+      <c r="S74" s="212"/>
+      <c r="T74" s="212"/>
+      <c r="V74" s="72" t="s">
+        <v>3748</v>
+      </c>
+      <c r="W74" s="74" t="s">
+        <v>3281</v>
+      </c>
+      <c r="X74" s="74" t="s">
+        <v>3291</v>
+      </c>
+      <c r="Y74" s="74" t="s">
+        <v>3292</v>
+      </c>
+      <c r="Z74" s="85"/>
+    </row>
+    <row r="75" spans="1:26">
+      <c r="A75" s="78"/>
+      <c r="B75" s="94"/>
+      <c r="C75" s="94"/>
+      <c r="D75" s="94"/>
+      <c r="E75" s="94"/>
+      <c r="F75" s="94"/>
+      <c r="G75" s="94"/>
+      <c r="H75" s="94"/>
+      <c r="I75" s="94"/>
+      <c r="J75" s="94"/>
+      <c r="N75" s="72" t="s">
+        <v>368</v>
+      </c>
+      <c r="O75" s="74" t="s">
+        <v>3282</v>
+      </c>
+      <c r="P75" s="74" t="s">
+        <v>3293</v>
+      </c>
+      <c r="Q75" s="74" t="s">
+        <v>3294</v>
+      </c>
+      <c r="R75" s="85"/>
+      <c r="S75" s="212"/>
+      <c r="T75" s="212"/>
+      <c r="V75" s="72" t="s">
+        <v>3749</v>
+      </c>
+      <c r="W75" s="74" t="s">
+        <v>3282</v>
+      </c>
+      <c r="X75" s="74" t="s">
+        <v>3293</v>
+      </c>
+      <c r="Y75" s="74" t="s">
+        <v>3294</v>
+      </c>
+      <c r="Z75" s="85"/>
+    </row>
+    <row r="76" spans="1:26">
+      <c r="A76" s="79"/>
+      <c r="B76" s="94"/>
+      <c r="C76" s="94"/>
+      <c r="D76" s="94"/>
+      <c r="E76" s="94"/>
+      <c r="F76" s="94"/>
+      <c r="G76" s="94"/>
+      <c r="H76" s="94"/>
+      <c r="I76" s="94"/>
+      <c r="J76" s="94"/>
+      <c r="N76" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="O76" s="74" t="s">
+        <v>3283</v>
+      </c>
+      <c r="P76" s="74" t="s">
+        <v>3295</v>
+      </c>
+      <c r="Q76" s="74" t="s">
+        <v>3296</v>
+      </c>
+      <c r="R76" s="85"/>
+      <c r="S76" s="212"/>
+      <c r="T76" s="212"/>
+      <c r="V76" s="72" t="s">
+        <v>3752</v>
+      </c>
+      <c r="W76" s="74" t="s">
+        <v>3283</v>
+      </c>
+      <c r="X76" s="74" t="s">
+        <v>3295</v>
+      </c>
+      <c r="Y76" s="74" t="s">
+        <v>3296</v>
+      </c>
+      <c r="Z76" s="85"/>
+    </row>
+    <row r="77" spans="1:26">
+      <c r="A77" s="79"/>
+      <c r="B77" s="94"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="94"/>
+      <c r="F77" s="94"/>
+      <c r="G77" s="94"/>
+      <c r="H77" s="94"/>
+      <c r="I77" s="94"/>
+      <c r="J77" s="94"/>
+      <c r="N77" s="72" t="s">
+        <v>370</v>
+      </c>
+      <c r="O77" s="74" t="s">
+        <v>3284</v>
+      </c>
+      <c r="P77" s="74" t="s">
+        <v>3297</v>
+      </c>
+      <c r="Q77" s="74" t="s">
+        <v>3298</v>
+      </c>
+      <c r="R77" s="85"/>
+      <c r="S77" s="212"/>
+      <c r="T77" s="212"/>
+      <c r="V77" s="72" t="s">
+        <v>3750</v>
+      </c>
+      <c r="W77" s="74" t="s">
+        <v>3284</v>
+      </c>
+      <c r="X77" s="74" t="s">
+        <v>3297</v>
+      </c>
+      <c r="Y77" s="74" t="s">
+        <v>3298</v>
+      </c>
+      <c r="Z77" s="85"/>
+    </row>
+    <row r="78" spans="1:26">
+      <c r="A78" s="79"/>
+      <c r="B78" s="94"/>
+      <c r="C78" s="94"/>
+      <c r="D78" s="94"/>
+      <c r="E78" s="94"/>
+      <c r="F78" s="94"/>
+      <c r="G78" s="94"/>
+      <c r="H78" s="94"/>
+      <c r="I78" s="94"/>
+      <c r="J78" s="94"/>
+      <c r="N78" s="72" t="s">
+        <v>371</v>
+      </c>
+      <c r="O78" s="74" t="s">
+        <v>2264</v>
+      </c>
+      <c r="P78" s="74" t="s">
+        <v>3299</v>
+      </c>
+      <c r="Q78" s="74" t="s">
+        <v>3300</v>
+      </c>
+      <c r="R78" s="85"/>
+      <c r="S78" s="212"/>
+      <c r="T78" s="212"/>
+      <c r="V78" s="72" t="s">
+        <v>3751</v>
+      </c>
+      <c r="W78" s="74" t="s">
+        <v>2264</v>
+      </c>
+      <c r="X78" s="74" t="s">
+        <v>3299</v>
+      </c>
+      <c r="Y78" s="74" t="s">
+        <v>3300</v>
+      </c>
+      <c r="Z78" s="85"/>
+    </row>
+    <row r="79" spans="1:26">
+      <c r="A79" s="79"/>
+      <c r="B79" s="94"/>
+      <c r="C79" s="94"/>
+      <c r="D79" s="94"/>
+      <c r="E79" s="94"/>
+      <c r="F79" s="94"/>
+      <c r="G79" s="94"/>
+      <c r="H79" s="94"/>
+      <c r="I79" s="94"/>
+      <c r="N79" s="71" t="s">
+        <v>2588</v>
+      </c>
+      <c r="O79" s="74"/>
+      <c r="P79" s="74"/>
+      <c r="Q79" s="74"/>
+      <c r="R79" s="59">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="S79" s="210"/>
+      <c r="T79" s="210"/>
+    </row>
+    <row r="80" spans="1:26">
+      <c r="N80" s="72" t="s">
+        <v>2589</v>
+      </c>
+      <c r="O80" s="59" t="s">
+        <v>2624</v>
+      </c>
+      <c r="P80" s="59" t="s">
+        <v>2625</v>
+      </c>
+      <c r="Q80" s="59" t="s">
+        <v>2626</v>
+      </c>
+      <c r="R80" s="74"/>
+      <c r="S80" s="213"/>
+      <c r="T80" s="213"/>
+    </row>
+    <row r="81" spans="14:20">
+      <c r="N81" s="72" t="s">
+        <v>2590</v>
+      </c>
+      <c r="O81" s="59" t="s">
+        <v>2627</v>
+      </c>
+      <c r="P81" s="59" t="s">
+        <v>2628</v>
+      </c>
+      <c r="Q81" s="59" t="s">
+        <v>2629</v>
+      </c>
+      <c r="R81" s="74"/>
+      <c r="S81" s="213"/>
+      <c r="T81" s="213"/>
+    </row>
+    <row r="82" spans="14:20">
+      <c r="N82" s="72" t="s">
+        <v>2591</v>
+      </c>
+      <c r="O82" s="59" t="s">
+        <v>2630</v>
+      </c>
+      <c r="P82" s="59" t="s">
+        <v>2631</v>
+      </c>
+      <c r="Q82" s="59" t="s">
+        <v>2632</v>
+      </c>
+      <c r="R82" s="74"/>
+      <c r="S82" s="213"/>
+      <c r="T82" s="213"/>
+    </row>
+    <row r="83" spans="14:20">
+      <c r="N83" s="72" t="s">
+        <v>2592</v>
+      </c>
+      <c r="O83" s="59" t="s">
+        <v>2633</v>
+      </c>
+      <c r="P83" s="59" t="s">
+        <v>2634</v>
+      </c>
+      <c r="Q83" s="59" t="s">
+        <v>2635</v>
+      </c>
+      <c r="R83" s="74"/>
+      <c r="S83" s="213"/>
+      <c r="T83" s="213"/>
+    </row>
+    <row r="84" spans="14:20">
+      <c r="N84" s="72" t="s">
+        <v>2593</v>
+      </c>
+      <c r="O84" s="59" t="s">
+        <v>2636</v>
+      </c>
+      <c r="P84" s="59" t="s">
+        <v>2637</v>
+      </c>
+      <c r="Q84" s="59" t="s">
+        <v>2638</v>
+      </c>
+      <c r="R84" s="74"/>
+      <c r="S84" s="213"/>
+      <c r="T84" s="213"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="J2:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13834C78-7DF2-304A-9D5B-DDF021AB6EE8}">
   <dimension ref="A1:K75"/>
   <sheetViews>
@@ -22060,13 +27151,13 @@
     <row r="36" spans="1:11" ht="19">
       <c r="A36" s="123"/>
       <c r="B36" s="124"/>
-      <c r="C36" s="189" t="s">
+      <c r="C36" s="191" t="s">
         <v>2904</v>
       </c>
-      <c r="D36" s="189"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="189"/>
-      <c r="G36" s="189"/>
+      <c r="D36" s="191"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="191"/>
+      <c r="G36" s="191"/>
       <c r="H36" s="123"/>
       <c r="I36" s="125"/>
       <c r="J36" s="125"/>
@@ -22873,7 +27964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE265C6-82DA-7846-9A78-1817B312242B}">
   <dimension ref="A3:M61"/>
   <sheetViews>
@@ -22891,17 +27982,17 @@
   <sheetData>
     <row r="3" spans="1:13" ht="17" thickBot="1"/>
     <row r="4" spans="1:13" ht="16" customHeight="1" thickBot="1">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="193" t="s">
         <v>2953</v>
       </c>
-      <c r="B4" s="191"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="192"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="195"/>
     </row>
     <row r="5" spans="1:13" ht="17" thickBot="1">
       <c r="A5" s="128" t="s">
@@ -23026,24 +28117,24 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="140"/>
-      <c r="B13" s="193" t="s">
+      <c r="B13" s="196" t="s">
         <v>855</v>
       </c>
-      <c r="C13" s="193"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="194" t="s">
+      <c r="C13" s="196"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="197" t="s">
         <v>867</v>
       </c>
-      <c r="G13" s="194"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="194"/>
-      <c r="J13" s="194" t="s">
+      <c r="G13" s="197"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="197"/>
+      <c r="J13" s="197" t="s">
         <v>868</v>
       </c>
-      <c r="K13" s="194"/>
-      <c r="L13" s="194"/>
-      <c r="M13" s="194"/>
+      <c r="K13" s="197"/>
+      <c r="L13" s="197"/>
+      <c r="M13" s="197"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="84"/>
@@ -23440,10 +28531,10 @@
     <row r="27" spans="1:13">
       <c r="A27" s="133"/>
       <c r="B27" s="134"/>
-      <c r="C27" s="195" t="s">
+      <c r="C27" s="198" t="s">
         <v>2946</v>
       </c>
-      <c r="D27" s="195"/>
+      <c r="D27" s="198"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="133"/>
@@ -23843,48 +28934,48 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="196" t="s">
+      <c r="A59" s="192" t="s">
         <v>2950</v>
       </c>
-      <c r="B59" s="196"/>
-      <c r="C59" s="196"/>
-      <c r="D59" s="196"/>
-      <c r="E59" s="196"/>
+      <c r="B59" s="192"/>
+      <c r="C59" s="192"/>
+      <c r="D59" s="192"/>
+      <c r="E59" s="192"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="196" t="s">
+      <c r="A60" s="192" t="s">
         <v>2951</v>
       </c>
-      <c r="B60" s="196"/>
-      <c r="C60" s="196"/>
-      <c r="D60" s="196"/>
-      <c r="E60" s="196"/>
+      <c r="B60" s="192"/>
+      <c r="C60" s="192"/>
+      <c r="D60" s="192"/>
+      <c r="E60" s="192"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="196" t="s">
+      <c r="A61" s="192" t="s">
         <v>2952</v>
       </c>
-      <c r="B61" s="196"/>
-      <c r="C61" s="196"/>
-      <c r="D61" s="196"/>
-      <c r="E61" s="196"/>
+      <c r="B61" s="192"/>
+      <c r="C61" s="192"/>
+      <c r="D61" s="192"/>
+      <c r="E61" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="A59:E59"/>
     <mergeCell ref="A60:E60"/>
     <mergeCell ref="A61:E61"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD5FE96-1EED-FA49-B270-C7A53AA28E4A}">
   <dimension ref="A2:C66"/>
   <sheetViews>
@@ -26383,17 +31474,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="164" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
       <c r="O1" s="72" t="s">
         <v>2905</v>
       </c>
@@ -26411,7 +31502,7 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="162" t="s">
         <v>2905</v>
       </c>
       <c r="B2" s="70" t="s">
@@ -26441,7 +31532,7 @@
       <c r="J2" s="70" t="s">
         <v>372</v>
       </c>
-      <c r="K2" s="161" t="s">
+      <c r="K2" s="163" t="s">
         <v>359</v>
       </c>
       <c r="O2" s="72"/>
@@ -26457,7 +31548,7 @@
       <c r="S2" s="74"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="160"/>
+      <c r="A3" s="162"/>
       <c r="B3" s="83" t="s">
         <v>882</v>
       </c>
@@ -26485,7 +31576,7 @@
       <c r="J3" s="83" t="s">
         <v>889</v>
       </c>
-      <c r="K3" s="161"/>
+      <c r="K3" s="163"/>
       <c r="O3" s="77" t="s">
         <v>5</v>
       </c>
@@ -29121,7 +34212,7 @@
       <c r="J66" s="59" t="s">
         <v>1620</v>
       </c>
-      <c r="K66" s="163"/>
+      <c r="K66" s="165"/>
       <c r="O66" s="72" t="s">
         <v>119</v>
       </c>
@@ -29167,7 +34258,7 @@
       <c r="J67" s="59" t="s">
         <v>1628</v>
       </c>
-      <c r="K67" s="163"/>
+      <c r="K67" s="165"/>
       <c r="O67" s="72" t="s">
         <v>123</v>
       </c>
@@ -29826,17 +34917,17 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="85"/>
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="168" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
       <c r="P1" s="72"/>
       <c r="Q1" s="87" t="s">
         <v>1044</v>
@@ -29852,7 +34943,7 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="164"/>
+      <c r="A2" s="166"/>
       <c r="B2" s="82" t="s">
         <v>364</v>
       </c>
@@ -29877,7 +34968,7 @@
       <c r="I2" s="82" t="s">
         <v>371</v>
       </c>
-      <c r="J2" s="165" t="s">
+      <c r="J2" s="167" t="s">
         <v>359</v>
       </c>
       <c r="P2" s="72"/>
@@ -29893,7 +34984,7 @@
       <c r="T2" s="88"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="164"/>
+      <c r="A3" s="166"/>
       <c r="B3" s="83" t="s">
         <v>2411</v>
       </c>
@@ -29918,7 +35009,7 @@
       <c r="I3" s="83" t="s">
         <v>2418</v>
       </c>
-      <c r="J3" s="165"/>
+      <c r="J3" s="167"/>
       <c r="P3" s="77" t="s">
         <v>5</v>
       </c>
@@ -32416,7 +37507,7 @@
         <v>2164</v>
       </c>
       <c r="J66" s="59"/>
-      <c r="K66" s="159"/>
+      <c r="K66" s="161"/>
       <c r="P66" s="72" t="s">
         <v>119</v>
       </c>
@@ -32460,7 +37551,7 @@
         <v>2172</v>
       </c>
       <c r="J67" s="59"/>
-      <c r="K67" s="159"/>
+      <c r="K67" s="161"/>
       <c r="P67" s="72" t="s">
         <v>123</v>
       </c>
@@ -32936,7 +38027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB1C3E9-490A-C74E-863F-DA386C30BE5C}">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -32955,16 +38046,16 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="85"/>
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="163" t="s">
         <v>3277</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
       <c r="J1" s="70"/>
       <c r="K1" s="81"/>
       <c r="N1" s="72"/>
@@ -32982,34 +38073,34 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="166" t="s">
         <v>2410</v>
       </c>
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="157" t="s">
         <v>364</v>
       </c>
-      <c r="C2" s="197" t="s">
+      <c r="C2" s="157" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="197" t="s">
+      <c r="D2" s="157" t="s">
         <v>366</v>
       </c>
-      <c r="E2" s="197" t="s">
+      <c r="E2" s="157" t="s">
         <v>367</v>
       </c>
-      <c r="F2" s="197" t="s">
+      <c r="F2" s="157" t="s">
         <v>368</v>
       </c>
-      <c r="G2" s="197" t="s">
+      <c r="G2" s="157" t="s">
         <v>369</v>
       </c>
-      <c r="H2" s="197" t="s">
+      <c r="H2" s="157" t="s">
         <v>370</v>
       </c>
-      <c r="I2" s="197" t="s">
+      <c r="I2" s="157" t="s">
         <v>371</v>
       </c>
-      <c r="J2" s="165" t="s">
+      <c r="J2" s="167" t="s">
         <v>359</v>
       </c>
       <c r="N2" s="72"/>
@@ -33025,7 +38116,7 @@
       <c r="R2" s="88"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="164"/>
+      <c r="A3" s="166"/>
       <c r="B3" s="83" t="s">
         <v>3269</v>
       </c>
@@ -33050,7 +38141,7 @@
       <c r="I3" s="83" t="s">
         <v>3276</v>
       </c>
-      <c r="J3" s="165"/>
+      <c r="J3" s="167"/>
       <c r="N3" s="77" t="s">
         <v>5</v>
       </c>
@@ -35805,14 +40896,14 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="79"/>
-      <c r="B74" s="198"/>
-      <c r="C74" s="198"/>
-      <c r="D74" s="198"/>
-      <c r="E74" s="198"/>
-      <c r="F74" s="198"/>
-      <c r="G74" s="198"/>
-      <c r="H74" s="198"/>
-      <c r="I74" s="198"/>
+      <c r="B74" s="158"/>
+      <c r="C74" s="158"/>
+      <c r="D74" s="158"/>
+      <c r="E74" s="158"/>
+      <c r="F74" s="158"/>
+      <c r="G74" s="158"/>
+      <c r="H74" s="158"/>
+      <c r="I74" s="158"/>
       <c r="J74" s="94"/>
       <c r="N74" s="72" t="s">
         <v>367</v>
@@ -35830,14 +40921,14 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="78"/>
-      <c r="B75" s="198"/>
-      <c r="C75" s="198"/>
-      <c r="D75" s="198"/>
-      <c r="E75" s="198"/>
-      <c r="F75" s="198"/>
-      <c r="G75" s="198"/>
-      <c r="H75" s="198"/>
-      <c r="I75" s="198"/>
+      <c r="B75" s="158"/>
+      <c r="C75" s="158"/>
+      <c r="D75" s="158"/>
+      <c r="E75" s="158"/>
+      <c r="F75" s="158"/>
+      <c r="G75" s="158"/>
+      <c r="H75" s="158"/>
+      <c r="I75" s="158"/>
       <c r="J75" s="94"/>
       <c r="N75" s="72" t="s">
         <v>368</v>
@@ -35855,14 +40946,14 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="79"/>
-      <c r="B76" s="198"/>
-      <c r="C76" s="198"/>
-      <c r="D76" s="198"/>
-      <c r="E76" s="198"/>
-      <c r="F76" s="198"/>
-      <c r="G76" s="198"/>
-      <c r="H76" s="198"/>
-      <c r="I76" s="198"/>
+      <c r="B76" s="158"/>
+      <c r="C76" s="158"/>
+      <c r="D76" s="158"/>
+      <c r="E76" s="158"/>
+      <c r="F76" s="158"/>
+      <c r="G76" s="158"/>
+      <c r="H76" s="158"/>
+      <c r="I76" s="158"/>
       <c r="J76" s="94"/>
       <c r="N76" s="72" t="s">
         <v>369</v>
@@ -35880,14 +40971,14 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="79"/>
-      <c r="B77" s="198"/>
-      <c r="C77" s="198"/>
-      <c r="D77" s="198"/>
-      <c r="E77" s="198"/>
-      <c r="F77" s="198"/>
-      <c r="G77" s="198"/>
-      <c r="H77" s="198"/>
-      <c r="I77" s="198"/>
+      <c r="B77" s="158"/>
+      <c r="C77" s="158"/>
+      <c r="D77" s="158"/>
+      <c r="E77" s="158"/>
+      <c r="F77" s="158"/>
+      <c r="G77" s="158"/>
+      <c r="H77" s="158"/>
+      <c r="I77" s="158"/>
       <c r="J77" s="94"/>
       <c r="N77" s="72" t="s">
         <v>370</v>
@@ -35905,14 +40996,14 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="79"/>
-      <c r="B78" s="198"/>
-      <c r="C78" s="198"/>
-      <c r="D78" s="198"/>
-      <c r="E78" s="198"/>
-      <c r="F78" s="198"/>
-      <c r="G78" s="198"/>
-      <c r="H78" s="198"/>
-      <c r="I78" s="198"/>
+      <c r="B78" s="158"/>
+      <c r="C78" s="158"/>
+      <c r="D78" s="158"/>
+      <c r="E78" s="158"/>
+      <c r="F78" s="158"/>
+      <c r="G78" s="158"/>
+      <c r="H78" s="158"/>
+      <c r="I78" s="158"/>
       <c r="J78" s="94"/>
       <c r="N78" s="72" t="s">
         <v>371</v>
@@ -35930,14 +41021,14 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="79"/>
-      <c r="B79" s="198"/>
-      <c r="C79" s="198"/>
-      <c r="D79" s="198"/>
-      <c r="E79" s="198"/>
-      <c r="F79" s="198"/>
-      <c r="G79" s="198"/>
-      <c r="H79" s="198"/>
-      <c r="I79" s="198"/>
+      <c r="B79" s="158"/>
+      <c r="C79" s="158"/>
+      <c r="D79" s="158"/>
+      <c r="E79" s="158"/>
+      <c r="F79" s="158"/>
+      <c r="G79" s="158"/>
+      <c r="H79" s="158"/>
+      <c r="I79" s="158"/>
       <c r="N79" s="71" t="s">
         <v>2588</v>
       </c>
@@ -36038,8 +41129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33CB0B5-F2AC-124E-9AEC-F4EB916A46DF}">
   <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -36056,16 +41147,16 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="85"/>
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="168" t="s">
         <v>3277</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
       <c r="J1" s="70"/>
       <c r="K1" s="81"/>
       <c r="N1" s="72"/>
@@ -36083,7 +41174,7 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="166" t="s">
         <v>2410</v>
       </c>
       <c r="B2" s="82" t="s">
@@ -36110,7 +41201,7 @@
       <c r="I2" s="82" t="s">
         <v>371</v>
       </c>
-      <c r="J2" s="165" t="s">
+      <c r="J2" s="167" t="s">
         <v>359</v>
       </c>
       <c r="N2" s="72"/>
@@ -36126,7 +41217,7 @@
       <c r="R2" s="88"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="164"/>
+      <c r="A3" s="166"/>
       <c r="B3" s="83" t="s">
         <v>3269</v>
       </c>
@@ -36151,7 +41242,7 @@
       <c r="I3" s="83" t="s">
         <v>3276</v>
       </c>
-      <c r="J3" s="165"/>
+      <c r="J3" s="167"/>
       <c r="N3" s="77" t="s">
         <v>5</v>
       </c>
@@ -39163,26 +44254,26 @@
     </row>
     <row r="2" spans="1:11" s="19" customFormat="1">
       <c r="A2" s="21"/>
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="171" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="168" t="s">
+      <c r="C2" s="171"/>
+      <c r="D2" s="170" t="s">
         <v>378</v>
       </c>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168" t="s">
+      <c r="E2" s="170"/>
+      <c r="F2" s="170" t="s">
         <v>379</v>
       </c>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168" t="s">
+      <c r="G2" s="170"/>
+      <c r="H2" s="170" t="s">
         <v>380</v>
       </c>
-      <c r="I2" s="168"/>
-      <c r="J2" s="167" t="s">
+      <c r="I2" s="170"/>
+      <c r="J2" s="171" t="s">
         <v>381</v>
       </c>
-      <c r="K2" s="167"/>
+      <c r="K2" s="171"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="22"/>
@@ -40070,26 +45161,26 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="25"/>
-      <c r="B46" s="167" t="s">
+      <c r="B46" s="171" t="s">
         <v>377</v>
       </c>
-      <c r="C46" s="167"/>
-      <c r="D46" s="168" t="s">
+      <c r="C46" s="171"/>
+      <c r="D46" s="170" t="s">
         <v>378</v>
       </c>
-      <c r="E46" s="168"/>
-      <c r="F46" s="168" t="s">
+      <c r="E46" s="170"/>
+      <c r="F46" s="170" t="s">
         <v>379</v>
       </c>
-      <c r="G46" s="168"/>
-      <c r="H46" s="168" t="s">
+      <c r="G46" s="170"/>
+      <c r="H46" s="170" t="s">
         <v>380</v>
       </c>
-      <c r="I46" s="168"/>
-      <c r="J46" s="167" t="s">
+      <c r="I46" s="170"/>
+      <c r="J46" s="171" t="s">
         <v>381</v>
       </c>
-      <c r="K46" s="167"/>
+      <c r="K46" s="171"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="22"/>
@@ -40920,18 +46011,18 @@
         <v>377</v>
       </c>
       <c r="C89" s="169"/>
-      <c r="D89" s="168" t="s">
+      <c r="D89" s="170" t="s">
         <v>378</v>
       </c>
-      <c r="E89" s="168"/>
-      <c r="F89" s="168" t="s">
+      <c r="E89" s="170"/>
+      <c r="F89" s="170" t="s">
         <v>379</v>
       </c>
-      <c r="G89" s="168"/>
-      <c r="H89" s="168" t="s">
+      <c r="G89" s="170"/>
+      <c r="H89" s="170" t="s">
         <v>380</v>
       </c>
-      <c r="I89" s="168"/>
+      <c r="I89" s="170"/>
       <c r="J89" s="169" t="s">
         <v>381</v>
       </c>
@@ -41687,21 +46778,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="B89:C89"/>
     <mergeCell ref="D89:E89"/>
     <mergeCell ref="F89:G89"/>
     <mergeCell ref="H89:I89"/>
     <mergeCell ref="J89:K89"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
